--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A617D4E-73F1-4EB2-897D-AEC81A7184CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EB4079-9818-484B-B4B3-4783574F13C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Unit" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="279">
   <si>
     <t>1=Read</t>
   </si>
@@ -863,6 +863,24 @@
   </si>
   <si>
     <t>Load ADR to PC</t>
+  </si>
+  <si>
+    <t>Prepare for POP</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G4:0</t>
+  </si>
+  <si>
+    <t>POP OL; Prepare for POP OH</t>
+  </si>
+  <si>
+    <t>G4:1</t>
+  </si>
+  <si>
+    <t>JMP to RET_ADR</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2497,6 +2515,7 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2660,16 +2679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3040,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="E59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V93" sqref="V93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3068,50 +3077,50 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="216" t="s">
+      <c r="C5" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219"/>
       <c r="M5" s="128"/>
-      <c r="N5" s="230" t="s">
+      <c r="N5" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="230"/>
-      <c r="P5" s="230"/>
-      <c r="Q5" s="230"/>
-      <c r="R5" s="230"/>
-      <c r="S5" s="230"/>
-      <c r="T5" s="230"/>
-      <c r="U5" s="230"/>
-      <c r="V5" s="230"/>
-      <c r="W5" s="230"/>
-      <c r="X5" s="230"/>
-      <c r="Y5" s="230"/>
-      <c r="Z5" s="230"/>
-      <c r="AA5" s="230"/>
-      <c r="AB5" s="230"/>
-      <c r="AC5" s="231"/>
-      <c r="AD5" s="214"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="231"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="231"/>
+      <c r="U5" s="231"/>
+      <c r="V5" s="231"/>
+      <c r="W5" s="231"/>
+      <c r="X5" s="231"/>
+      <c r="Y5" s="231"/>
+      <c r="Z5" s="231"/>
+      <c r="AA5" s="231"/>
+      <c r="AB5" s="231"/>
+      <c r="AC5" s="232"/>
+      <c r="AD5" s="215"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="219"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="221"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="221"/>
+      <c r="L6" s="222"/>
       <c r="M6" s="14"/>
       <c r="N6" s="4">
         <v>0</v>
@@ -3161,7 +3170,7 @@
       <c r="AC6" s="129">
         <v>15</v>
       </c>
-      <c r="AD6" s="215"/>
+      <c r="AD6" s="216"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -3169,11 +3178,11 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="222"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
       <c r="H7" s="12"/>
       <c r="I7" s="28" t="s">
         <v>92</v>
@@ -3184,12 +3193,12 @@
       <c r="K7" s="22"/>
       <c r="L7" s="29"/>
       <c r="M7" s="126"/>
-      <c r="N7" s="232"/>
-      <c r="O7" s="232"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="232"/>
-      <c r="R7" s="232"/>
-      <c r="S7" s="232"/>
+      <c r="N7" s="233"/>
+      <c r="O7" s="233"/>
+      <c r="P7" s="233"/>
+      <c r="Q7" s="233"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="233"/>
       <c r="T7" s="5" t="s">
         <v>136</v>
       </c>
@@ -3214,57 +3223,57 @@
       <c r="AA7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AB7" s="233" t="s">
+      <c r="AB7" s="234" t="s">
         <v>142</v>
       </c>
-      <c r="AC7" s="234"/>
-      <c r="AD7" s="215"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="216"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C8" s="224"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
       <c r="H8"/>
-      <c r="I8" s="226" t="s">
+      <c r="I8" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="229" t="s">
+      <c r="J8" s="228"/>
+      <c r="K8" s="228"/>
+      <c r="L8" s="229"/>
+      <c r="M8" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="229"/>
-      <c r="O8" s="229"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="229"/>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="238" t="s">
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="U8" s="238"/>
-      <c r="V8" s="239" t="s">
+      <c r="U8" s="239"/>
+      <c r="V8" s="240" t="s">
         <v>146</v>
       </c>
-      <c r="W8" s="239"/>
-      <c r="X8" s="239"/>
-      <c r="Y8" s="239"/>
-      <c r="Z8" s="237" t="s">
+      <c r="W8" s="240"/>
+      <c r="X8" s="240"/>
+      <c r="Y8" s="240"/>
+      <c r="Z8" s="238" t="s">
         <v>143</v>
       </c>
-      <c r="AA8" s="237"/>
-      <c r="AB8" s="235" t="s">
+      <c r="AA8" s="238"/>
+      <c r="AB8" s="236" t="s">
         <v>144</v>
       </c>
-      <c r="AC8" s="236"/>
-      <c r="AD8" s="215"/>
+      <c r="AC8" s="237"/>
+      <c r="AD8" s="216"/>
       <c r="AE8" s="123"/>
       <c r="AF8" s="123"/>
       <c r="AG8" s="123"/>
@@ -4757,7 +4766,7 @@
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="272"/>
+      <c r="A24" s="214"/>
       <c r="B24" s="45" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
@@ -4840,7 +4849,7 @@
       <c r="AI24" s="2"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="272"/>
+      <c r="A25" s="214"/>
       <c r="B25" s="45" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
@@ -5088,7 +5097,7 @@
       <c r="AI27" s="2"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="272"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="45" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5171,7 +5180,7 @@
       <c r="AI28" s="2"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="272"/>
+      <c r="A29" s="214"/>
       <c r="B29" s="45" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5585,7 +5594,7 @@
       <c r="AI34" s="2"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="272"/>
+      <c r="A35" s="214"/>
       <c r="B35" s="45" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5669,7 +5678,7 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="272"/>
+      <c r="A36" s="214"/>
       <c r="B36" s="45" t="str">
         <f t="shared" si="0"/>
         <v>1A</v>
@@ -5753,7 +5762,7 @@
       <c r="AI36" s="2"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="272"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="45" t="str">
         <f t="shared" si="0"/>
         <v>1B</v>
@@ -6912,7 +6921,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="272"/>
+      <c r="A51" s="214"/>
       <c r="B51" s="45" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6994,7 +7003,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="272"/>
+      <c r="A52" s="214"/>
       <c r="B52" s="45" t="str">
         <f t="shared" si="0"/>
         <v>2A</v>
@@ -7769,7 +7778,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="272"/>
+      <c r="A60" s="214"/>
       <c r="B60" s="45" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7851,7 +7860,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="272"/>
+      <c r="A61" s="214"/>
       <c r="B61" s="45" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7933,7 +7942,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="272"/>
+      <c r="A62" s="214"/>
       <c r="B62" s="45" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8560,11 +8569,15 @@
       <c r="D69" s="2">
         <v>59</v>
       </c>
-      <c r="E69" s="203"/>
+      <c r="E69" s="203" t="s">
+        <v>274</v>
+      </c>
       <c r="F69" s="213" t="s">
         <v>231</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="10" t="s">
+        <v>273</v>
+      </c>
       <c r="H69" s="16"/>
       <c r="I69" s="21" t="s">
         <v>89</v>
@@ -8588,42 +8601,62 @@
         <v>0</v>
       </c>
       <c r="P69" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="46">
-        <v>0</v>
-      </c>
-      <c r="T69" s="45"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="45"/>
-      <c r="W69" s="45"/>
-      <c r="X69" s="45"/>
-      <c r="Y69" s="46"/>
-      <c r="Z69" s="45"/>
-      <c r="AA69" s="46"/>
-      <c r="AB69" s="45"/>
-      <c r="AC69" s="148"/>
+        <v>1</v>
+      </c>
+      <c r="T69" s="45">
+        <v>1</v>
+      </c>
+      <c r="U69" s="46">
+        <v>1</v>
+      </c>
+      <c r="V69" s="45">
+        <v>0</v>
+      </c>
+      <c r="W69" s="45">
+        <v>1</v>
+      </c>
+      <c r="X69" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="148">
+        <v>0</v>
+      </c>
       <c r="AD69" s="168" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>4EFC</v>
       </c>
       <c r="AE69" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>00</v>
+        <v>4E</v>
       </c>
       <c r="AF69" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A70" s="272"/>
+      <c r="A70" s="214"/>
       <c r="B70" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3C</v>
@@ -8705,7 +8738,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A71" s="272"/>
+      <c r="A71" s="214"/>
       <c r="B71" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3D</v>
@@ -8787,7 +8820,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72" s="272"/>
+      <c r="A72" s="214"/>
       <c r="B72" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3E</v>
@@ -10053,34 +10086,34 @@
       <c r="S87" s="45">
         <v>0</v>
       </c>
-      <c r="T87" s="269">
-        <v>0</v>
-      </c>
-      <c r="U87" s="270">
-        <v>1</v>
-      </c>
-      <c r="V87" s="269">
-        <v>0</v>
-      </c>
-      <c r="W87" s="269">
-        <v>1</v>
-      </c>
-      <c r="X87" s="269">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="270">
-        <v>1</v>
-      </c>
-      <c r="Z87" s="269">
-        <v>1</v>
-      </c>
-      <c r="AA87" s="270">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="269">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="271">
+      <c r="T87" s="45">
+        <v>0</v>
+      </c>
+      <c r="U87" s="46">
+        <v>1</v>
+      </c>
+      <c r="V87" s="45">
+        <v>0</v>
+      </c>
+      <c r="W87" s="45">
+        <v>1</v>
+      </c>
+      <c r="X87" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="45">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="148">
         <v>0</v>
       </c>
       <c r="AD87" s="168" t="str">
@@ -10192,8 +10225,12 @@
       <c r="D89" s="141">
         <v>79</v>
       </c>
-      <c r="F89" s="46"/>
-      <c r="G89" s="10"/>
+      <c r="F89" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="H89" s="16"/>
       <c r="L89" s="9"/>
       <c r="M89" s="46">
@@ -10203,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" s="45">
         <v>0</v>
@@ -10217,21 +10254,47 @@
       <c r="S89" s="45">
         <v>0</v>
       </c>
-      <c r="U89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="AA89" s="11"/>
-      <c r="AC89" s="135"/>
+      <c r="T89" s="45">
+        <v>0</v>
+      </c>
+      <c r="U89" s="46">
+        <v>1</v>
+      </c>
+      <c r="V89" s="45">
+        <v>0</v>
+      </c>
+      <c r="W89" s="45">
+        <v>1</v>
+      </c>
+      <c r="X89" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="148">
+        <v>0</v>
+      </c>
       <c r="AD89" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>4E82</v>
       </c>
       <c r="AE89" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>00</v>
+        <v>4E</v>
       </c>
       <c r="AF89" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>00</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="2:32" x14ac:dyDescent="0.25">
@@ -10246,8 +10309,12 @@
       <c r="D90" s="141">
         <v>80</v>
       </c>
-      <c r="F90" s="46"/>
-      <c r="G90" s="10"/>
+      <c r="F90" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="H90" s="16"/>
       <c r="L90" s="9"/>
       <c r="M90" s="46">
@@ -10271,21 +10338,47 @@
       <c r="S90" s="45">
         <v>0</v>
       </c>
-      <c r="U90" s="11"/>
-      <c r="Y90" s="11"/>
-      <c r="AA90" s="11"/>
-      <c r="AC90" s="135"/>
+      <c r="T90" s="45">
+        <v>0</v>
+      </c>
+      <c r="U90" s="46">
+        <v>1</v>
+      </c>
+      <c r="V90" s="45">
+        <v>0</v>
+      </c>
+      <c r="W90" s="45">
+        <v>1</v>
+      </c>
+      <c r="X90" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="45">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="148">
+        <v>0</v>
+      </c>
       <c r="AD90" s="168" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0E80</v>
       </c>
       <c r="AE90" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>00</v>
+        <v>0E</v>
       </c>
       <c r="AF90" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>00</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="2:32" x14ac:dyDescent="0.25">
@@ -12983,61 +13076,61 @@
       <c r="F5" s="211" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="240" t="s">
+      <c r="G5" s="241" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="210"/>
-      <c r="G6" s="241"/>
+      <c r="G6" s="242"/>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="210"/>
-      <c r="G7" s="241"/>
+      <c r="G7" s="242"/>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="210"/>
-      <c r="G8" s="241"/>
+      <c r="G8" s="242"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="210"/>
-      <c r="G9" s="241"/>
+      <c r="G9" s="242"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="210"/>
-      <c r="G10" s="241"/>
+      <c r="G10" s="242"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F11" s="210"/>
-      <c r="G11" s="241"/>
+      <c r="G11" s="242"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="210"/>
-      <c r="G12" s="241"/>
+      <c r="G12" s="242"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="210"/>
-      <c r="G13" s="241"/>
+      <c r="G13" s="242"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" s="210"/>
-      <c r="G14" s="241"/>
+      <c r="G14" s="242"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F15" s="210"/>
-      <c r="G15" s="241"/>
+      <c r="G15" s="242"/>
     </row>
     <row r="16" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="212" t="s">
         <v>242</v>
       </c>
-      <c r="G16" s="242"/>
+      <c r="G16" s="243"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="210" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="243" t="s">
+      <c r="G17" s="244" t="s">
         <v>241</v>
       </c>
     </row>
@@ -13045,83 +13138,83 @@
       <c r="F18" s="212" t="s">
         <v>243</v>
       </c>
-      <c r="G18" s="244"/>
+      <c r="G18" s="245"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="210" t="s">
         <v>244</v>
       </c>
-      <c r="G19" s="245" t="s">
+      <c r="G19" s="246" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="210"/>
-      <c r="G20" s="246"/>
+      <c r="G20" s="247"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="210"/>
-      <c r="G21" s="246"/>
+      <c r="G21" s="247"/>
     </row>
     <row r="22" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="212" t="s">
         <v>245</v>
       </c>
-      <c r="G22" s="247"/>
+      <c r="G22" s="248"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="210" t="s">
         <v>247</v>
       </c>
-      <c r="G23" s="248" t="s">
+      <c r="G23" s="249" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="210"/>
-      <c r="G24" s="249"/>
+      <c r="G24" s="250"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="210"/>
-      <c r="G25" s="249"/>
+      <c r="G25" s="250"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="210"/>
-      <c r="G26" s="249"/>
+      <c r="G26" s="250"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="210"/>
-      <c r="G27" s="249"/>
+      <c r="G27" s="250"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="210"/>
-      <c r="G28" s="249"/>
+      <c r="G28" s="250"/>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="210"/>
-      <c r="G29" s="249"/>
+      <c r="G29" s="250"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="210"/>
-      <c r="G30" s="249"/>
+      <c r="G30" s="250"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="210"/>
-      <c r="G31" s="249"/>
+      <c r="G31" s="250"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="210"/>
-      <c r="G32" s="249"/>
+      <c r="G32" s="250"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="210"/>
-      <c r="G33" s="249"/>
+      <c r="G33" s="250"/>
     </row>
     <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="212" t="s">
         <v>248</v>
       </c>
-      <c r="G34" s="250"/>
+      <c r="G34" s="251"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="210" t="s">
@@ -13218,8 +13311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C3AD6-36FF-4B42-8E60-022378867E52}">
   <dimension ref="E4:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13586,31 +13679,31 @@
   <sheetData>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="255"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="261" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="262" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="262"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="262"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="263"/>
+      <c r="Q3" s="263"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="263"/>
+      <c r="X3" s="264"/>
       <c r="Y3" s="81"/>
       <c r="Z3" s="56"/>
       <c r="AA3" s="56"/>
@@ -13618,20 +13711,20 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="251"/>
-      <c r="AG3" s="251"/>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="251"/>
+      <c r="AF3" s="252"/>
+      <c r="AG3" s="252"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="252"/>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="258"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="260"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="261"/>
       <c r="I4" s="57">
         <v>0</v>
       </c>
@@ -13680,7 +13773,7 @@
       <c r="X4" s="58">
         <v>15</v>
       </c>
-      <c r="Y4" s="267" t="s">
+      <c r="Y4" s="268" t="s">
         <v>115</v>
       </c>
       <c r="Z4" s="50"/>
@@ -13699,28 +13792,28 @@
       <c r="B5" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="264" t="s">
+      <c r="C5" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="266"/>
-      <c r="I5" s="252" t="s">
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="253" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="252" t="s">
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="253" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="254"/>
+      <c r="P5" s="254"/>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="255"/>
       <c r="S5" s="24" t="s">
         <v>101</v>
       </c>
@@ -13739,7 +13832,7 @@
       <c r="X5" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="268"/>
+      <c r="Y5" s="269"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -19457,14 +19550,14 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="259" t="s">
+      <c r="D18" s="260" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="259"/>
-      <c r="G18" s="259" t="s">
+      <c r="E18" s="260"/>
+      <c r="G18" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="259"/>
+      <c r="H18" s="260"/>
       <c r="Q18">
         <v>2</v>
       </c>

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EB4079-9818-484B-B4B3-4783574F13C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC7754-B8C1-4E40-8EDD-F5AFC35FED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Unit" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="285">
   <si>
     <t>1=Read</t>
   </si>
@@ -814,9 +814,6 @@
     <t>G3:0</t>
   </si>
   <si>
-    <t>Push ADR0</t>
-  </si>
-  <si>
     <t>GP</t>
   </si>
   <si>
@@ -832,12 +829,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Next Instr. PUSH</t>
-  </si>
-  <si>
-    <t>Next instr. POP</t>
-  </si>
-  <si>
     <t>G3:1</t>
   </si>
   <si>
@@ -847,40 +838,67 @@
     <t>G3:2</t>
   </si>
   <si>
-    <t>Push ADR1</t>
+    <t>JMP to CALL_ADR</t>
+  </si>
+  <si>
+    <t>Load ADR to PC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G4:0</t>
+  </si>
+  <si>
+    <t>G4:1</t>
+  </si>
+  <si>
+    <t>JMP to RET_ADR</t>
+  </si>
+  <si>
+    <t>Instr. PUSH</t>
+  </si>
+  <si>
+    <t>Instr. POP</t>
+  </si>
+  <si>
+    <t>Buffer CALL_ADR0</t>
+  </si>
+  <si>
+    <t>Empty Cycle for CNTR_RISE</t>
+  </si>
+  <si>
+    <t>POP RET_ADR; JMP RET_ADR</t>
+  </si>
+  <si>
+    <t>POP OL</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G5:0</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G6:0</t>
+  </si>
+  <si>
+    <t>Write VAL to ACC</t>
   </si>
   <si>
     <t>G3:3</t>
   </si>
   <si>
-    <t>JMP to CALL_ADR</t>
-  </si>
-  <si>
-    <t>G3:4</t>
-  </si>
-  <si>
-    <t>Buffer CALL_ADR</t>
-  </si>
-  <si>
-    <t>Load ADR to PC</t>
-  </si>
-  <si>
-    <t>Prepare for POP</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G4:0</t>
-  </si>
-  <si>
-    <t>POP OL; Prepare for POP OH</t>
-  </si>
-  <si>
-    <t>G4:1</t>
-  </si>
-  <si>
-    <t>JMP to RET_ADR</t>
+    <t>Count up PC so RET_ADR += 2</t>
+  </si>
+  <si>
+    <t>G4:2</t>
+  </si>
+  <si>
+    <t>G4:3</t>
   </si>
 </sst>
 </file>
@@ -944,7 +962,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,7 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2351,9 +2375,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2512,9 +2533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2677,6 +2695,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3049,20 +3100,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView topLeftCell="E59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V93" sqref="V93"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="45" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" style="45" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="21" customWidth="1"/>
-    <col min="9" max="11" width="11.28515625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="19" width="4.42578125" customWidth="1"/>
+    <col min="9" max="11" width="8.85546875" style="21" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="19" width="3.85546875" customWidth="1"/>
     <col min="20" max="21" width="16" customWidth="1"/>
     <col min="22" max="25" width="13.140625" customWidth="1"/>
     <col min="30" max="30" width="21.85546875" style="45" customWidth="1"/>
@@ -3077,50 +3129,50 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="217" t="s">
+      <c r="C5" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="219"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="217"/>
       <c r="M5" s="128"/>
-      <c r="N5" s="231" t="s">
+      <c r="N5" s="229" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="231"/>
-      <c r="P5" s="231"/>
-      <c r="Q5" s="231"/>
-      <c r="R5" s="231"/>
-      <c r="S5" s="231"/>
-      <c r="T5" s="231"/>
-      <c r="U5" s="231"/>
-      <c r="V5" s="231"/>
-      <c r="W5" s="231"/>
-      <c r="X5" s="231"/>
-      <c r="Y5" s="231"/>
-      <c r="Z5" s="231"/>
-      <c r="AA5" s="231"/>
-      <c r="AB5" s="231"/>
-      <c r="AC5" s="232"/>
-      <c r="AD5" s="215"/>
+      <c r="O5" s="229"/>
+      <c r="P5" s="229"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="229"/>
+      <c r="S5" s="229"/>
+      <c r="T5" s="229"/>
+      <c r="U5" s="229"/>
+      <c r="V5" s="229"/>
+      <c r="W5" s="229"/>
+      <c r="X5" s="229"/>
+      <c r="Y5" s="229"/>
+      <c r="Z5" s="229"/>
+      <c r="AA5" s="229"/>
+      <c r="AB5" s="229"/>
+      <c r="AC5" s="230"/>
+      <c r="AD5" s="213"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="220"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="222"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="219"/>
+      <c r="K6" s="219"/>
+      <c r="L6" s="220"/>
       <c r="M6" s="14"/>
       <c r="N6" s="4">
         <v>0</v>
@@ -3170,7 +3222,7 @@
       <c r="AC6" s="129">
         <v>15</v>
       </c>
-      <c r="AD6" s="216"/>
+      <c r="AD6" s="214"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -3178,11 +3230,11 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="223"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
       <c r="H7" s="12"/>
       <c r="I7" s="28" t="s">
         <v>92</v>
@@ -3193,12 +3245,12 @@
       <c r="K7" s="22"/>
       <c r="L7" s="29"/>
       <c r="M7" s="126"/>
-      <c r="N7" s="233"/>
-      <c r="O7" s="233"/>
-      <c r="P7" s="233"/>
-      <c r="Q7" s="233"/>
-      <c r="R7" s="233"/>
-      <c r="S7" s="233"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
+      <c r="P7" s="231"/>
+      <c r="Q7" s="231"/>
+      <c r="R7" s="231"/>
+      <c r="S7" s="231"/>
       <c r="T7" s="5" t="s">
         <v>136</v>
       </c>
@@ -3223,67 +3275,67 @@
       <c r="AA7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AB7" s="234" t="s">
+      <c r="AB7" s="232" t="s">
         <v>142</v>
       </c>
-      <c r="AC7" s="235"/>
-      <c r="AD7" s="216"/>
+      <c r="AC7" s="233"/>
+      <c r="AD7" s="214"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C8" s="225"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
       <c r="H8"/>
-      <c r="I8" s="227" t="s">
+      <c r="I8" s="225" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="228"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="229"/>
-      <c r="M8" s="230" t="s">
+      <c r="J8" s="226"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="230"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="230"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="239" t="s">
+      <c r="N8" s="228"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="228"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="228"/>
+      <c r="S8" s="228"/>
+      <c r="T8" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="U8" s="239"/>
-      <c r="V8" s="240" t="s">
+      <c r="U8" s="237"/>
+      <c r="V8" s="238" t="s">
         <v>146</v>
       </c>
-      <c r="W8" s="240"/>
-      <c r="X8" s="240"/>
-      <c r="Y8" s="240"/>
-      <c r="Z8" s="238" t="s">
+      <c r="W8" s="238"/>
+      <c r="X8" s="238"/>
+      <c r="Y8" s="238"/>
+      <c r="Z8" s="236" t="s">
         <v>143</v>
       </c>
-      <c r="AA8" s="238"/>
-      <c r="AB8" s="236" t="s">
+      <c r="AA8" s="236"/>
+      <c r="AB8" s="234" t="s">
         <v>144</v>
       </c>
-      <c r="AC8" s="237"/>
-      <c r="AD8" s="216"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="214"/>
       <c r="AE8" s="123"/>
       <c r="AF8" s="123"/>
       <c r="AG8" s="123"/>
       <c r="AH8" s="2"/>
     </row>
     <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="161" t="s">
         <v>174</v>
       </c>
       <c r="C9" s="130" t="s">
@@ -3350,7 +3402,7 @@
         <v>134</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>138</v>
@@ -3367,7 +3419,7 @@
       <c r="AC9" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" s="167" t="s">
+      <c r="AD9" s="166" t="s">
         <v>163</v>
       </c>
       <c r="AE9" s="2" t="s">
@@ -3380,7 +3432,7 @@
       <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="208"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="45" t="str">
         <f>DEC2HEX(D10)</f>
         <v>0</v>
@@ -3411,7 +3463,7 @@
       <c r="L10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="163">
+      <c r="M10" s="162">
         <v>1</v>
       </c>
       <c r="N10" s="151">
@@ -3462,7 +3514,7 @@
       <c r="AC10" s="154">
         <v>1</v>
       </c>
-      <c r="AD10" s="168" t="str">
+      <c r="AD10" s="167" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC10,AB10,AA10,Z10)), BIN2HEX(_xlfn.CONCAT(Y10,X10,W10,V10)), BIN2HEX(_xlfn.CONCAT(U10,T10,S10,R10)), BIN2HEX(_xlfn.CONCAT(Q10,P10,O10,N10)))</f>
         <v>CBF0</v>
       </c>
@@ -3479,7 +3531,7 @@
       <c r="AI10" s="2"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="208"/>
+      <c r="A11" s="207"/>
       <c r="B11" s="45" t="str">
         <f t="shared" ref="B11:B74" si="0">DEC2HEX(D11)</f>
         <v>1</v>
@@ -3510,7 +3562,7 @@
       <c r="L11" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="164">
+      <c r="M11" s="163">
         <v>1</v>
       </c>
       <c r="N11" s="151">
@@ -3561,7 +3613,7 @@
       <c r="AC11" s="154">
         <v>1</v>
       </c>
-      <c r="AD11" s="168" t="str">
+      <c r="AD11" s="167" t="str">
         <f t="shared" ref="AD11:AD73" si="1">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC11,AB11,AA11,Z11)), BIN2HEX(_xlfn.CONCAT(Y11,X11,W11,V11)), BIN2HEX(_xlfn.CONCAT(U11,T11,S11,R11)), BIN2HEX(_xlfn.CONCAT(Q11,P11,O11,N11)))</f>
         <v>CBF0</v>
       </c>
@@ -3578,7 +3630,7 @@
       <c r="AI11" s="2"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="208"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="45" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3609,7 +3661,7 @@
       <c r="L12" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="164">
+      <c r="M12" s="163">
         <v>1</v>
       </c>
       <c r="N12" s="151">
@@ -3660,7 +3712,7 @@
       <c r="AC12" s="154">
         <v>1</v>
       </c>
-      <c r="AD12" s="168" t="str">
+      <c r="AD12" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -3677,7 +3729,7 @@
       <c r="AI12" s="2"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="208"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3708,7 +3760,7 @@
       <c r="L13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="164">
+      <c r="M13" s="163">
         <v>1</v>
       </c>
       <c r="N13" s="151">
@@ -3759,7 +3811,7 @@
       <c r="AC13" s="154">
         <v>1</v>
       </c>
-      <c r="AD13" s="168" t="str">
+      <c r="AD13" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -3776,7 +3828,7 @@
       <c r="AI13" s="2"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="208"/>
+      <c r="A14" s="207"/>
       <c r="B14" s="45" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3807,7 +3859,7 @@
       <c r="L14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="164">
+      <c r="M14" s="163">
         <v>1</v>
       </c>
       <c r="N14" s="151">
@@ -3858,7 +3910,7 @@
       <c r="AC14" s="154">
         <v>1</v>
       </c>
-      <c r="AD14" s="168" t="str">
+      <c r="AD14" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -3875,7 +3927,7 @@
       <c r="AI14" s="2"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="208"/>
+      <c r="A15" s="207"/>
       <c r="B15" s="45" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3906,7 +3958,7 @@
       <c r="L15" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="164">
+      <c r="M15" s="163">
         <v>1</v>
       </c>
       <c r="N15" s="151">
@@ -3957,7 +4009,7 @@
       <c r="AC15" s="154">
         <v>1</v>
       </c>
-      <c r="AD15" s="168" t="str">
+      <c r="AD15" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -3974,7 +4026,7 @@
       <c r="AI15" s="2"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="208"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="45" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4005,7 +4057,7 @@
       <c r="L16" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="164">
+      <c r="M16" s="163">
         <v>1</v>
       </c>
       <c r="N16" s="151">
@@ -4056,7 +4108,7 @@
       <c r="AC16" s="154">
         <v>1</v>
       </c>
-      <c r="AD16" s="168" t="str">
+      <c r="AD16" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -4073,7 +4125,7 @@
       <c r="AI16" s="2"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="208"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="45" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4104,7 +4156,7 @@
       <c r="L17" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="164">
+      <c r="M17" s="163">
         <v>1</v>
       </c>
       <c r="N17" s="151">
@@ -4155,7 +4207,7 @@
       <c r="AC17" s="154">
         <v>1</v>
       </c>
-      <c r="AD17" s="168" t="str">
+      <c r="AD17" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -4172,7 +4224,7 @@
       <c r="AI17" s="2"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="208"/>
+      <c r="A18" s="207"/>
       <c r="B18" s="45" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4203,7 +4255,7 @@
       <c r="L18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="164">
+      <c r="M18" s="163">
         <v>1</v>
       </c>
       <c r="N18" s="151">
@@ -4254,7 +4306,7 @@
       <c r="AC18" s="154">
         <v>1</v>
       </c>
-      <c r="AD18" s="168" t="str">
+      <c r="AD18" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -4271,7 +4323,7 @@
       <c r="AI18" s="2"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="208"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="45" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4302,7 +4354,7 @@
       <c r="L19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="164">
+      <c r="M19" s="163">
         <v>1</v>
       </c>
       <c r="N19" s="151">
@@ -4353,7 +4405,7 @@
       <c r="AC19" s="154">
         <v>1</v>
       </c>
-      <c r="AD19" s="168" t="str">
+      <c r="AD19" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -4370,7 +4422,7 @@
       <c r="AI19" s="2"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="208"/>
+      <c r="A20" s="207"/>
       <c r="B20" s="45" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
@@ -4401,7 +4453,7 @@
       <c r="L20" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M20" s="164">
+      <c r="M20" s="163">
         <v>1</v>
       </c>
       <c r="N20" s="151">
@@ -4452,7 +4504,7 @@
       <c r="AC20" s="154">
         <v>1</v>
       </c>
-      <c r="AD20" s="168" t="str">
+      <c r="AD20" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -4469,7 +4521,7 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="208"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="45" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
@@ -4500,7 +4552,7 @@
       <c r="L21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="164">
+      <c r="M21" s="163">
         <v>1</v>
       </c>
       <c r="N21" s="151">
@@ -4551,7 +4603,7 @@
       <c r="AC21" s="154">
         <v>1</v>
       </c>
-      <c r="AD21" s="168" t="str">
+      <c r="AD21" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -4568,7 +4620,7 @@
       <c r="AI21" s="2"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="208"/>
+      <c r="A22" s="207"/>
       <c r="B22" s="45" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
@@ -4599,7 +4651,7 @@
       <c r="L22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M22" s="164">
+      <c r="M22" s="163">
         <v>1</v>
       </c>
       <c r="N22" s="151">
@@ -4650,7 +4702,7 @@
       <c r="AC22" s="154">
         <v>1</v>
       </c>
-      <c r="AD22" s="168" t="str">
+      <c r="AD22" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -4667,7 +4719,7 @@
       <c r="AI22" s="2"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="208"/>
+      <c r="A23" s="207"/>
       <c r="B23" s="45" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
@@ -4698,7 +4750,7 @@
       <c r="L23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M23" s="164">
+      <c r="M23" s="163">
         <v>1</v>
       </c>
       <c r="N23" s="151">
@@ -4749,7 +4801,7 @@
       <c r="AC23" s="154">
         <v>1</v>
       </c>
-      <c r="AD23" s="168" t="str">
+      <c r="AD23" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBF0</v>
       </c>
@@ -4766,7 +4818,7 @@
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="214"/>
+      <c r="A24" s="212"/>
       <c r="B24" s="45" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
@@ -4781,7 +4833,7 @@
       <c r="F24" s="46"/>
       <c r="G24" s="10"/>
       <c r="H24" s="42"/>
-      <c r="M24" s="165">
+      <c r="M24" s="164">
         <v>1</v>
       </c>
       <c r="N24" s="45">
@@ -4832,7 +4884,7 @@
       <c r="AC24" s="148">
         <v>1</v>
       </c>
-      <c r="AD24" s="168" t="str">
+      <c r="AD24" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -4849,7 +4901,7 @@
       <c r="AI24" s="2"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="214"/>
+      <c r="A25" s="212"/>
       <c r="B25" s="45" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
@@ -4864,7 +4916,7 @@
       <c r="F25" s="46"/>
       <c r="G25" s="10"/>
       <c r="H25" s="42"/>
-      <c r="M25" s="165">
+      <c r="M25" s="164">
         <v>1</v>
       </c>
       <c r="N25" s="45">
@@ -4915,7 +4967,7 @@
       <c r="AC25" s="148">
         <v>1</v>
       </c>
-      <c r="AD25" s="168" t="str">
+      <c r="AD25" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -4962,26 +5014,26 @@
       <c r="L26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="170">
-        <v>1</v>
-      </c>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="171"/>
-      <c r="Q26" s="171"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="174"/>
+      <c r="M26" s="169">
+        <v>1</v>
+      </c>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="173"/>
       <c r="U26" s="30"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
+      <c r="V26" s="173"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
       <c r="Y26" s="30"/>
-      <c r="Z26" s="174"/>
+      <c r="Z26" s="173"/>
       <c r="AA26" s="30"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="175"/>
-      <c r="AD26" s="168" t="str">
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -4998,7 +5050,7 @@
       <c r="AI26" s="2"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="208"/>
+      <c r="A27" s="207"/>
       <c r="B27" s="45" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5029,58 +5081,58 @@
       <c r="L27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M27" s="170">
-        <v>1</v>
-      </c>
-      <c r="N27" s="171">
-        <v>0</v>
-      </c>
-      <c r="O27" s="171">
-        <v>0</v>
-      </c>
-      <c r="P27" s="171">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="171">
-        <v>0</v>
-      </c>
-      <c r="R27" s="172">
-        <v>0</v>
-      </c>
-      <c r="S27" s="173">
-        <v>0</v>
-      </c>
-      <c r="T27" s="171">
-        <v>1</v>
-      </c>
-      <c r="U27" s="176">
-        <v>0</v>
-      </c>
-      <c r="V27" s="171">
-        <v>1</v>
-      </c>
-      <c r="W27" s="171">
-        <v>0</v>
-      </c>
-      <c r="X27" s="171">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="176">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="171">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="171">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="177">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="168" t="str">
+      <c r="M27" s="169">
+        <v>1</v>
+      </c>
+      <c r="N27" s="170">
+        <v>0</v>
+      </c>
+      <c r="O27" s="170">
+        <v>0</v>
+      </c>
+      <c r="P27" s="170">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="170">
+        <v>0</v>
+      </c>
+      <c r="R27" s="171">
+        <v>0</v>
+      </c>
+      <c r="S27" s="172">
+        <v>0</v>
+      </c>
+      <c r="T27" s="170">
+        <v>1</v>
+      </c>
+      <c r="U27" s="175">
+        <v>0</v>
+      </c>
+      <c r="V27" s="170">
+        <v>1</v>
+      </c>
+      <c r="W27" s="170">
+        <v>0</v>
+      </c>
+      <c r="X27" s="170">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="175">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="170">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="175">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="170">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="176">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="167" t="str">
         <f t="shared" si="1"/>
         <v>C940</v>
       </c>
@@ -5097,7 +5149,7 @@
       <c r="AI27" s="2"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="214"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="45" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5112,7 +5164,7 @@
       <c r="F28" s="46"/>
       <c r="G28" s="10"/>
       <c r="H28" s="42"/>
-      <c r="M28" s="165">
+      <c r="M28" s="164">
         <v>1</v>
       </c>
       <c r="N28" s="45">
@@ -5163,7 +5215,7 @@
       <c r="AC28" s="148">
         <v>1</v>
       </c>
-      <c r="AD28" s="168" t="str">
+      <c r="AD28" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -5180,7 +5232,7 @@
       <c r="AI28" s="2"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="214"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="45" t="str">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5196,7 +5248,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="42"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="165">
+      <c r="M29" s="164">
         <v>1</v>
       </c>
       <c r="N29" s="45">
@@ -5247,7 +5299,7 @@
       <c r="AC29" s="148">
         <v>1</v>
       </c>
-      <c r="AD29" s="168" t="str">
+      <c r="AD29" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -5294,26 +5346,26 @@
       <c r="L30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="165">
-        <v>1</v>
-      </c>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="179"/>
+      <c r="M30" s="164">
+        <v>1</v>
+      </c>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="178"/>
       <c r="S30" s="32"/>
-      <c r="T30" s="180"/>
+      <c r="T30" s="179"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
+      <c r="V30" s="179"/>
+      <c r="W30" s="179"/>
+      <c r="X30" s="179"/>
       <c r="Y30" s="33"/>
-      <c r="Z30" s="180"/>
+      <c r="Z30" s="179"/>
       <c r="AA30" s="33"/>
-      <c r="AB30" s="180"/>
-      <c r="AC30" s="181"/>
-      <c r="AD30" s="168" t="str">
+      <c r="AB30" s="179"/>
+      <c r="AC30" s="180"/>
+      <c r="AD30" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -5360,26 +5412,26 @@
       <c r="L31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="165">
-        <v>1</v>
-      </c>
-      <c r="N31" s="178"/>
-      <c r="O31" s="178"/>
-      <c r="P31" s="178"/>
-      <c r="Q31" s="178"/>
-      <c r="R31" s="179"/>
+      <c r="M31" s="164">
+        <v>1</v>
+      </c>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="178"/>
       <c r="S31" s="32"/>
-      <c r="T31" s="180"/>
+      <c r="T31" s="179"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="180"/>
-      <c r="W31" s="180"/>
-      <c r="X31" s="180"/>
+      <c r="V31" s="179"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="179"/>
       <c r="Y31" s="33"/>
-      <c r="Z31" s="180"/>
+      <c r="Z31" s="179"/>
       <c r="AA31" s="33"/>
-      <c r="AB31" s="180"/>
-      <c r="AC31" s="181"/>
-      <c r="AD31" s="168" t="str">
+      <c r="AB31" s="179"/>
+      <c r="AC31" s="180"/>
+      <c r="AD31" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -5426,26 +5478,26 @@
       <c r="L32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="165">
-        <v>1</v>
-      </c>
-      <c r="N32" s="178"/>
-      <c r="O32" s="178"/>
-      <c r="P32" s="178"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="179"/>
+      <c r="M32" s="164">
+        <v>1</v>
+      </c>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="178"/>
       <c r="S32" s="32"/>
-      <c r="T32" s="178"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="178"/>
-      <c r="W32" s="178"/>
-      <c r="X32" s="178"/>
-      <c r="Y32" s="182"/>
-      <c r="Z32" s="178"/>
-      <c r="AA32" s="182"/>
-      <c r="AB32" s="178"/>
-      <c r="AC32" s="183"/>
-      <c r="AD32" s="168" t="str">
+      <c r="T32" s="177"/>
+      <c r="U32" s="181"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="181"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="181"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="182"/>
+      <c r="AD32" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -5492,26 +5544,26 @@
       <c r="L33" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M33" s="165">
-        <v>1</v>
-      </c>
-      <c r="N33" s="178"/>
-      <c r="O33" s="178"/>
-      <c r="P33" s="178"/>
-      <c r="Q33" s="178"/>
-      <c r="R33" s="179"/>
+      <c r="M33" s="164">
+        <v>1</v>
+      </c>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="178"/>
       <c r="S33" s="32"/>
-      <c r="T33" s="178"/>
-      <c r="U33" s="182"/>
-      <c r="V33" s="178"/>
-      <c r="W33" s="178"/>
-      <c r="X33" s="178"/>
-      <c r="Y33" s="182"/>
-      <c r="Z33" s="178"/>
-      <c r="AA33" s="182"/>
-      <c r="AB33" s="178"/>
-      <c r="AC33" s="183"/>
-      <c r="AD33" s="168" t="str">
+      <c r="T33" s="177"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="181"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="182"/>
+      <c r="AD33" s="167" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC33,AB33,AA33,Z33)), BIN2HEX(_xlfn.CONCAT(Y33,X33,W33,V33)), BIN2HEX(_xlfn.CONCAT(U33,T33,S33,R33)), BIN2HEX(_xlfn.CONCAT(Q33,P33,O33,N33)))</f>
         <v>0000</v>
       </c>
@@ -5558,26 +5610,26 @@
       <c r="L34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="165">
-        <v>1</v>
-      </c>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="179"/>
+      <c r="M34" s="164">
+        <v>1</v>
+      </c>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="178"/>
       <c r="S34" s="32"/>
-      <c r="T34" s="178"/>
-      <c r="U34" s="182"/>
-      <c r="V34" s="178"/>
-      <c r="W34" s="178"/>
-      <c r="X34" s="178"/>
-      <c r="Y34" s="182"/>
-      <c r="Z34" s="178"/>
-      <c r="AA34" s="182"/>
-      <c r="AB34" s="178"/>
-      <c r="AC34" s="183"/>
-      <c r="AD34" s="168" t="str">
+      <c r="T34" s="177"/>
+      <c r="U34" s="181"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="181"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="181"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="182"/>
+      <c r="AD34" s="167" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC34,AB34,AA34,Z34)), BIN2HEX(_xlfn.CONCAT(Y34,X34,W34,V34)), BIN2HEX(_xlfn.CONCAT(U34,T34,S34,R34)), BIN2HEX(_xlfn.CONCAT(Q34,P34,O34,N34)))</f>
         <v>0000</v>
       </c>
@@ -5594,7 +5646,7 @@
       <c r="AI34" s="2"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="214"/>
+      <c r="A35" s="212"/>
       <c r="B35" s="45" t="str">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5610,7 +5662,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="42"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="165">
+      <c r="M35" s="164">
         <v>1</v>
       </c>
       <c r="N35" s="45">
@@ -5661,7 +5713,7 @@
       <c r="AC35" s="148">
         <v>1</v>
       </c>
-      <c r="AD35" s="168" t="str">
+      <c r="AD35" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -5678,7 +5730,7 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="214"/>
+      <c r="A36" s="212"/>
       <c r="B36" s="45" t="str">
         <f t="shared" si="0"/>
         <v>1A</v>
@@ -5694,7 +5746,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="42"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="165">
+      <c r="M36" s="164">
         <v>1</v>
       </c>
       <c r="N36" s="45">
@@ -5745,7 +5797,7 @@
       <c r="AC36" s="148">
         <v>1</v>
       </c>
-      <c r="AD36" s="168" t="str">
+      <c r="AD36" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -5762,7 +5814,7 @@
       <c r="AI36" s="2"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="214"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="45" t="str">
         <f t="shared" si="0"/>
         <v>1B</v>
@@ -5778,7 +5830,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="42"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="165">
+      <c r="M37" s="164">
         <v>1</v>
       </c>
       <c r="N37" s="45">
@@ -5829,7 +5881,7 @@
       <c r="AC37" s="148">
         <v>1</v>
       </c>
-      <c r="AD37" s="168" t="str">
+      <c r="AD37" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -5876,26 +5928,26 @@
       <c r="L38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M38" s="165">
-        <v>1</v>
-      </c>
-      <c r="N38" s="184"/>
-      <c r="O38" s="184"/>
-      <c r="P38" s="184"/>
-      <c r="Q38" s="184"/>
-      <c r="R38" s="185"/>
-      <c r="S38" s="186"/>
-      <c r="T38" s="187"/>
-      <c r="U38" s="188"/>
-      <c r="V38" s="187"/>
-      <c r="W38" s="187"/>
-      <c r="X38" s="187"/>
-      <c r="Y38" s="188"/>
-      <c r="Z38" s="187"/>
-      <c r="AA38" s="188"/>
-      <c r="AB38" s="187"/>
-      <c r="AC38" s="189"/>
-      <c r="AD38" s="168" t="str">
+      <c r="M38" s="164">
+        <v>1</v>
+      </c>
+      <c r="N38" s="183"/>
+      <c r="O38" s="183"/>
+      <c r="P38" s="183"/>
+      <c r="Q38" s="183"/>
+      <c r="R38" s="184"/>
+      <c r="S38" s="185"/>
+      <c r="T38" s="186"/>
+      <c r="U38" s="187"/>
+      <c r="V38" s="186"/>
+      <c r="W38" s="186"/>
+      <c r="X38" s="186"/>
+      <c r="Y38" s="187"/>
+      <c r="Z38" s="186"/>
+      <c r="AA38" s="187"/>
+      <c r="AB38" s="186"/>
+      <c r="AC38" s="188"/>
+      <c r="AD38" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -5912,7 +5964,7 @@
       <c r="AI38" s="2"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="208"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="45" t="str">
         <f t="shared" si="0"/>
         <v>1D</v>
@@ -5943,58 +5995,58 @@
       <c r="L39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="165">
-        <v>1</v>
-      </c>
-      <c r="N39" s="190">
-        <v>0</v>
-      </c>
-      <c r="O39" s="190">
-        <v>0</v>
-      </c>
-      <c r="P39" s="190">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="190">
-        <v>0</v>
-      </c>
-      <c r="R39" s="190">
-        <v>0</v>
-      </c>
-      <c r="S39" s="207">
-        <v>0</v>
-      </c>
-      <c r="T39" s="192">
+      <c r="M39" s="164">
+        <v>1</v>
+      </c>
+      <c r="N39" s="189">
+        <v>0</v>
+      </c>
+      <c r="O39" s="189">
+        <v>0</v>
+      </c>
+      <c r="P39" s="189">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="189">
+        <v>0</v>
+      </c>
+      <c r="R39" s="189">
+        <v>0</v>
+      </c>
+      <c r="S39" s="206">
+        <v>0</v>
+      </c>
+      <c r="T39" s="191">
         <v>1</v>
       </c>
       <c r="U39" s="35">
         <v>1</v>
       </c>
-      <c r="V39" s="192">
-        <v>0</v>
-      </c>
-      <c r="W39" s="192">
-        <v>0</v>
-      </c>
-      <c r="X39" s="192">
+      <c r="V39" s="191">
+        <v>0</v>
+      </c>
+      <c r="W39" s="191">
+        <v>0</v>
+      </c>
+      <c r="X39" s="191">
         <v>0</v>
       </c>
       <c r="Y39" s="35">
         <v>1</v>
       </c>
-      <c r="Z39" s="192">
+      <c r="Z39" s="191">
         <v>0</v>
       </c>
       <c r="AA39" s="35">
         <v>0</v>
       </c>
-      <c r="AB39" s="192">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="193">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="168" t="str">
+      <c r="AB39" s="191">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="192">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="167" t="str">
         <f t="shared" si="1"/>
         <v>88C0</v>
       </c>
@@ -6011,7 +6063,7 @@
       <c r="AI39" s="2"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="208"/>
+      <c r="A40" s="207"/>
       <c r="B40" s="45" t="str">
         <f t="shared" si="0"/>
         <v>1E</v>
@@ -6042,58 +6094,58 @@
       <c r="L40" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M40" s="165">
-        <v>1</v>
-      </c>
-      <c r="N40" s="190">
-        <v>0</v>
-      </c>
-      <c r="O40" s="190">
-        <v>0</v>
-      </c>
-      <c r="P40" s="190">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="190">
-        <v>0</v>
-      </c>
-      <c r="R40" s="190">
-        <v>0</v>
-      </c>
-      <c r="S40" s="207">
-        <v>0</v>
-      </c>
-      <c r="T40" s="192">
+      <c r="M40" s="164">
+        <v>1</v>
+      </c>
+      <c r="N40" s="189">
+        <v>0</v>
+      </c>
+      <c r="O40" s="189">
+        <v>0</v>
+      </c>
+      <c r="P40" s="189">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="189">
+        <v>0</v>
+      </c>
+      <c r="R40" s="189">
+        <v>0</v>
+      </c>
+      <c r="S40" s="206">
+        <v>0</v>
+      </c>
+      <c r="T40" s="191">
         <v>1</v>
       </c>
       <c r="U40" s="35">
         <v>0</v>
       </c>
-      <c r="V40" s="192">
-        <v>0</v>
-      </c>
-      <c r="W40" s="192">
-        <v>1</v>
-      </c>
-      <c r="X40" s="192">
+      <c r="V40" s="191">
+        <v>0</v>
+      </c>
+      <c r="W40" s="191">
+        <v>1</v>
+      </c>
+      <c r="X40" s="191">
         <v>0</v>
       </c>
       <c r="Y40" s="35">
         <v>1</v>
       </c>
-      <c r="Z40" s="192">
+      <c r="Z40" s="191">
         <v>0</v>
       </c>
       <c r="AA40" s="35">
         <v>0</v>
       </c>
-      <c r="AB40" s="192">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="193">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="168" t="str">
+      <c r="AB40" s="191">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="192">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="167" t="str">
         <f t="shared" si="1"/>
         <v>4A40</v>
       </c>
@@ -6141,28 +6193,28 @@
       <c r="L41" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="M41" s="165">
-        <v>1</v>
-      </c>
-      <c r="N41" s="190"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="190"/>
-      <c r="R41" s="191"/>
+      <c r="M41" s="164">
+        <v>1</v>
+      </c>
+      <c r="N41" s="189"/>
+      <c r="O41" s="189"/>
+      <c r="P41" s="189"/>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="190"/>
       <c r="S41" s="37"/>
-      <c r="T41" s="192"/>
+      <c r="T41" s="191"/>
       <c r="U41" s="35"/>
-      <c r="V41" s="192">
-        <v>0</v>
-      </c>
-      <c r="W41" s="192"/>
-      <c r="X41" s="192"/>
+      <c r="V41" s="191">
+        <v>0</v>
+      </c>
+      <c r="W41" s="191"/>
+      <c r="X41" s="191"/>
       <c r="Y41" s="35"/>
-      <c r="Z41" s="192"/>
+      <c r="Z41" s="191"/>
       <c r="AA41" s="35"/>
-      <c r="AB41" s="192"/>
-      <c r="AC41" s="193"/>
-      <c r="AD41" s="168" t="str">
+      <c r="AB41" s="191"/>
+      <c r="AC41" s="192"/>
+      <c r="AD41" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -6190,7 +6242,7 @@
       <c r="D42" s="2">
         <v>32</v>
       </c>
-      <c r="E42" s="203"/>
+      <c r="E42" s="202"/>
       <c r="F42" s="37" t="s">
         <v>201</v>
       </c>
@@ -6210,28 +6262,28 @@
       <c r="L42" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="M42" s="165">
-        <v>1</v>
-      </c>
-      <c r="N42" s="191"/>
-      <c r="O42" s="191"/>
-      <c r="P42" s="191"/>
-      <c r="Q42" s="191"/>
-      <c r="R42" s="191"/>
+      <c r="M42" s="164">
+        <v>1</v>
+      </c>
+      <c r="N42" s="190"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="190"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="190"/>
       <c r="S42" s="37"/>
-      <c r="T42" s="191"/>
+      <c r="T42" s="190"/>
       <c r="U42" s="37"/>
-      <c r="V42" s="192">
-        <v>0</v>
-      </c>
-      <c r="W42" s="191"/>
-      <c r="X42" s="191"/>
+      <c r="V42" s="191">
+        <v>0</v>
+      </c>
+      <c r="W42" s="190"/>
+      <c r="X42" s="190"/>
       <c r="Y42" s="37"/>
-      <c r="Z42" s="191"/>
+      <c r="Z42" s="190"/>
       <c r="AA42" s="37"/>
-      <c r="AB42" s="191"/>
-      <c r="AC42" s="194"/>
-      <c r="AD42" s="168" t="str">
+      <c r="AB42" s="190"/>
+      <c r="AC42" s="193"/>
+      <c r="AD42" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -6256,7 +6308,7 @@
       <c r="D43" s="2">
         <v>33</v>
       </c>
-      <c r="E43" s="203"/>
+      <c r="E43" s="202"/>
       <c r="F43" s="35" t="s">
         <v>202</v>
       </c>
@@ -6276,28 +6328,28 @@
       <c r="L43" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M43" s="165">
-        <v>1</v>
-      </c>
-      <c r="N43" s="191"/>
-      <c r="O43" s="191"/>
-      <c r="P43" s="191"/>
-      <c r="Q43" s="191"/>
-      <c r="R43" s="191"/>
+      <c r="M43" s="164">
+        <v>1</v>
+      </c>
+      <c r="N43" s="190"/>
+      <c r="O43" s="190"/>
+      <c r="P43" s="190"/>
+      <c r="Q43" s="190"/>
+      <c r="R43" s="190"/>
       <c r="S43" s="37"/>
-      <c r="T43" s="191"/>
+      <c r="T43" s="190"/>
       <c r="U43" s="37"/>
-      <c r="V43" s="192">
-        <v>0</v>
-      </c>
-      <c r="W43" s="191"/>
-      <c r="X43" s="191"/>
+      <c r="V43" s="191">
+        <v>0</v>
+      </c>
+      <c r="W43" s="190"/>
+      <c r="X43" s="190"/>
       <c r="Y43" s="37"/>
-      <c r="Z43" s="191"/>
+      <c r="Z43" s="190"/>
       <c r="AA43" s="37"/>
-      <c r="AB43" s="191"/>
-      <c r="AC43" s="194"/>
-      <c r="AD43" s="168" t="str">
+      <c r="AB43" s="190"/>
+      <c r="AC43" s="193"/>
+      <c r="AD43" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -6322,7 +6374,7 @@
       <c r="D44" s="2">
         <v>34</v>
       </c>
-      <c r="E44" s="203"/>
+      <c r="E44" s="202"/>
       <c r="F44" s="37" t="s">
         <v>203</v>
       </c>
@@ -6330,7 +6382,7 @@
         <v>58</v>
       </c>
       <c r="H44" s="16"/>
-      <c r="I44" s="205" t="s">
+      <c r="I44" s="204" t="s">
         <v>90</v>
       </c>
       <c r="J44" s="21" t="s">
@@ -6342,28 +6394,28 @@
       <c r="L44" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M44" s="165">
-        <v>1</v>
-      </c>
-      <c r="N44" s="191"/>
-      <c r="O44" s="191"/>
-      <c r="P44" s="191"/>
-      <c r="Q44" s="191"/>
-      <c r="R44" s="191"/>
+      <c r="M44" s="164">
+        <v>1</v>
+      </c>
+      <c r="N44" s="190"/>
+      <c r="O44" s="190"/>
+      <c r="P44" s="190"/>
+      <c r="Q44" s="190"/>
+      <c r="R44" s="190"/>
       <c r="S44" s="37"/>
-      <c r="T44" s="191"/>
+      <c r="T44" s="190"/>
       <c r="U44" s="37"/>
-      <c r="V44" s="192">
-        <v>0</v>
-      </c>
-      <c r="W44" s="191"/>
-      <c r="X44" s="191"/>
+      <c r="V44" s="191">
+        <v>0</v>
+      </c>
+      <c r="W44" s="190"/>
+      <c r="X44" s="190"/>
       <c r="Y44" s="37"/>
-      <c r="Z44" s="191"/>
+      <c r="Z44" s="190"/>
       <c r="AA44" s="37"/>
-      <c r="AB44" s="191"/>
-      <c r="AC44" s="194"/>
-      <c r="AD44" s="168" t="str">
+      <c r="AB44" s="190"/>
+      <c r="AC44" s="193"/>
+      <c r="AD44" s="167" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC44,AB44,AA44,Z44)), BIN2HEX(_xlfn.CONCAT(Y44,X44,W44,V44)), BIN2HEX(_xlfn.CONCAT(U44,T44,S44,R44)), BIN2HEX(_xlfn.CONCAT(Q44,P44,O44,N44)))</f>
         <v>0000</v>
       </c>
@@ -6377,7 +6429,7 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="208"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="45" t="str">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6389,7 +6441,7 @@
       <c r="D45" s="2">
         <v>35</v>
       </c>
-      <c r="E45" s="203"/>
+      <c r="E45" s="202"/>
       <c r="F45" s="37" t="s">
         <v>204</v>
       </c>
@@ -6409,58 +6461,58 @@
       <c r="L45" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M45" s="165">
-        <v>1</v>
-      </c>
-      <c r="N45" s="190">
-        <v>0</v>
-      </c>
-      <c r="O45" s="190">
-        <v>0</v>
-      </c>
-      <c r="P45" s="190">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="190">
-        <v>0</v>
-      </c>
-      <c r="R45" s="190">
-        <v>0</v>
-      </c>
-      <c r="S45" s="207">
-        <v>0</v>
-      </c>
-      <c r="T45" s="191">
+      <c r="M45" s="164">
+        <v>1</v>
+      </c>
+      <c r="N45" s="189">
+        <v>0</v>
+      </c>
+      <c r="O45" s="189">
+        <v>0</v>
+      </c>
+      <c r="P45" s="189">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="189">
+        <v>0</v>
+      </c>
+      <c r="R45" s="189">
+        <v>0</v>
+      </c>
+      <c r="S45" s="206">
+        <v>0</v>
+      </c>
+      <c r="T45" s="190">
         <v>0</v>
       </c>
       <c r="U45" s="37">
         <v>1</v>
       </c>
-      <c r="V45" s="192">
-        <v>0</v>
-      </c>
-      <c r="W45" s="191">
-        <v>0</v>
-      </c>
-      <c r="X45" s="191">
+      <c r="V45" s="191">
+        <v>0</v>
+      </c>
+      <c r="W45" s="190">
+        <v>0</v>
+      </c>
+      <c r="X45" s="190">
         <v>0</v>
       </c>
       <c r="Y45" s="37">
         <v>1</v>
       </c>
-      <c r="Z45" s="191">
+      <c r="Z45" s="190">
         <v>1</v>
       </c>
       <c r="AA45" s="37">
         <v>0</v>
       </c>
-      <c r="AB45" s="191">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="168" t="str">
+      <c r="AB45" s="190">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="193">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="167" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC45,AB45,AA45,Z45)), BIN2HEX(_xlfn.CONCAT(Y45,X45,W45,V45)), BIN2HEX(_xlfn.CONCAT(U45,T45,S45,R45)), BIN2HEX(_xlfn.CONCAT(Q45,P45,O45,N45)))</f>
         <v>1880</v>
       </c>
@@ -6474,7 +6526,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="208"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="45" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6486,7 +6538,7 @@
       <c r="D46" s="2">
         <v>36</v>
       </c>
-      <c r="E46" s="203"/>
+      <c r="E46" s="202"/>
       <c r="F46" s="35" t="s">
         <v>205</v>
       </c>
@@ -6506,58 +6558,58 @@
       <c r="L46" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="165">
-        <v>1</v>
-      </c>
-      <c r="N46" s="190">
-        <v>0</v>
-      </c>
-      <c r="O46" s="190">
-        <v>0</v>
-      </c>
-      <c r="P46" s="190">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="190">
-        <v>0</v>
-      </c>
-      <c r="R46" s="190">
-        <v>0</v>
-      </c>
-      <c r="S46" s="207">
-        <v>0</v>
-      </c>
-      <c r="T46" s="191">
+      <c r="M46" s="164">
+        <v>1</v>
+      </c>
+      <c r="N46" s="189">
+        <v>0</v>
+      </c>
+      <c r="O46" s="189">
+        <v>0</v>
+      </c>
+      <c r="P46" s="189">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="189">
+        <v>0</v>
+      </c>
+      <c r="R46" s="189">
+        <v>0</v>
+      </c>
+      <c r="S46" s="206">
+        <v>0</v>
+      </c>
+      <c r="T46" s="190">
         <v>0</v>
       </c>
       <c r="U46" s="37">
         <v>1</v>
       </c>
-      <c r="V46" s="192">
-        <v>0</v>
-      </c>
-      <c r="W46" s="191">
-        <v>1</v>
-      </c>
-      <c r="X46" s="191">
+      <c r="V46" s="191">
+        <v>0</v>
+      </c>
+      <c r="W46" s="190">
+        <v>1</v>
+      </c>
+      <c r="X46" s="190">
         <v>0</v>
       </c>
       <c r="Y46" s="37">
         <v>1</v>
       </c>
-      <c r="Z46" s="191">
+      <c r="Z46" s="190">
         <v>1</v>
       </c>
       <c r="AA46" s="37">
         <v>0</v>
       </c>
-      <c r="AB46" s="191">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="168" t="str">
+      <c r="AB46" s="190">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="193">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="167" t="str">
         <f t="shared" si="1"/>
         <v>5A80</v>
       </c>
@@ -6571,7 +6623,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="208"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="45" t="str">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6583,10 +6635,10 @@
       <c r="D47" s="2">
         <v>37</v>
       </c>
-      <c r="E47" s="203" t="s">
+      <c r="E47" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="F47" s="201" t="s">
+      <c r="F47" s="200" t="s">
         <v>208</v>
       </c>
       <c r="G47" s="10" t="s">
@@ -6605,7 +6657,7 @@
       <c r="L47" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="M47" s="165">
+      <c r="M47" s="164">
         <v>1</v>
       </c>
       <c r="N47" s="45">
@@ -6656,7 +6708,7 @@
       <c r="AC47" s="148">
         <v>1</v>
       </c>
-      <c r="AD47" s="168" t="str">
+      <c r="AD47" s="167" t="str">
         <f t="shared" si="1"/>
         <v>DBB8</v>
       </c>
@@ -6670,7 +6722,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="208"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="45" t="str">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6682,10 +6734,10 @@
       <c r="D48" s="2">
         <v>38</v>
       </c>
-      <c r="E48" s="203" t="s">
+      <c r="E48" s="202" t="s">
         <v>225</v>
       </c>
-      <c r="F48" s="201" t="s">
+      <c r="F48" s="200" t="s">
         <v>209</v>
       </c>
       <c r="G48" s="10" t="s">
@@ -6704,7 +6756,7 @@
       <c r="L48" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="M48" s="165">
+      <c r="M48" s="164">
         <v>1</v>
       </c>
       <c r="N48" s="45">
@@ -6755,7 +6807,7 @@
       <c r="AC48" s="148">
         <v>1</v>
       </c>
-      <c r="AD48" s="168" t="str">
+      <c r="AD48" s="167" t="str">
         <f t="shared" si="1"/>
         <v>DBA4</v>
       </c>
@@ -6780,8 +6832,8 @@
       <c r="D49" s="2">
         <v>39</v>
       </c>
-      <c r="E49" s="203"/>
-      <c r="F49" s="201" t="s">
+      <c r="E49" s="202"/>
+      <c r="F49" s="200" t="s">
         <v>210</v>
       </c>
       <c r="G49" s="10" t="s">
@@ -6800,7 +6852,7 @@
       <c r="L49" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M49" s="165">
+      <c r="M49" s="164">
         <v>1</v>
       </c>
       <c r="N49" s="45">
@@ -6831,7 +6883,7 @@
       <c r="AA49" s="46"/>
       <c r="AB49" s="45"/>
       <c r="AC49" s="148"/>
-      <c r="AD49" s="168" t="str">
+      <c r="AD49" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -6856,8 +6908,8 @@
       <c r="D50" s="2">
         <v>40</v>
       </c>
-      <c r="E50" s="203"/>
-      <c r="F50" s="201" t="s">
+      <c r="E50" s="202"/>
+      <c r="F50" s="200" t="s">
         <v>211</v>
       </c>
       <c r="G50" s="10" t="s">
@@ -6876,7 +6928,7 @@
       <c r="L50" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M50" s="165">
+      <c r="M50" s="164">
         <v>1</v>
       </c>
       <c r="N50" s="45">
@@ -6907,7 +6959,7 @@
       <c r="AA50" s="46"/>
       <c r="AB50" s="45"/>
       <c r="AC50" s="148"/>
-      <c r="AD50" s="168" t="str">
+      <c r="AD50" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -6921,7 +6973,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="214"/>
+      <c r="A51" s="212"/>
       <c r="B51" s="45" t="str">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6933,12 +6985,12 @@
       <c r="D51" s="2">
         <v>41</v>
       </c>
-      <c r="E51" s="203"/>
+      <c r="E51" s="202"/>
       <c r="F51" s="46"/>
       <c r="G51" s="10"/>
       <c r="H51" s="42"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="165">
+      <c r="M51" s="164">
         <v>1</v>
       </c>
       <c r="N51" s="45">
@@ -6989,7 +7041,7 @@
       <c r="AC51" s="148">
         <v>1</v>
       </c>
-      <c r="AD51" s="168" t="str">
+      <c r="AD51" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -7003,7 +7055,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="214"/>
+      <c r="A52" s="212"/>
       <c r="B52" s="45" t="str">
         <f t="shared" si="0"/>
         <v>2A</v>
@@ -7015,12 +7067,12 @@
       <c r="D52" s="2">
         <v>42</v>
       </c>
-      <c r="E52" s="203"/>
+      <c r="E52" s="202"/>
       <c r="F52" s="46"/>
       <c r="G52" s="10"/>
       <c r="H52" s="42"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="165">
+      <c r="M52" s="164">
         <v>1</v>
       </c>
       <c r="N52" s="45">
@@ -7071,7 +7123,7 @@
       <c r="AC52" s="148">
         <v>1</v>
       </c>
-      <c r="AD52" s="168" t="str">
+      <c r="AD52" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -7085,7 +7137,7 @@
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="208"/>
+      <c r="A53" s="207"/>
       <c r="B53" s="45" t="str">
         <f t="shared" si="0"/>
         <v>2B</v>
@@ -7097,8 +7149,8 @@
       <c r="D53" s="2">
         <v>43</v>
       </c>
-      <c r="E53" s="203" t="s">
-        <v>177</v>
+      <c r="E53" s="202" t="s">
+        <v>276</v>
       </c>
       <c r="F53" s="38" t="s">
         <v>16</v>
@@ -7119,72 +7171,72 @@
       <c r="L53" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M53" s="165">
-        <v>1</v>
-      </c>
-      <c r="N53" s="195">
-        <v>0</v>
-      </c>
-      <c r="O53" s="195">
-        <v>0</v>
-      </c>
-      <c r="P53" s="195">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="195">
-        <v>1</v>
-      </c>
-      <c r="R53" s="195">
-        <v>0</v>
+      <c r="M53" s="164">
+        <v>1</v>
+      </c>
+      <c r="N53" s="194">
+        <v>0</v>
+      </c>
+      <c r="O53" s="194">
+        <v>0</v>
+      </c>
+      <c r="P53" s="194">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="194">
+        <v>1</v>
+      </c>
+      <c r="R53" s="194">
+        <v>1</v>
       </c>
       <c r="S53" s="39">
-        <v>1</v>
-      </c>
-      <c r="T53" s="195">
+        <v>0</v>
+      </c>
+      <c r="T53" s="194">
         <v>0</v>
       </c>
       <c r="U53" s="39">
         <v>1</v>
       </c>
-      <c r="V53" s="195">
-        <v>0</v>
-      </c>
-      <c r="W53" s="195">
-        <v>1</v>
-      </c>
-      <c r="X53" s="195">
-        <v>1</v>
+      <c r="V53" s="194">
+        <v>1</v>
+      </c>
+      <c r="W53" s="194">
+        <v>1</v>
+      </c>
+      <c r="X53" s="194">
+        <v>0</v>
       </c>
       <c r="Y53" s="39">
         <v>1</v>
       </c>
-      <c r="Z53" s="195">
+      <c r="Z53" s="194">
         <v>1</v>
       </c>
       <c r="AA53" s="39">
         <v>0</v>
       </c>
-      <c r="AB53" s="195">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="196">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="168" t="str">
+      <c r="AB53" s="194">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="195">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="167" t="str">
         <f t="shared" si="1"/>
-        <v>1EA8</v>
+        <v>DB98</v>
       </c>
       <c r="AE53" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>1E</v>
+        <v>DB</v>
       </c>
       <c r="AF53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>A8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="208"/>
+      <c r="A54" s="207"/>
       <c r="B54" s="45" t="str">
         <f t="shared" si="0"/>
         <v>2C</v>
@@ -7196,7 +7248,7 @@
       <c r="D54" s="2">
         <v>44</v>
       </c>
-      <c r="E54" s="203" t="s">
+      <c r="E54" s="202" t="s">
         <v>177</v>
       </c>
       <c r="F54" s="39" t="s">
@@ -7218,58 +7270,58 @@
       <c r="L54" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M54" s="165">
-        <v>1</v>
-      </c>
-      <c r="N54" s="195">
-        <v>0</v>
-      </c>
-      <c r="O54" s="195">
-        <v>0</v>
-      </c>
-      <c r="P54" s="195">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="195">
-        <v>1</v>
-      </c>
-      <c r="R54" s="195">
+      <c r="M54" s="164">
+        <v>1</v>
+      </c>
+      <c r="N54" s="194">
+        <v>0</v>
+      </c>
+      <c r="O54" s="194">
+        <v>0</v>
+      </c>
+      <c r="P54" s="194">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="194">
+        <v>1</v>
+      </c>
+      <c r="R54" s="194">
         <v>0</v>
       </c>
       <c r="S54" s="39">
         <v>1</v>
       </c>
-      <c r="T54" s="195">
+      <c r="T54" s="194">
         <v>0</v>
       </c>
       <c r="U54" s="39">
         <v>1</v>
       </c>
-      <c r="V54" s="195">
-        <v>1</v>
-      </c>
-      <c r="W54" s="195">
-        <v>1</v>
-      </c>
-      <c r="X54" s="195">
+      <c r="V54" s="194">
+        <v>1</v>
+      </c>
+      <c r="W54" s="194">
+        <v>1</v>
+      </c>
+      <c r="X54" s="194">
         <v>0</v>
       </c>
       <c r="Y54" s="39">
         <v>1</v>
       </c>
-      <c r="Z54" s="195">
+      <c r="Z54" s="194">
         <v>1</v>
       </c>
       <c r="AA54" s="39">
         <v>0</v>
       </c>
-      <c r="AB54" s="195">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="196">
-        <v>1</v>
-      </c>
-      <c r="AD54" s="168" t="str">
+      <c r="AB54" s="194">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="195">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="167" t="str">
         <f t="shared" si="1"/>
         <v>9BA8</v>
       </c>
@@ -7283,7 +7335,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="208"/>
+      <c r="A55" s="207"/>
       <c r="B55" s="45" t="str">
         <f t="shared" si="0"/>
         <v>2D</v>
@@ -7295,7 +7347,7 @@
       <c r="D55" s="2">
         <v>45</v>
       </c>
-      <c r="E55" s="203" t="s">
+      <c r="E55" s="202" t="s">
         <v>177</v>
       </c>
       <c r="F55" s="39" t="s">
@@ -7317,58 +7369,58 @@
       <c r="L55" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M55" s="165">
-        <v>1</v>
-      </c>
-      <c r="N55" s="195">
-        <v>0</v>
-      </c>
-      <c r="O55" s="195">
-        <v>0</v>
-      </c>
-      <c r="P55" s="195">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="195">
-        <v>1</v>
-      </c>
-      <c r="R55" s="195">
+      <c r="M55" s="164">
+        <v>1</v>
+      </c>
+      <c r="N55" s="194">
+        <v>0</v>
+      </c>
+      <c r="O55" s="194">
+        <v>0</v>
+      </c>
+      <c r="P55" s="194">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="194">
+        <v>1</v>
+      </c>
+      <c r="R55" s="194">
         <v>0</v>
       </c>
       <c r="S55" s="39">
         <v>1</v>
       </c>
-      <c r="T55" s="195">
+      <c r="T55" s="194">
         <v>0</v>
       </c>
       <c r="U55" s="39">
         <v>1</v>
       </c>
-      <c r="V55" s="195">
-        <v>1</v>
-      </c>
-      <c r="W55" s="195">
-        <v>1</v>
-      </c>
-      <c r="X55" s="195">
+      <c r="V55" s="194">
+        <v>1</v>
+      </c>
+      <c r="W55" s="194">
+        <v>1</v>
+      </c>
+      <c r="X55" s="194">
         <v>0</v>
       </c>
       <c r="Y55" s="39">
         <v>1</v>
       </c>
-      <c r="Z55" s="195">
+      <c r="Z55" s="194">
         <v>1</v>
       </c>
       <c r="AA55" s="39">
         <v>0</v>
       </c>
-      <c r="AB55" s="195">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="196">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="168" t="str">
+      <c r="AB55" s="194">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="195">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="167" t="str">
         <f t="shared" si="1"/>
         <v>9BA8</v>
       </c>
@@ -7382,7 +7434,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="208"/>
+      <c r="A56" s="207"/>
       <c r="B56" s="45" t="str">
         <f t="shared" si="0"/>
         <v>2E</v>
@@ -7394,7 +7446,7 @@
       <c r="D56" s="2">
         <v>46</v>
       </c>
-      <c r="E56" s="203" t="s">
+      <c r="E56" s="202" t="s">
         <v>177</v>
       </c>
       <c r="F56" s="38" t="s">
@@ -7416,58 +7468,58 @@
       <c r="L56" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M56" s="165">
-        <v>1</v>
-      </c>
-      <c r="N56" s="195">
-        <v>0</v>
-      </c>
-      <c r="O56" s="195">
-        <v>0</v>
-      </c>
-      <c r="P56" s="195">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="195">
-        <v>1</v>
-      </c>
-      <c r="R56" s="195">
+      <c r="M56" s="164">
+        <v>1</v>
+      </c>
+      <c r="N56" s="194">
+        <v>0</v>
+      </c>
+      <c r="O56" s="194">
+        <v>0</v>
+      </c>
+      <c r="P56" s="194">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="194">
+        <v>1</v>
+      </c>
+      <c r="R56" s="194">
         <v>0</v>
       </c>
       <c r="S56" s="39">
         <v>1</v>
       </c>
-      <c r="T56" s="195">
+      <c r="T56" s="194">
         <v>0</v>
       </c>
       <c r="U56" s="39">
         <v>1</v>
       </c>
-      <c r="V56" s="195">
-        <v>1</v>
-      </c>
-      <c r="W56" s="195">
-        <v>1</v>
-      </c>
-      <c r="X56" s="195">
+      <c r="V56" s="194">
+        <v>1</v>
+      </c>
+      <c r="W56" s="194">
+        <v>1</v>
+      </c>
+      <c r="X56" s="194">
         <v>0</v>
       </c>
       <c r="Y56" s="39">
         <v>1</v>
       </c>
-      <c r="Z56" s="195">
+      <c r="Z56" s="194">
         <v>1</v>
       </c>
       <c r="AA56" s="39">
         <v>0</v>
       </c>
-      <c r="AB56" s="195">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="196">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="168" t="str">
+      <c r="AB56" s="194">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="195">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="167" t="str">
         <f t="shared" si="1"/>
         <v>1BA8</v>
       </c>
@@ -7481,7 +7533,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="208"/>
+      <c r="A57" s="207"/>
       <c r="B57" s="45" t="str">
         <f t="shared" si="0"/>
         <v>2F</v>
@@ -7493,7 +7545,7 @@
       <c r="D57" s="2">
         <v>47</v>
       </c>
-      <c r="E57" s="203" t="s">
+      <c r="E57" s="202" t="s">
         <v>177</v>
       </c>
       <c r="F57" s="38" t="s">
@@ -7515,58 +7567,58 @@
       <c r="L57" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M57" s="165">
-        <v>1</v>
-      </c>
-      <c r="N57" s="195">
-        <v>0</v>
-      </c>
-      <c r="O57" s="195">
-        <v>0</v>
-      </c>
-      <c r="P57" s="195">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="195">
-        <v>1</v>
-      </c>
-      <c r="R57" s="195">
+      <c r="M57" s="164">
+        <v>1</v>
+      </c>
+      <c r="N57" s="194">
+        <v>0</v>
+      </c>
+      <c r="O57" s="194">
+        <v>0</v>
+      </c>
+      <c r="P57" s="194">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="194">
+        <v>1</v>
+      </c>
+      <c r="R57" s="194">
         <v>0</v>
       </c>
       <c r="S57" s="39">
         <v>1</v>
       </c>
-      <c r="T57" s="195">
+      <c r="T57" s="194">
         <v>0</v>
       </c>
       <c r="U57" s="39">
         <v>1</v>
       </c>
-      <c r="V57" s="195">
-        <v>1</v>
-      </c>
-      <c r="W57" s="195">
-        <v>1</v>
-      </c>
-      <c r="X57" s="195">
+      <c r="V57" s="194">
+        <v>1</v>
+      </c>
+      <c r="W57" s="194">
+        <v>1</v>
+      </c>
+      <c r="X57" s="194">
         <v>0</v>
       </c>
       <c r="Y57" s="39">
         <v>1</v>
       </c>
-      <c r="Z57" s="195">
+      <c r="Z57" s="194">
         <v>1</v>
       </c>
       <c r="AA57" s="39">
         <v>0</v>
       </c>
-      <c r="AB57" s="195">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="196">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="168" t="str">
+      <c r="AB57" s="194">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="195">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="167" t="str">
         <f t="shared" si="1"/>
         <v>1BA8</v>
       </c>
@@ -7580,7 +7632,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="208"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="45" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7592,7 +7644,7 @@
       <c r="D58" s="2">
         <v>48</v>
       </c>
-      <c r="E58" s="203" t="s">
+      <c r="E58" s="202" t="s">
         <v>177</v>
       </c>
       <c r="F58" s="38" t="s">
@@ -7614,58 +7666,58 @@
       <c r="L58" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M58" s="165">
-        <v>1</v>
-      </c>
-      <c r="N58" s="195">
-        <v>0</v>
-      </c>
-      <c r="O58" s="195">
-        <v>0</v>
-      </c>
-      <c r="P58" s="195">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="195">
-        <v>1</v>
-      </c>
-      <c r="R58" s="195">
+      <c r="M58" s="164">
+        <v>1</v>
+      </c>
+      <c r="N58" s="194">
+        <v>0</v>
+      </c>
+      <c r="O58" s="194">
+        <v>0</v>
+      </c>
+      <c r="P58" s="194">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="194">
+        <v>1</v>
+      </c>
+      <c r="R58" s="194">
         <v>0</v>
       </c>
       <c r="S58" s="39">
         <v>1</v>
       </c>
-      <c r="T58" s="195">
+      <c r="T58" s="194">
         <v>0</v>
       </c>
       <c r="U58" s="39">
         <v>1</v>
       </c>
-      <c r="V58" s="195">
-        <v>1</v>
-      </c>
-      <c r="W58" s="195">
-        <v>1</v>
-      </c>
-      <c r="X58" s="195">
+      <c r="V58" s="194">
+        <v>1</v>
+      </c>
+      <c r="W58" s="194">
+        <v>1</v>
+      </c>
+      <c r="X58" s="194">
         <v>0</v>
       </c>
       <c r="Y58" s="39">
         <v>1</v>
       </c>
-      <c r="Z58" s="195">
+      <c r="Z58" s="194">
         <v>1</v>
       </c>
       <c r="AA58" s="39">
         <v>0</v>
       </c>
-      <c r="AB58" s="195">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="196">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="168" t="str">
+      <c r="AB58" s="194">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="195">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="167" t="str">
         <f t="shared" si="1"/>
         <v>5BA8</v>
       </c>
@@ -7679,7 +7731,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="208"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="45" t="str">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7691,7 +7743,7 @@
       <c r="D59" s="2">
         <v>49</v>
       </c>
-      <c r="E59" s="203" t="s">
+      <c r="E59" s="202" t="s">
         <v>177</v>
       </c>
       <c r="F59" s="39" t="s">
@@ -7713,58 +7765,58 @@
       <c r="L59" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M59" s="165">
-        <v>1</v>
-      </c>
-      <c r="N59" s="195">
-        <v>0</v>
-      </c>
-      <c r="O59" s="195">
-        <v>0</v>
-      </c>
-      <c r="P59" s="195">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="195">
-        <v>1</v>
-      </c>
-      <c r="R59" s="195">
+      <c r="M59" s="164">
+        <v>1</v>
+      </c>
+      <c r="N59" s="194">
+        <v>0</v>
+      </c>
+      <c r="O59" s="194">
+        <v>0</v>
+      </c>
+      <c r="P59" s="194">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="194">
+        <v>1</v>
+      </c>
+      <c r="R59" s="194">
         <v>0</v>
       </c>
       <c r="S59" s="39">
         <v>1</v>
       </c>
-      <c r="T59" s="195">
+      <c r="T59" s="194">
         <v>0</v>
       </c>
       <c r="U59" s="39">
         <v>1</v>
       </c>
-      <c r="V59" s="195">
-        <v>1</v>
-      </c>
-      <c r="W59" s="195">
-        <v>1</v>
-      </c>
-      <c r="X59" s="195">
+      <c r="V59" s="194">
+        <v>1</v>
+      </c>
+      <c r="W59" s="194">
+        <v>1</v>
+      </c>
+      <c r="X59" s="194">
         <v>0</v>
       </c>
       <c r="Y59" s="39">
         <v>1</v>
       </c>
-      <c r="Z59" s="195">
+      <c r="Z59" s="194">
         <v>1</v>
       </c>
       <c r="AA59" s="39">
         <v>0</v>
       </c>
-      <c r="AB59" s="195">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="196">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="168" t="str">
+      <c r="AB59" s="194">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="195">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="167" t="str">
         <f t="shared" si="1"/>
         <v>5BA8</v>
       </c>
@@ -7778,7 +7830,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="214"/>
+      <c r="A60" s="212"/>
       <c r="B60" s="45" t="str">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7790,12 +7842,12 @@
       <c r="D60" s="2">
         <v>50</v>
       </c>
-      <c r="E60" s="203"/>
+      <c r="E60" s="202"/>
       <c r="F60" s="46"/>
       <c r="G60" s="10"/>
       <c r="H60" s="42"/>
       <c r="L60" s="11"/>
-      <c r="M60" s="165">
+      <c r="M60" s="164">
         <v>1</v>
       </c>
       <c r="N60" s="45">
@@ -7846,7 +7898,7 @@
       <c r="AC60" s="148">
         <v>1</v>
       </c>
-      <c r="AD60" s="168" t="str">
+      <c r="AD60" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -7860,7 +7912,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="214"/>
+      <c r="A61" s="212"/>
       <c r="B61" s="45" t="str">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7872,12 +7924,12 @@
       <c r="D61" s="2">
         <v>51</v>
       </c>
-      <c r="E61" s="203"/>
+      <c r="E61" s="202"/>
       <c r="F61" s="46"/>
       <c r="G61" s="10"/>
       <c r="H61" s="42"/>
       <c r="L61" s="11"/>
-      <c r="M61" s="165">
+      <c r="M61" s="164">
         <v>1</v>
       </c>
       <c r="N61" s="45">
@@ -7928,7 +7980,7 @@
       <c r="AC61" s="148">
         <v>1</v>
       </c>
-      <c r="AD61" s="168" t="str">
+      <c r="AD61" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -7942,7 +7994,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="214"/>
+      <c r="A62" s="212"/>
       <c r="B62" s="45" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7954,12 +8006,12 @@
       <c r="D62" s="2">
         <v>52</v>
       </c>
-      <c r="E62" s="203"/>
+      <c r="E62" s="202"/>
       <c r="F62" s="46"/>
       <c r="G62" s="10"/>
       <c r="H62" s="16"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="165">
+      <c r="M62" s="164">
         <v>1</v>
       </c>
       <c r="N62" s="45">
@@ -8010,7 +8062,7 @@
       <c r="AC62" s="148">
         <v>1</v>
       </c>
-      <c r="AD62" s="168" t="str">
+      <c r="AD62" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -8035,7 +8087,7 @@
       <c r="D63" s="2">
         <v>53</v>
       </c>
-      <c r="E63" s="203"/>
+      <c r="E63" s="202"/>
       <c r="F63" s="40" t="s">
         <v>70</v>
       </c>
@@ -8055,26 +8107,26 @@
       <c r="L63" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="M63" s="165">
-        <v>1</v>
-      </c>
-      <c r="N63" s="197"/>
-      <c r="O63" s="197"/>
-      <c r="P63" s="197"/>
-      <c r="Q63" s="197"/>
-      <c r="R63" s="197"/>
-      <c r="S63" s="198"/>
-      <c r="T63" s="197"/>
-      <c r="U63" s="198"/>
-      <c r="V63" s="197"/>
-      <c r="W63" s="197"/>
-      <c r="X63" s="197"/>
-      <c r="Y63" s="198"/>
-      <c r="Z63" s="197"/>
-      <c r="AA63" s="198"/>
-      <c r="AB63" s="197"/>
-      <c r="AC63" s="199"/>
-      <c r="AD63" s="168" t="str">
+      <c r="M63" s="164">
+        <v>1</v>
+      </c>
+      <c r="N63" s="196"/>
+      <c r="O63" s="196"/>
+      <c r="P63" s="196"/>
+      <c r="Q63" s="196"/>
+      <c r="R63" s="196"/>
+      <c r="S63" s="197"/>
+      <c r="T63" s="196"/>
+      <c r="U63" s="197"/>
+      <c r="V63" s="196"/>
+      <c r="W63" s="196"/>
+      <c r="X63" s="196"/>
+      <c r="Y63" s="197"/>
+      <c r="Z63" s="196"/>
+      <c r="AA63" s="197"/>
+      <c r="AB63" s="196"/>
+      <c r="AC63" s="198"/>
+      <c r="AD63" s="167" t="str">
         <f t="shared" si="1"/>
         <v>0000</v>
       </c>
@@ -8088,7 +8140,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="208"/>
+      <c r="A64" s="207"/>
       <c r="B64" s="45" t="str">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -8100,7 +8152,7 @@
       <c r="D64" s="2">
         <v>54</v>
       </c>
-      <c r="E64" s="203"/>
+      <c r="E64" s="202"/>
       <c r="F64" s="41" t="s">
         <v>79</v>
       </c>
@@ -8120,58 +8172,58 @@
       <c r="L64" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M64" s="165">
-        <v>1</v>
-      </c>
-      <c r="N64" s="200">
-        <v>0</v>
-      </c>
-      <c r="O64" s="200">
-        <v>0</v>
-      </c>
-      <c r="P64" s="200">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="200">
-        <v>0</v>
-      </c>
-      <c r="R64" s="200">
-        <v>0</v>
-      </c>
-      <c r="S64" s="201">
-        <v>0</v>
-      </c>
-      <c r="T64" s="200">
-        <v>1</v>
-      </c>
-      <c r="U64" s="201">
-        <v>1</v>
-      </c>
-      <c r="V64" s="200">
-        <v>1</v>
-      </c>
-      <c r="W64" s="200">
-        <v>1</v>
-      </c>
-      <c r="X64" s="200">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="201">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="201">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="200">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="202">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="168" t="str">
+      <c r="M64" s="164">
+        <v>1</v>
+      </c>
+      <c r="N64" s="199">
+        <v>0</v>
+      </c>
+      <c r="O64" s="199">
+        <v>0</v>
+      </c>
+      <c r="P64" s="199">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="199">
+        <v>0</v>
+      </c>
+      <c r="R64" s="199">
+        <v>0</v>
+      </c>
+      <c r="S64" s="200">
+        <v>0</v>
+      </c>
+      <c r="T64" s="199">
+        <v>1</v>
+      </c>
+      <c r="U64" s="200">
+        <v>1</v>
+      </c>
+      <c r="V64" s="199">
+        <v>1</v>
+      </c>
+      <c r="W64" s="199">
+        <v>1</v>
+      </c>
+      <c r="X64" s="199">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="200">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="199">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="200">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="199">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="201">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -8196,11 +8248,11 @@
       <c r="D65" s="2">
         <v>55</v>
       </c>
-      <c r="E65" s="203"/>
+      <c r="E65" s="202"/>
       <c r="F65" s="46"/>
       <c r="H65" s="16"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="165">
+      <c r="M65" s="164">
         <v>1</v>
       </c>
       <c r="N65" s="45">
@@ -8251,7 +8303,7 @@
       <c r="AC65" s="148">
         <v>1</v>
       </c>
-      <c r="AD65" s="168" t="str">
+      <c r="AD65" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -8265,7 +8317,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="208"/>
+      <c r="A66" s="207"/>
       <c r="B66" s="45" t="str">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -8277,8 +8329,8 @@
       <c r="D66" s="2">
         <v>56</v>
       </c>
-      <c r="E66" s="203"/>
-      <c r="F66" s="173" t="s">
+      <c r="E66" s="202"/>
+      <c r="F66" s="172" t="s">
         <v>228</v>
       </c>
       <c r="G66" s="10" t="s">
@@ -8297,64 +8349,64 @@
       <c r="L66" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M66" s="165">
-        <v>1</v>
-      </c>
-      <c r="N66" s="45">
-        <v>0</v>
-      </c>
-      <c r="O66" s="45">
-        <v>0</v>
-      </c>
-      <c r="P66" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="45">
-        <v>0</v>
-      </c>
-      <c r="R66" s="45">
-        <v>0</v>
-      </c>
-      <c r="S66" s="46">
-        <v>0</v>
-      </c>
-      <c r="T66" s="45">
-        <v>0</v>
-      </c>
-      <c r="U66" s="46">
-        <v>0</v>
-      </c>
-      <c r="V66" s="45">
-        <v>1</v>
-      </c>
-      <c r="W66" s="45">
-        <v>1</v>
-      </c>
-      <c r="X66" s="45">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="45">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="148">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="168" t="str">
+      <c r="M66" s="164">
+        <v>1</v>
+      </c>
+      <c r="N66" s="171">
+        <v>0</v>
+      </c>
+      <c r="O66" s="171">
+        <v>0</v>
+      </c>
+      <c r="P66" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="171">
+        <v>0</v>
+      </c>
+      <c r="R66" s="171">
+        <v>0</v>
+      </c>
+      <c r="S66" s="172">
+        <v>0</v>
+      </c>
+      <c r="T66" s="171">
+        <v>0</v>
+      </c>
+      <c r="U66" s="172">
+        <v>0</v>
+      </c>
+      <c r="V66" s="171">
+        <v>0</v>
+      </c>
+      <c r="W66" s="171">
+        <v>1</v>
+      </c>
+      <c r="X66" s="171">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="172">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="171">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="171">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="274">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="167" t="str">
         <f t="shared" si="1"/>
-        <v>C300</v>
+        <v>C600</v>
       </c>
       <c r="AE66" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>C3</v>
+        <v>C6</v>
       </c>
       <c r="AF66" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8362,7 +8414,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A67" s="208"/>
+      <c r="A67" s="207"/>
       <c r="B67" s="45" t="str">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -8374,8 +8426,10 @@
       <c r="D67" s="2">
         <v>57</v>
       </c>
-      <c r="E67" s="203"/>
-      <c r="F67" s="173" t="s">
+      <c r="E67" s="202" t="s">
+        <v>278</v>
+      </c>
+      <c r="F67" s="172" t="s">
         <v>229</v>
       </c>
       <c r="G67" s="10" t="s">
@@ -8394,72 +8448,72 @@
       <c r="L67" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M67" s="165">
-        <v>1</v>
-      </c>
-      <c r="N67" s="45">
-        <v>0</v>
-      </c>
-      <c r="O67" s="45">
-        <v>0</v>
-      </c>
-      <c r="P67" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="45">
-        <v>0</v>
-      </c>
-      <c r="R67" s="45">
-        <v>0</v>
-      </c>
-      <c r="S67" s="46">
-        <v>0</v>
-      </c>
-      <c r="T67" s="45">
-        <v>0</v>
-      </c>
-      <c r="U67" s="46">
-        <v>1</v>
-      </c>
-      <c r="V67" s="45">
-        <v>1</v>
-      </c>
-      <c r="W67" s="45">
-        <v>0</v>
-      </c>
-      <c r="X67" s="45">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="46">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="45">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="148">
-        <v>1</v>
-      </c>
-      <c r="AD67" s="168" t="str">
+      <c r="M67" s="164">
+        <v>1</v>
+      </c>
+      <c r="N67" s="171">
+        <v>0</v>
+      </c>
+      <c r="O67" s="171">
+        <v>1</v>
+      </c>
+      <c r="P67" s="171">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="171">
+        <v>0</v>
+      </c>
+      <c r="R67" s="171">
+        <v>0</v>
+      </c>
+      <c r="S67" s="172">
+        <v>0</v>
+      </c>
+      <c r="T67" s="171">
+        <v>1</v>
+      </c>
+      <c r="U67" s="172">
+        <v>1</v>
+      </c>
+      <c r="V67" s="171">
+        <v>0</v>
+      </c>
+      <c r="W67" s="171">
+        <v>1</v>
+      </c>
+      <c r="X67" s="171">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="172">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="171">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="172">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="171">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="274">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="167" t="str">
         <f t="shared" si="1"/>
-        <v>C980</v>
+        <v>4EC2</v>
       </c>
       <c r="AE67" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>C9</v>
+        <v>4E</v>
       </c>
       <c r="AF67" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>C2</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A68" s="208"/>
+      <c r="A68" s="207"/>
       <c r="B68" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3A</v>
@@ -8471,10 +8525,10 @@
       <c r="D68" s="2">
         <v>58</v>
       </c>
-      <c r="E68" s="203" t="s">
+      <c r="E68" s="202" t="s">
         <v>254</v>
       </c>
-      <c r="F68" s="213" t="s">
+      <c r="F68" s="270" t="s">
         <v>230</v>
       </c>
       <c r="G68" s="10" t="s">
@@ -8482,82 +8536,83 @@
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K68" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J68" s="21" t="s">
+      <c r="L68" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="K68" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M68" s="165">
-        <v>1</v>
-      </c>
-      <c r="N68" s="45">
-        <v>0</v>
-      </c>
-      <c r="O68" s="45">
-        <v>0</v>
-      </c>
-      <c r="P68" s="45">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="45">
-        <v>0</v>
-      </c>
-      <c r="R68" s="45">
-        <v>1</v>
-      </c>
-      <c r="S68" s="46">
-        <v>1</v>
-      </c>
-      <c r="T68" s="45">
-        <v>1</v>
-      </c>
-      <c r="U68" s="46">
-        <v>1</v>
-      </c>
-      <c r="V68" s="45">
-        <v>0</v>
-      </c>
-      <c r="W68" s="45">
-        <v>0</v>
-      </c>
-      <c r="X68" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="46">
-        <v>1</v>
-      </c>
-      <c r="Z68" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="45">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="148">
-        <v>1</v>
-      </c>
-      <c r="AD68" s="168" t="str">
+      <c r="M68" s="164">
+        <v>1</v>
+      </c>
+      <c r="N68" s="275">
+        <v>0</v>
+      </c>
+      <c r="O68" s="275">
+        <v>0</v>
+      </c>
+      <c r="P68" s="275">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="275">
+        <v>1</v>
+      </c>
+      <c r="R68" s="275">
+        <v>0</v>
+      </c>
+      <c r="S68" s="270">
+        <v>1</v>
+      </c>
+      <c r="T68" s="275">
+        <v>0</v>
+      </c>
+      <c r="U68" s="270">
+        <v>1</v>
+      </c>
+      <c r="V68" s="275">
+        <v>0</v>
+      </c>
+      <c r="W68" s="275">
+        <v>1</v>
+      </c>
+      <c r="X68" s="275">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="270">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="275">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="270">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="275">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="276">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="167" t="str">
         <f t="shared" si="1"/>
-        <v>CCF4</v>
+        <v>C6AC</v>
       </c>
       <c r="AE68" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>CC</v>
+        <v>C6</v>
       </c>
       <c r="AF68" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>F4</v>
+        <v>AC</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" s="207"/>
       <c r="B69" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3B</v>
@@ -8569,14 +8624,14 @@
       <c r="D69" s="2">
         <v>59</v>
       </c>
-      <c r="E69" s="203" t="s">
+      <c r="E69" s="202" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="270" t="s">
+        <v>231</v>
+      </c>
+      <c r="G69" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="F69" s="213" t="s">
-        <v>231</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="21" t="s">
@@ -8591,60 +8646,60 @@
       <c r="L69" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M69" s="165">
-        <v>1</v>
-      </c>
-      <c r="N69" s="45">
-        <v>0</v>
-      </c>
-      <c r="O69" s="45">
-        <v>0</v>
-      </c>
-      <c r="P69" s="45">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="45">
-        <v>1</v>
-      </c>
-      <c r="R69" s="45">
-        <v>1</v>
-      </c>
-      <c r="S69" s="46">
-        <v>1</v>
-      </c>
-      <c r="T69" s="45">
-        <v>1</v>
-      </c>
-      <c r="U69" s="46">
-        <v>1</v>
-      </c>
-      <c r="V69" s="45">
-        <v>0</v>
-      </c>
-      <c r="W69" s="45">
-        <v>1</v>
-      </c>
-      <c r="X69" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y69" s="46">
-        <v>1</v>
-      </c>
-      <c r="Z69" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="45">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="148">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="168" t="str">
+      <c r="M69" s="164">
+        <v>1</v>
+      </c>
+      <c r="N69" s="275">
+        <v>0</v>
+      </c>
+      <c r="O69" s="275">
+        <v>0</v>
+      </c>
+      <c r="P69" s="275">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="275">
+        <v>1</v>
+      </c>
+      <c r="R69" s="275">
+        <v>1</v>
+      </c>
+      <c r="S69" s="270">
+        <v>0</v>
+      </c>
+      <c r="T69" s="275">
+        <v>1</v>
+      </c>
+      <c r="U69" s="270">
+        <v>1</v>
+      </c>
+      <c r="V69" s="275">
+        <v>0</v>
+      </c>
+      <c r="W69" s="275">
+        <v>1</v>
+      </c>
+      <c r="X69" s="275">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="270">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="275">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="270">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="275">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="276">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="167" t="str">
         <f t="shared" si="1"/>
-        <v>4EFC</v>
+        <v>4EDC</v>
       </c>
       <c r="AE69" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8652,11 +8707,11 @@
       </c>
       <c r="AF69" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>FC</v>
+        <v>DC</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A70" s="214"/>
+      <c r="A70" s="212"/>
       <c r="B70" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3C</v>
@@ -8668,12 +8723,12 @@
       <c r="D70" s="2">
         <v>60</v>
       </c>
-      <c r="E70" s="203"/>
+      <c r="E70" s="202"/>
       <c r="F70" s="46"/>
       <c r="G70" s="10"/>
       <c r="H70" s="16"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="165">
+      <c r="M70" s="164">
         <v>1</v>
       </c>
       <c r="N70" s="45">
@@ -8724,7 +8779,7 @@
       <c r="AC70" s="148">
         <v>1</v>
       </c>
-      <c r="AD70" s="168" t="str">
+      <c r="AD70" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -8738,7 +8793,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A71" s="214"/>
+      <c r="A71" s="212"/>
       <c r="B71" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3D</v>
@@ -8750,12 +8805,12 @@
       <c r="D71" s="2">
         <v>61</v>
       </c>
-      <c r="E71" s="203"/>
+      <c r="E71" s="202"/>
       <c r="F71" s="46"/>
       <c r="G71" s="10"/>
       <c r="H71" s="16"/>
       <c r="L71" s="9"/>
-      <c r="M71" s="165">
+      <c r="M71" s="164">
         <v>1</v>
       </c>
       <c r="N71" s="45">
@@ -8806,7 +8861,7 @@
       <c r="AC71" s="148">
         <v>1</v>
       </c>
-      <c r="AD71" s="168" t="str">
+      <c r="AD71" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -8820,7 +8875,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72" s="214"/>
+      <c r="A72" s="212"/>
       <c r="B72" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3E</v>
@@ -8832,11 +8887,11 @@
       <c r="D72" s="2">
         <v>62</v>
       </c>
-      <c r="E72" s="203"/>
+      <c r="E72" s="202"/>
       <c r="F72" s="46"/>
       <c r="G72" s="46"/>
       <c r="H72" s="9"/>
-      <c r="M72" s="165">
+      <c r="M72" s="164">
         <v>1</v>
       </c>
       <c r="N72" s="45">
@@ -8887,7 +8942,7 @@
       <c r="AC72" s="148">
         <v>1</v>
       </c>
-      <c r="AD72" s="168" t="str">
+      <c r="AD72" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBC0</v>
       </c>
@@ -8901,7 +8956,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73" s="208"/>
+      <c r="A73" s="207"/>
       <c r="B73" s="45" t="str">
         <f t="shared" si="0"/>
         <v>3F</v>
@@ -8913,14 +8968,14 @@
       <c r="D73" s="157">
         <v>63</v>
       </c>
-      <c r="E73" s="204"/>
-      <c r="F73" s="206" t="s">
+      <c r="E73" s="203"/>
+      <c r="F73" s="205" t="s">
         <v>149</v>
       </c>
-      <c r="G73" s="159" t="s">
+      <c r="G73" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="H73" s="160"/>
+      <c r="H73" s="159"/>
       <c r="I73" s="121" t="s">
         <v>89</v>
       </c>
@@ -8933,58 +8988,58 @@
       <c r="L73" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="M73" s="166">
-        <v>0</v>
-      </c>
-      <c r="N73" s="161">
-        <v>1</v>
-      </c>
-      <c r="O73" s="161">
-        <v>1</v>
-      </c>
-      <c r="P73" s="161">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="161">
-        <v>1</v>
-      </c>
-      <c r="R73" s="161">
-        <v>1</v>
-      </c>
-      <c r="S73" s="158">
-        <v>1</v>
-      </c>
-      <c r="T73" s="161">
-        <v>1</v>
-      </c>
-      <c r="U73" s="158">
-        <v>1</v>
-      </c>
-      <c r="V73" s="161">
-        <v>1</v>
-      </c>
-      <c r="W73" s="161">
-        <v>1</v>
-      </c>
-      <c r="X73" s="161">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="158">
-        <v>1</v>
-      </c>
-      <c r="Z73" s="161">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="158">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="161">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="162">
-        <v>1</v>
-      </c>
-      <c r="AD73" s="168" t="str">
+      <c r="M73" s="165">
+        <v>0</v>
+      </c>
+      <c r="N73" s="277">
+        <v>1</v>
+      </c>
+      <c r="O73" s="277">
+        <v>1</v>
+      </c>
+      <c r="P73" s="277">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="277">
+        <v>1</v>
+      </c>
+      <c r="R73" s="277">
+        <v>1</v>
+      </c>
+      <c r="S73" s="205">
+        <v>1</v>
+      </c>
+      <c r="T73" s="277">
+        <v>1</v>
+      </c>
+      <c r="U73" s="205">
+        <v>1</v>
+      </c>
+      <c r="V73" s="277">
+        <v>1</v>
+      </c>
+      <c r="W73" s="277">
+        <v>1</v>
+      </c>
+      <c r="X73" s="277">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="205">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="277">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="205">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="277">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="278">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="167" t="str">
         <f t="shared" si="1"/>
         <v>CBFF</v>
       </c>
@@ -8998,7 +9053,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A74" s="208"/>
+      <c r="A74" s="207"/>
       <c r="B74" s="45" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -9010,7 +9065,7 @@
       <c r="D74" s="2">
         <v>64</v>
       </c>
-      <c r="E74" s="203"/>
+      <c r="E74" s="202"/>
       <c r="F74" s="125" t="s">
         <v>147</v>
       </c>
@@ -9019,7 +9074,7 @@
       </c>
       <c r="H74" s="16"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="165">
+      <c r="M74" s="164">
         <v>0</v>
       </c>
       <c r="N74" s="149" t="s">
@@ -9070,7 +9125,7 @@
       <c r="AC74" s="148">
         <v>1</v>
       </c>
-      <c r="AD74" s="168" t="str">
+      <c r="AD74" s="167" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC74,AB74,AA74,Z74)), BIN2HEX(_xlfn.CONCAT(Y74,X74,W74,V74)), BIN2HEX(_xlfn.CONCAT(U74,T74,0,0)), BIN2HEX(_xlfn.CONCAT(0,0,0,0)))</f>
         <v>DA80</v>
       </c>
@@ -9095,7 +9150,7 @@
       <c r="D75" s="2">
         <v>65</v>
       </c>
-      <c r="E75" s="203"/>
+      <c r="E75" s="202"/>
       <c r="F75" s="46" t="s">
         <v>150</v>
       </c>
@@ -9155,7 +9210,7 @@
       <c r="AC75" s="148">
         <v>1</v>
       </c>
-      <c r="AD75" s="168" t="str">
+      <c r="AD75" s="167" t="str">
         <f t="shared" ref="AD75:AD137" si="6">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC75,AB75,AA75,Z75)), BIN2HEX(_xlfn.CONCAT(Y75,X75,W75,V75)), BIN2HEX(_xlfn.CONCAT(U75,T75,S75,R75)), BIN2HEX(_xlfn.CONCAT(Q75,P75,O75,N75)))</f>
         <v>CBC0</v>
       </c>
@@ -9180,7 +9235,7 @@
       <c r="D76" s="2">
         <v>66</v>
       </c>
-      <c r="E76" s="203"/>
+      <c r="E76" s="202"/>
       <c r="F76" s="46" t="s">
         <v>159</v>
       </c>
@@ -9240,7 +9295,7 @@
       <c r="AC76" s="148">
         <v>1</v>
       </c>
-      <c r="AD76" s="168" t="str">
+      <c r="AD76" s="167" t="str">
         <f t="shared" si="6"/>
         <v>CBC0</v>
       </c>
@@ -9265,7 +9320,7 @@
       <c r="D77" s="2">
         <v>67</v>
       </c>
-      <c r="E77" s="203"/>
+      <c r="E77" s="202"/>
       <c r="F77" s="46" t="s">
         <v>161</v>
       </c>
@@ -9325,7 +9380,7 @@
       <c r="AC77" s="148">
         <v>1</v>
       </c>
-      <c r="AD77" s="168" t="str">
+      <c r="AD77" s="167" t="str">
         <f t="shared" si="6"/>
         <v>CBC0</v>
       </c>
@@ -9350,7 +9405,7 @@
       <c r="D78" s="2">
         <v>68</v>
       </c>
-      <c r="E78" s="203"/>
+      <c r="E78" s="202"/>
       <c r="F78" s="46"/>
       <c r="G78" s="10"/>
       <c r="H78" s="16"/>
@@ -9386,7 +9441,7 @@
       <c r="AA78" s="11"/>
       <c r="AB78" s="45"/>
       <c r="AC78" s="135"/>
-      <c r="AD78" s="168" t="str">
+      <c r="AD78" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -9411,12 +9466,12 @@
       <c r="D79" s="2">
         <v>69</v>
       </c>
-      <c r="E79" s="203"/>
-      <c r="F79" s="46" t="s">
+      <c r="E79" s="202"/>
+      <c r="F79" s="39" t="s">
         <v>178</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H79" s="16"/>
       <c r="L79" s="9"/>
@@ -9471,7 +9526,7 @@
       <c r="AC79" s="148">
         <v>1</v>
       </c>
-      <c r="AD79" s="168" t="str">
+      <c r="AD79" s="167" t="str">
         <f t="shared" si="6"/>
         <v>CB80</v>
       </c>
@@ -9496,8 +9551,10 @@
       <c r="D80" s="2">
         <v>70</v>
       </c>
-      <c r="E80" s="203"/>
-      <c r="F80" s="46"/>
+      <c r="E80" s="202"/>
+      <c r="F80" s="268" t="s">
+        <v>277</v>
+      </c>
       <c r="G80" s="10"/>
       <c r="H80" s="16"/>
       <c r="L80" s="9"/>
@@ -9522,21 +9579,47 @@
       <c r="S80" s="45">
         <v>0</v>
       </c>
-      <c r="U80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="AA80" s="11"/>
-      <c r="AC80" s="135"/>
-      <c r="AD80" s="168" t="str">
+      <c r="T80" s="272">
+        <v>0</v>
+      </c>
+      <c r="U80" s="268">
+        <v>1</v>
+      </c>
+      <c r="V80" s="272">
+        <v>0</v>
+      </c>
+      <c r="W80" s="272">
+        <v>1</v>
+      </c>
+      <c r="X80" s="272">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="268">
+        <v>1</v>
+      </c>
+      <c r="Z80" s="272">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="268">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="272">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="273">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="167" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0E80</v>
       </c>
       <c r="AE80" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>00</v>
+        <v>0E</v>
       </c>
       <c r="AF80" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>00</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="2:32" x14ac:dyDescent="0.25">
@@ -9551,8 +9634,8 @@
       <c r="D81" s="2">
         <v>71</v>
       </c>
-      <c r="E81" s="203"/>
-      <c r="F81" s="46" t="s">
+      <c r="E81" s="202"/>
+      <c r="F81" s="200" t="s">
         <v>221</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -9611,7 +9694,7 @@
       <c r="AC81" s="148">
         <v>1</v>
       </c>
-      <c r="AD81" s="168" t="str">
+      <c r="AD81" s="167" t="str">
         <f t="shared" si="6"/>
         <v>CB84</v>
       </c>
@@ -9636,8 +9719,8 @@
       <c r="D82" s="2">
         <v>72</v>
       </c>
-      <c r="E82" s="203"/>
-      <c r="F82" s="46" t="s">
+      <c r="E82" s="202"/>
+      <c r="F82" s="200" t="s">
         <v>222</v>
       </c>
       <c r="G82" s="10" t="s">
@@ -9696,7 +9779,7 @@
       <c r="AC82" s="148">
         <v>1</v>
       </c>
-      <c r="AD82" s="168" t="str">
+      <c r="AD82" s="167" t="str">
         <f t="shared" si="6"/>
         <v>F300</v>
       </c>
@@ -9721,7 +9804,7 @@
       <c r="D83" s="141">
         <v>73</v>
       </c>
-      <c r="F83" s="46" t="s">
+      <c r="F83" s="269" t="s">
         <v>227</v>
       </c>
       <c r="G83" s="10" t="s">
@@ -9780,7 +9863,7 @@
       <c r="AC83" s="148">
         <v>1</v>
       </c>
-      <c r="AD83" s="168" t="str">
+      <c r="AD83" s="167" t="str">
         <f t="shared" si="6"/>
         <v>CB94</v>
       </c>
@@ -9805,7 +9888,7 @@
       <c r="D84" s="141">
         <v>74</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="F84" s="269" t="s">
         <v>226</v>
       </c>
       <c r="G84" s="10" t="s">
@@ -9864,7 +9947,7 @@
       <c r="AC84" s="148">
         <v>1</v>
       </c>
-      <c r="AD84" s="168" t="str">
+      <c r="AD84" s="167" t="str">
         <f t="shared" si="6"/>
         <v>B280</v>
       </c>
@@ -9889,11 +9972,11 @@
       <c r="D85" s="141">
         <v>75</v>
       </c>
-      <c r="F85" s="46" t="s">
-        <v>255</v>
+      <c r="F85" s="270" t="s">
+        <v>263</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="H85" s="16"/>
       <c r="L85" s="9"/>
@@ -9901,19 +9984,19 @@
         <v>1</v>
       </c>
       <c r="N85" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" s="45">
         <v>1</v>
       </c>
       <c r="Q85" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" s="45">
         <v>0</v>
@@ -9922,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85" s="45">
         <v>1</v>
@@ -9934,10 +10017,10 @@
         <v>0</v>
       </c>
       <c r="Y85" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z85" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA85" s="46">
         <v>0</v>
@@ -9948,17 +10031,17 @@
       <c r="AC85" s="148">
         <v>1</v>
       </c>
-      <c r="AD85" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>C317</v>
+      <c r="AD85" s="167" t="str">
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC85,AB85,AA85,Z85)), BIN2HEX(_xlfn.CONCAT(Y85,X85,W85,V85)), BIN2HEX(_xlfn.CONCAT(U85,T85,S85,R85)), BIN2HEX(_xlfn.CONCAT(Q85,P85,O85,N85)))</f>
+        <v>DB8C</v>
       </c>
       <c r="AE85" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>C3</v>
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC85,AB85,AA85,Z85)), BIN2HEX(_xlfn.CONCAT(Y85,X85,W85,V85)))</f>
+        <v>DB</v>
       </c>
       <c r="AF85" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(U85,T85,S85,R85)),BIN2HEX(_xlfn.CONCAT(Q85,P85,O85,N85)))</f>
+        <v>8C</v>
       </c>
     </row>
     <row r="86" spans="2:32" x14ac:dyDescent="0.25">
@@ -9973,11 +10056,11 @@
       <c r="D86" s="141">
         <v>76</v>
       </c>
-      <c r="F86" s="46" t="s">
-        <v>266</v>
+      <c r="F86" s="270" t="s">
+        <v>281</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H86" s="16"/>
       <c r="L86" s="9"/>
@@ -9991,34 +10074,34 @@
         <v>0</v>
       </c>
       <c r="P86" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" s="45">
         <v>0</v>
       </c>
       <c r="S86" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" s="45">
         <v>0</v>
       </c>
       <c r="U86" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86" s="45">
         <v>1</v>
       </c>
       <c r="X86" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z86" s="45">
         <v>0</v>
@@ -10027,22 +10110,22 @@
         <v>0</v>
       </c>
       <c r="AB86" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="148">
-        <v>1</v>
-      </c>
-      <c r="AD86" s="168" t="str">
-        <f t="shared" si="6"/>
-        <v>C32C</v>
+        <v>0</v>
+      </c>
+      <c r="AD86" s="167" t="str">
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC86,AB86,AA86,Z86)), BIN2HEX(_xlfn.CONCAT(Y86,X86,W86,V86)), BIN2HEX(_xlfn.CONCAT(U86,T86,S86,R86)), BIN2HEX(_xlfn.CONCAT(Q86,P86,O86,N86)))</f>
+        <v>0E80</v>
       </c>
       <c r="AE86" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>C3</v>
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC86,AB86,AA86,Z86)), BIN2HEX(_xlfn.CONCAT(Y86,X86,W86,V86)))</f>
+        <v>0E</v>
       </c>
       <c r="AF86" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>2C</v>
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(U86,T86,S86,R86)),BIN2HEX(_xlfn.CONCAT(Q86,P86,O86,N86)))</f>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="2:32" x14ac:dyDescent="0.25">
@@ -10057,11 +10140,11 @@
       <c r="D87" s="141">
         <v>77</v>
       </c>
-      <c r="F87" s="46" t="s">
-        <v>268</v>
+      <c r="F87" s="270" t="s">
+        <v>255</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H87" s="16"/>
       <c r="L87" s="9"/>
@@ -10069,64 +10152,64 @@
         <v>1</v>
       </c>
       <c r="N87" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" s="45">
         <v>1</v>
       </c>
       <c r="Q87" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" s="45">
         <v>1</v>
       </c>
-      <c r="S87" s="45">
+      <c r="S87" s="46">
         <v>0</v>
       </c>
       <c r="T87" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" s="46">
         <v>1</v>
       </c>
       <c r="V87" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W87" s="45">
         <v>1</v>
       </c>
       <c r="X87" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="46">
         <v>1</v>
       </c>
       <c r="Z87" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA87" s="46">
         <v>0</v>
       </c>
       <c r="AB87" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87" s="148">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="168" t="str">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="167" t="str">
         <f t="shared" si="6"/>
-        <v>1E9C</v>
+        <v>CBD7</v>
       </c>
       <c r="AE87" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>1E</v>
+        <v>CB</v>
       </c>
       <c r="AF87" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>9C</v>
+        <v>D7</v>
       </c>
     </row>
     <row r="88" spans="2:32" x14ac:dyDescent="0.25">
@@ -10141,11 +10224,11 @@
       <c r="D88" s="141">
         <v>78</v>
       </c>
-      <c r="F88" s="46" t="s">
-        <v>270</v>
+      <c r="F88" s="271" t="s">
+        <v>267</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H88" s="16"/>
       <c r="L88" s="9"/>
@@ -10159,16 +10242,16 @@
         <v>0</v>
       </c>
       <c r="P88" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" s="45">
         <v>0</v>
@@ -10177,13 +10260,13 @@
         <v>1</v>
       </c>
       <c r="V88" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88" s="45">
         <v>1</v>
       </c>
       <c r="X88" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88" s="46">
         <v>1</v>
@@ -10198,19 +10281,19 @@
         <v>1</v>
       </c>
       <c r="AC88" s="148">
-        <v>1</v>
-      </c>
-      <c r="AD88" s="168" t="str">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="167" t="str">
         <f t="shared" si="6"/>
-        <v>CB80</v>
+        <v>4EBC</v>
       </c>
       <c r="AE88" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>CB</v>
+        <v>4E</v>
       </c>
       <c r="AF88" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>BC</v>
       </c>
     </row>
     <row r="89" spans="2:32" x14ac:dyDescent="0.25">
@@ -10225,11 +10308,11 @@
       <c r="D89" s="141">
         <v>79</v>
       </c>
-      <c r="F89" s="46" t="s">
-        <v>275</v>
+      <c r="F89" s="271" t="s">
+        <v>268</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H89" s="16"/>
       <c r="L89" s="9"/>
@@ -10252,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="S89" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" s="45">
         <v>0</v>
@@ -10279,22 +10362,22 @@
         <v>0</v>
       </c>
       <c r="AB89" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="148">
         <v>0</v>
       </c>
-      <c r="AD89" s="168" t="str">
+      <c r="AD89" s="167" t="str">
         <f t="shared" si="6"/>
-        <v>4E82</v>
+        <v>0EA2</v>
       </c>
       <c r="AE89" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>4E</v>
+        <v>0E</v>
       </c>
       <c r="AF89" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>82</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="90" spans="2:32" x14ac:dyDescent="0.25">
@@ -10309,11 +10392,11 @@
       <c r="D90" s="141">
         <v>80</v>
       </c>
-      <c r="F90" s="46" t="s">
-        <v>277</v>
+      <c r="F90" s="172" t="s">
+        <v>279</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H90" s="16"/>
       <c r="L90" s="9"/>
@@ -10345,13 +10428,13 @@
         <v>1</v>
       </c>
       <c r="V90" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W90" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X90" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y90" s="46">
         <v>1</v>
@@ -10363,18 +10446,18 @@
         <v>0</v>
       </c>
       <c r="AB90" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90" s="148">
-        <v>0</v>
-      </c>
-      <c r="AD90" s="168" t="str">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="167" t="str">
         <f t="shared" si="6"/>
-        <v>0E80</v>
+        <v>C980</v>
       </c>
       <c r="AE90" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>0E</v>
+        <v>C9</v>
       </c>
       <c r="AF90" s="2" t="str">
         <f t="shared" si="8"/>
@@ -10393,8 +10476,12 @@
       <c r="D91" s="141">
         <v>81</v>
       </c>
-      <c r="F91" s="46"/>
-      <c r="G91" s="10"/>
+      <c r="F91" s="271" t="s">
+        <v>283</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="H91" s="16"/>
       <c r="L91" s="9"/>
       <c r="M91" s="46">
@@ -10404,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" s="45">
         <v>0</v>
@@ -10413,26 +10500,52 @@
         <v>0</v>
       </c>
       <c r="R91" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" s="45">
         <v>0</v>
       </c>
-      <c r="U91" s="11"/>
-      <c r="Y91" s="11"/>
-      <c r="AA91" s="11"/>
-      <c r="AC91" s="135"/>
-      <c r="AD91" s="168" t="str">
+      <c r="T91" s="45">
+        <v>1</v>
+      </c>
+      <c r="U91" s="46">
+        <v>1</v>
+      </c>
+      <c r="V91" s="45">
+        <v>1</v>
+      </c>
+      <c r="W91" s="45">
+        <v>1</v>
+      </c>
+      <c r="X91" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="148">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="167" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>DBD2</v>
       </c>
       <c r="AE91" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>00</v>
+        <v>DB</v>
       </c>
       <c r="AF91" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>00</v>
+        <v>D2</v>
       </c>
     </row>
     <row r="92" spans="2:32" x14ac:dyDescent="0.25">
@@ -10447,8 +10560,12 @@
       <c r="D92" s="141">
         <v>82</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="10"/>
+      <c r="F92" s="271" t="s">
+        <v>284</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="H92" s="16"/>
       <c r="L92" s="9"/>
       <c r="M92" s="46">
@@ -10472,21 +10589,47 @@
       <c r="S92" s="45">
         <v>0</v>
       </c>
-      <c r="U92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="AA92" s="11"/>
-      <c r="AC92" s="135"/>
-      <c r="AD92" s="168" t="str">
+      <c r="T92" s="45">
+        <v>1</v>
+      </c>
+      <c r="U92" s="46">
+        <v>1</v>
+      </c>
+      <c r="V92" s="45">
+        <v>1</v>
+      </c>
+      <c r="W92" s="45">
+        <v>1</v>
+      </c>
+      <c r="X92" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="148">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="167" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>DBC0</v>
       </c>
       <c r="AE92" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>00</v>
+        <v>DB</v>
       </c>
       <c r="AF92" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>00</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="93" spans="2:32" x14ac:dyDescent="0.25">
@@ -10501,7 +10644,7 @@
       <c r="D93" s="141">
         <v>83</v>
       </c>
-      <c r="F93" s="46"/>
+      <c r="F93" s="268"/>
       <c r="G93" s="10"/>
       <c r="H93" s="16"/>
       <c r="L93" s="9"/>
@@ -10530,7 +10673,7 @@
       <c r="Y93" s="11"/>
       <c r="AA93" s="11"/>
       <c r="AC93" s="135"/>
-      <c r="AD93" s="168" t="str">
+      <c r="AD93" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -10584,7 +10727,7 @@
       <c r="Y94" s="11"/>
       <c r="AA94" s="11"/>
       <c r="AC94" s="135"/>
-      <c r="AD94" s="168" t="str">
+      <c r="AD94" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -10638,7 +10781,7 @@
       <c r="Y95" s="11"/>
       <c r="AA95" s="11"/>
       <c r="AC95" s="135"/>
-      <c r="AD95" s="168" t="str">
+      <c r="AD95" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -10692,7 +10835,7 @@
       <c r="Y96" s="11"/>
       <c r="AA96" s="11"/>
       <c r="AC96" s="135"/>
-      <c r="AD96" s="168" t="str">
+      <c r="AD96" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -10746,7 +10889,7 @@
       <c r="Y97" s="11"/>
       <c r="AA97" s="11"/>
       <c r="AC97" s="135"/>
-      <c r="AD97" s="168" t="str">
+      <c r="AD97" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -10800,7 +10943,7 @@
       <c r="Y98" s="11"/>
       <c r="AA98" s="11"/>
       <c r="AC98" s="135"/>
-      <c r="AD98" s="168" t="str">
+      <c r="AD98" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -10854,7 +10997,7 @@
       <c r="Y99" s="11"/>
       <c r="AA99" s="11"/>
       <c r="AC99" s="135"/>
-      <c r="AD99" s="168" t="str">
+      <c r="AD99" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -10908,7 +11051,7 @@
       <c r="Y100" s="11"/>
       <c r="AA100" s="11"/>
       <c r="AC100" s="135"/>
-      <c r="AD100" s="168" t="str">
+      <c r="AD100" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -10962,7 +11105,7 @@
       <c r="Y101" s="11"/>
       <c r="AA101" s="11"/>
       <c r="AC101" s="135"/>
-      <c r="AD101" s="168" t="str">
+      <c r="AD101" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11016,7 +11159,7 @@
       <c r="Y102" s="11"/>
       <c r="AA102" s="11"/>
       <c r="AC102" s="135"/>
-      <c r="AD102" s="168" t="str">
+      <c r="AD102" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11070,7 +11213,7 @@
       <c r="Y103" s="11"/>
       <c r="AA103" s="11"/>
       <c r="AC103" s="135"/>
-      <c r="AD103" s="168" t="str">
+      <c r="AD103" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11124,7 +11267,7 @@
       <c r="Y104" s="11"/>
       <c r="AA104" s="11"/>
       <c r="AC104" s="135"/>
-      <c r="AD104" s="168" t="str">
+      <c r="AD104" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11178,7 +11321,7 @@
       <c r="Y105" s="11"/>
       <c r="AA105" s="11"/>
       <c r="AC105" s="135"/>
-      <c r="AD105" s="168" t="str">
+      <c r="AD105" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11232,7 +11375,7 @@
       <c r="Y106" s="11"/>
       <c r="AA106" s="11"/>
       <c r="AC106" s="135"/>
-      <c r="AD106" s="168" t="str">
+      <c r="AD106" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11286,7 +11429,7 @@
       <c r="Y107" s="11"/>
       <c r="AA107" s="11"/>
       <c r="AC107" s="135"/>
-      <c r="AD107" s="168" t="str">
+      <c r="AD107" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11340,7 +11483,7 @@
       <c r="Y108" s="11"/>
       <c r="AA108" s="11"/>
       <c r="AC108" s="135"/>
-      <c r="AD108" s="168" t="str">
+      <c r="AD108" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11394,7 +11537,7 @@
       <c r="Y109" s="11"/>
       <c r="AA109" s="11"/>
       <c r="AC109" s="135"/>
-      <c r="AD109" s="168" t="str">
+      <c r="AD109" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11448,7 +11591,7 @@
       <c r="Y110" s="11"/>
       <c r="AA110" s="11"/>
       <c r="AC110" s="135"/>
-      <c r="AD110" s="168" t="str">
+      <c r="AD110" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11502,7 +11645,7 @@
       <c r="Y111" s="11"/>
       <c r="AA111" s="11"/>
       <c r="AC111" s="135"/>
-      <c r="AD111" s="168" t="str">
+      <c r="AD111" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11556,7 +11699,7 @@
       <c r="Y112" s="11"/>
       <c r="AA112" s="11"/>
       <c r="AC112" s="135"/>
-      <c r="AD112" s="168" t="str">
+      <c r="AD112" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11610,7 +11753,7 @@
       <c r="Y113" s="11"/>
       <c r="AA113" s="11"/>
       <c r="AC113" s="135"/>
-      <c r="AD113" s="168" t="str">
+      <c r="AD113" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11664,7 +11807,7 @@
       <c r="Y114" s="11"/>
       <c r="AA114" s="11"/>
       <c r="AC114" s="135"/>
-      <c r="AD114" s="168" t="str">
+      <c r="AD114" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11718,7 +11861,7 @@
       <c r="Y115" s="11"/>
       <c r="AA115" s="11"/>
       <c r="AC115" s="135"/>
-      <c r="AD115" s="168" t="str">
+      <c r="AD115" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11772,7 +11915,7 @@
       <c r="Y116" s="11"/>
       <c r="AA116" s="11"/>
       <c r="AC116" s="135"/>
-      <c r="AD116" s="168" t="str">
+      <c r="AD116" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11826,7 +11969,7 @@
       <c r="Y117" s="11"/>
       <c r="AA117" s="11"/>
       <c r="AC117" s="135"/>
-      <c r="AD117" s="168" t="str">
+      <c r="AD117" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11880,7 +12023,7 @@
       <c r="Y118" s="11"/>
       <c r="AA118" s="11"/>
       <c r="AC118" s="135"/>
-      <c r="AD118" s="168" t="str">
+      <c r="AD118" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11934,7 +12077,7 @@
       <c r="Y119" s="11"/>
       <c r="AA119" s="11"/>
       <c r="AC119" s="135"/>
-      <c r="AD119" s="168" t="str">
+      <c r="AD119" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -11988,7 +12131,7 @@
       <c r="Y120" s="11"/>
       <c r="AA120" s="11"/>
       <c r="AC120" s="135"/>
-      <c r="AD120" s="168" t="str">
+      <c r="AD120" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12042,7 +12185,7 @@
       <c r="Y121" s="11"/>
       <c r="AA121" s="11"/>
       <c r="AC121" s="135"/>
-      <c r="AD121" s="168" t="str">
+      <c r="AD121" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12096,7 +12239,7 @@
       <c r="Y122" s="11"/>
       <c r="AA122" s="11"/>
       <c r="AC122" s="135"/>
-      <c r="AD122" s="168" t="str">
+      <c r="AD122" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12150,7 +12293,7 @@
       <c r="Y123" s="11"/>
       <c r="AA123" s="11"/>
       <c r="AC123" s="135"/>
-      <c r="AD123" s="168" t="str">
+      <c r="AD123" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12204,7 +12347,7 @@
       <c r="Y124" s="11"/>
       <c r="AA124" s="11"/>
       <c r="AC124" s="135"/>
-      <c r="AD124" s="168" t="str">
+      <c r="AD124" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12258,7 +12401,7 @@
       <c r="Y125" s="11"/>
       <c r="AA125" s="11"/>
       <c r="AC125" s="135"/>
-      <c r="AD125" s="168" t="str">
+      <c r="AD125" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12312,7 +12455,7 @@
       <c r="Y126" s="11"/>
       <c r="AA126" s="11"/>
       <c r="AC126" s="135"/>
-      <c r="AD126" s="168" t="str">
+      <c r="AD126" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12366,7 +12509,7 @@
       <c r="Y127" s="11"/>
       <c r="AA127" s="11"/>
       <c r="AC127" s="135"/>
-      <c r="AD127" s="168" t="str">
+      <c r="AD127" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12420,7 +12563,7 @@
       <c r="Y128" s="11"/>
       <c r="AA128" s="11"/>
       <c r="AC128" s="135"/>
-      <c r="AD128" s="168" t="str">
+      <c r="AD128" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12474,7 +12617,7 @@
       <c r="Y129" s="11"/>
       <c r="AA129" s="11"/>
       <c r="AC129" s="135"/>
-      <c r="AD129" s="168" t="str">
+      <c r="AD129" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12528,7 +12671,7 @@
       <c r="Y130" s="11"/>
       <c r="AA130" s="11"/>
       <c r="AC130" s="135"/>
-      <c r="AD130" s="168" t="str">
+      <c r="AD130" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12582,7 +12725,7 @@
       <c r="Y131" s="11"/>
       <c r="AA131" s="11"/>
       <c r="AC131" s="135"/>
-      <c r="AD131" s="168" t="str">
+      <c r="AD131" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12607,11 +12750,11 @@
       <c r="D132" s="141">
         <v>122</v>
       </c>
-      <c r="F132" s="46" t="s">
-        <v>264</v>
+      <c r="F132" s="270" t="s">
+        <v>261</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H132" s="16"/>
       <c r="L132" s="9"/>
@@ -12628,16 +12771,16 @@
         <v>1</v>
       </c>
       <c r="Q132" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R132" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T132" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U132" s="46">
         <v>1</v>
@@ -12646,13 +12789,13 @@
         <v>0</v>
       </c>
       <c r="W132" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X132" s="45">
         <v>1</v>
       </c>
       <c r="Y132" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z132" s="45">
         <v>0</v>
@@ -12666,17 +12809,17 @@
       <c r="AC132" s="148">
         <v>1</v>
       </c>
-      <c r="AD132" s="168" t="str">
+      <c r="AD132" s="167" t="str">
         <f t="shared" si="6"/>
-        <v>CCCC</v>
+        <v>C6B4</v>
       </c>
       <c r="AE132" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>CC</v>
+        <v>C6</v>
       </c>
       <c r="AF132" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>CC</v>
+        <v>B4</v>
       </c>
     </row>
     <row r="133" spans="2:32" x14ac:dyDescent="0.25">
@@ -12720,7 +12863,7 @@
       <c r="Y133" s="11"/>
       <c r="AA133" s="11"/>
       <c r="AC133" s="135"/>
-      <c r="AD133" s="168" t="str">
+      <c r="AD133" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12774,7 +12917,7 @@
       <c r="Y134" s="11"/>
       <c r="AA134" s="11"/>
       <c r="AC134" s="135"/>
-      <c r="AD134" s="168" t="str">
+      <c r="AD134" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12828,7 +12971,7 @@
       <c r="Y135" s="11"/>
       <c r="AA135" s="11"/>
       <c r="AC135" s="135"/>
-      <c r="AD135" s="168" t="str">
+      <c r="AD135" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12882,7 +13025,7 @@
       <c r="Y136" s="11"/>
       <c r="AA136" s="11"/>
       <c r="AC136" s="135"/>
-      <c r="AD136" s="168" t="str">
+      <c r="AD136" s="167" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -12946,7 +13089,7 @@
       <c r="AA137" s="137"/>
       <c r="AB137" s="137"/>
       <c r="AC137" s="140"/>
-      <c r="AD137" s="169" t="str">
+      <c r="AD137" s="168" t="str">
         <f t="shared" si="6"/>
         <v>0000</v>
       </c>
@@ -13073,225 +13216,225 @@
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="211" t="s">
+      <c r="F5" s="210" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="241" t="s">
+      <c r="G5" s="239" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="210"/>
-      <c r="G6" s="242"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="240"/>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="210"/>
-      <c r="G7" s="242"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="240"/>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="210"/>
-      <c r="G8" s="242"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="240"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="210"/>
-      <c r="G9" s="242"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="240"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="210"/>
-      <c r="G10" s="242"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="240"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="210"/>
-      <c r="G11" s="242"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="240"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="210"/>
-      <c r="G12" s="242"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="240"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="210"/>
-      <c r="G13" s="242"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="240"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="210"/>
-      <c r="G14" s="242"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="240"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="210"/>
-      <c r="G15" s="242"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="240"/>
     </row>
     <row r="16" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="212" t="s">
+      <c r="F16" s="211" t="s">
         <v>242</v>
       </c>
-      <c r="G16" s="243"/>
+      <c r="G16" s="241"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="210" t="s">
+      <c r="F17" s="209" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="244" t="s">
+      <c r="G17" s="242" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="18" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="212" t="s">
+      <c r="F18" s="211" t="s">
         <v>243</v>
       </c>
-      <c r="G18" s="245"/>
+      <c r="G18" s="243"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="210" t="s">
+      <c r="F19" s="209" t="s">
         <v>244</v>
       </c>
-      <c r="G19" s="246" t="s">
+      <c r="G19" s="244" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="210"/>
-      <c r="G20" s="247"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="245"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="210"/>
-      <c r="G21" s="247"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="245"/>
     </row>
     <row r="22" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="212" t="s">
+      <c r="F22" s="211" t="s">
         <v>245</v>
       </c>
-      <c r="G22" s="248"/>
+      <c r="G22" s="246"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="210" t="s">
+      <c r="F23" s="209" t="s">
         <v>247</v>
       </c>
-      <c r="G23" s="249" t="s">
+      <c r="G23" s="247" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="210"/>
-      <c r="G24" s="250"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="248"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="210"/>
-      <c r="G25" s="250"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="248"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="210"/>
-      <c r="G26" s="250"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="248"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="210"/>
-      <c r="G27" s="250"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="248"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="210"/>
-      <c r="G28" s="250"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="248"/>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="210"/>
-      <c r="G29" s="250"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="248"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="210"/>
-      <c r="G30" s="250"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="248"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="210"/>
-      <c r="G31" s="250"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="248"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="210"/>
-      <c r="G32" s="250"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="248"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="210"/>
-      <c r="G33" s="250"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="248"/>
     </row>
     <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="211" t="s">
         <v>248</v>
       </c>
-      <c r="G34" s="251"/>
+      <c r="G34" s="249"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="210" t="s">
+      <c r="F35" s="209" t="s">
         <v>249</v>
       </c>
       <c r="G35" s="83"/>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="210"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="83"/>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="210"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="83"/>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="210"/>
+      <c r="F38" s="209"/>
       <c r="G38" s="83"/>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="210"/>
+      <c r="F39" s="209"/>
       <c r="G39" s="83"/>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="210"/>
+      <c r="F40" s="209"/>
       <c r="G40" s="83"/>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="210"/>
+      <c r="F41" s="209"/>
       <c r="G41" s="83"/>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="210"/>
+      <c r="F42" s="209"/>
       <c r="G42" s="83"/>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="210"/>
+      <c r="F43" s="209"/>
       <c r="G43" s="83"/>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="210"/>
+      <c r="F44" s="209"/>
       <c r="G44" s="83"/>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="210"/>
+      <c r="F45" s="209"/>
       <c r="G45" s="83"/>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="210"/>
+      <c r="F46" s="209"/>
       <c r="G46" s="83"/>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="210"/>
+      <c r="F47" s="209"/>
       <c r="G47" s="83"/>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="210"/>
+      <c r="F48" s="209"/>
       <c r="G48" s="83"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="210"/>
+      <c r="F49" s="209"/>
       <c r="G49" s="83"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="210"/>
+      <c r="F50" s="209"/>
       <c r="G50" s="83"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="210"/>
+      <c r="F51" s="209"/>
       <c r="G51" s="83"/>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52" s="210"/>
+      <c r="F52" s="209"/>
       <c r="G52" s="83"/>
     </row>
     <row r="53" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="212" t="s">
+      <c r="F53" s="211" t="s">
         <v>251</v>
       </c>
       <c r="G53" s="84"/>
@@ -13311,8 +13454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C3AD6-36FF-4B42-8E60-022378867E52}">
   <dimension ref="E4:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13327,7 +13470,7 @@
   <sheetData>
     <row r="4" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>94</v>
@@ -13360,7 +13503,7 @@
         <v>134</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>138</v>
@@ -13380,7 +13523,7 @@
     </row>
     <row r="5" spans="5:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E5" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
@@ -13410,7 +13553,7 @@
     </row>
     <row r="6" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E6" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -13440,7 +13583,7 @@
     </row>
     <row r="7" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E7" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
@@ -13470,7 +13613,7 @@
     </row>
     <row r="8" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E8" s="45" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
@@ -13502,7 +13645,7 @@
     </row>
     <row r="9" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E9" s="45" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
@@ -13679,31 +13822,31 @@
   <sheetData>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="256"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="262" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="263"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="263"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="264"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="261"/>
+      <c r="U3" s="261"/>
+      <c r="V3" s="261"/>
+      <c r="W3" s="261"/>
+      <c r="X3" s="262"/>
       <c r="Y3" s="81"/>
       <c r="Z3" s="56"/>
       <c r="AA3" s="56"/>
@@ -13711,20 +13854,20 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="252"/>
-      <c r="AG3" s="252"/>
-      <c r="AH3" s="252"/>
-      <c r="AI3" s="252"/>
+      <c r="AF3" s="250"/>
+      <c r="AG3" s="250"/>
+      <c r="AH3" s="250"/>
+      <c r="AI3" s="250"/>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="259"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="261"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="259"/>
       <c r="I4" s="57">
         <v>0</v>
       </c>
@@ -13773,7 +13916,7 @@
       <c r="X4" s="58">
         <v>15</v>
       </c>
-      <c r="Y4" s="268" t="s">
+      <c r="Y4" s="266" t="s">
         <v>115</v>
       </c>
       <c r="Z4" s="50"/>
@@ -13792,28 +13935,28 @@
       <c r="B5" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="265" t="s">
+      <c r="C5" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="253" t="s">
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="254"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="253" t="s">
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="251" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="254"/>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="255"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="252"/>
+      <c r="R5" s="253"/>
       <c r="S5" s="24" t="s">
         <v>101</v>
       </c>
@@ -13832,7 +13975,7 @@
       <c r="X5" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="269"/>
+      <c r="Y5" s="267"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -19550,14 +19693,14 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="260" t="s">
+      <c r="D18" s="258" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="260"/>
-      <c r="G18" s="260" t="s">
+      <c r="E18" s="258"/>
+      <c r="G18" s="258" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="260"/>
+      <c r="H18" s="258"/>
       <c r="Q18">
         <v>2</v>
       </c>
@@ -19860,16 +20003,16 @@
       <c r="O33" t="s">
         <v>194</v>
       </c>
-      <c r="U33" s="209" t="s">
+      <c r="U33" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="V33" s="209" t="s">
+      <c r="V33" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="W33" s="209" t="s">
+      <c r="W33" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="X33" s="209" t="s">
+      <c r="X33" s="208" t="s">
         <v>234</v>
       </c>
     </row>

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC7F85-F58F-4454-8F5A-4303F85DF876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6FAE5B-221E-44D4-98C9-3D8DEC82818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Unit" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="349">
   <si>
     <t>1=Read</t>
   </si>
@@ -210,33 +210,9 @@
     <t>JMPE</t>
   </si>
   <si>
-    <t>JMPNZ</t>
-  </si>
-  <si>
-    <t>JMPNC</t>
-  </si>
-  <si>
     <t>PC &lt;- ADR</t>
   </si>
   <si>
-    <t>PC &lt;- ADR if flag_Carry</t>
-  </si>
-  <si>
-    <t>PC &lt;- ADR if not flag_Carry</t>
-  </si>
-  <si>
-    <t>PC &lt;- ADR if flag_Zero</t>
-  </si>
-  <si>
-    <t>PC &lt;- ADR if not flag_Zero</t>
-  </si>
-  <si>
-    <t>PC &lt;- ADR if flag_Equal</t>
-  </si>
-  <si>
-    <t>PC &lt;- ADR if not flag_Equal</t>
-  </si>
-  <si>
     <t>NOP</t>
   </si>
   <si>
@@ -358,9 +334,6 @@
   </si>
   <si>
     <t>NI</t>
-  </si>
-  <si>
-    <t>JMPNE</t>
   </si>
   <si>
     <t>PC:</t>
@@ -1105,7 +1078,19 @@
     <t>G0:1</t>
   </si>
   <si>
-    <t>Count up if not jumped</t>
+    <t>PC++</t>
+  </si>
+  <si>
+    <t>PC &lt;- ++ADR if (not)flag_Carry</t>
+  </si>
+  <si>
+    <t>PC &lt;- ++ADR if (not) flag_Zero</t>
+  </si>
+  <si>
+    <t>PC &lt;- ++ADR if (not) flag_Equal</t>
+  </si>
+  <si>
+    <t>neg.</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1317,12 +1302,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2211,7 +2190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2773,7 +2752,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3054,23 +3032,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3443,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3472,50 +3465,50 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="243" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
-      <c r="L5" s="245"/>
+      <c r="C5" s="242" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="243"/>
+      <c r="L5" s="244"/>
       <c r="M5" s="126"/>
-      <c r="N5" s="257" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
-      <c r="U5" s="257"/>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="257"/>
-      <c r="Y5" s="257"/>
-      <c r="Z5" s="257"/>
-      <c r="AA5" s="257"/>
-      <c r="AB5" s="257"/>
-      <c r="AC5" s="258"/>
-      <c r="AD5" s="241"/>
+      <c r="N5" s="256" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="256"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="256"/>
+      <c r="R5" s="256"/>
+      <c r="S5" s="256"/>
+      <c r="T5" s="256"/>
+      <c r="U5" s="256"/>
+      <c r="V5" s="256"/>
+      <c r="W5" s="256"/>
+      <c r="X5" s="256"/>
+      <c r="Y5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="256"/>
+      <c r="AB5" s="256"/>
+      <c r="AC5" s="257"/>
+      <c r="AD5" s="240"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="246"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="247"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="247"/>
-      <c r="J6" s="247"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="248"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="247"/>
       <c r="M6" s="14"/>
       <c r="N6" s="4">
         <v>0</v>
@@ -3565,7 +3558,7 @@
       <c r="AC6" s="127">
         <v>15</v>
       </c>
-      <c r="AD6" s="242"/>
+      <c r="AD6" s="241"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -3573,32 +3566,32 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="249"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
       <c r="H7" s="12"/>
       <c r="I7" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="28"/>
       <c r="M7" s="124"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="259"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="259"/>
-      <c r="S7" s="259"/>
+      <c r="N7" s="258"/>
+      <c r="O7" s="258"/>
+      <c r="P7" s="258"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="258"/>
       <c r="T7" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>0</v>
@@ -3608,67 +3601,67 @@
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB7" s="260" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC7" s="261"/>
-      <c r="AD7" s="242"/>
+        <v>114</v>
+      </c>
+      <c r="AB7" s="259" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC7" s="260"/>
+      <c r="AD7" s="241"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C8" s="251" t="s">
-        <v>339</v>
-      </c>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="252"/>
+      <c r="C8" s="250" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
       <c r="H8"/>
-      <c r="I8" s="253" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="254"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="256" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="256"/>
-      <c r="O8" s="256"/>
-      <c r="P8" s="256"/>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="256"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="265" t="s">
-        <v>131</v>
-      </c>
-      <c r="U8" s="265"/>
-      <c r="V8" s="266" t="s">
-        <v>132</v>
-      </c>
-      <c r="W8" s="266"/>
-      <c r="X8" s="266"/>
-      <c r="Y8" s="266"/>
-      <c r="Z8" s="264" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" s="264"/>
-      <c r="AB8" s="262" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="242"/>
+      <c r="I8" s="252" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="253"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="255" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="255"/>
+      <c r="O8" s="255"/>
+      <c r="P8" s="255"/>
+      <c r="Q8" s="255"/>
+      <c r="R8" s="255"/>
+      <c r="S8" s="255"/>
+      <c r="T8" s="264" t="s">
+        <v>122</v>
+      </c>
+      <c r="U8" s="264"/>
+      <c r="V8" s="265" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="265"/>
+      <c r="X8" s="265"/>
+      <c r="Y8" s="265"/>
+      <c r="Z8" s="263" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="261" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC8" s="262"/>
+      <c r="AD8" s="241"/>
       <c r="AE8" s="121"/>
       <c r="AF8" s="121"/>
       <c r="AG8" s="121"/>
@@ -3676,16 +3669,16 @@
     </row>
     <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="151" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>2</v>
@@ -3694,28 +3687,28 @@
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="J9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>4</v>
@@ -3736,40 +3729,40 @@
         <v>9</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Z9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AB9" s="122" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AC9" s="129" t="s">
         <v>12</v>
       </c>
       <c r="AD9" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AE9" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="AF9" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -3780,7 +3773,7 @@
         <f>DEC2HEX(D10)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="235">
+      <c r="C10" s="234">
         <v>0</v>
       </c>
       <c r="D10" s="2">
@@ -3795,18 +3788,18 @@
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="240">
+        <v>67</v>
+      </c>
+      <c r="M10" s="239">
         <v>1</v>
       </c>
       <c r="N10" s="143">
@@ -3879,7 +3872,7 @@
         <f t="shared" ref="B11:B74" si="0">DEC2HEX(D11)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="235">
+      <c r="C11" s="234">
         <v>1</v>
       </c>
       <c r="D11" s="2">
@@ -3894,16 +3887,16 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M11" s="153">
         <v>1</v>
@@ -3978,7 +3971,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="235">
+      <c r="C12" s="234">
         <v>10</v>
       </c>
       <c r="D12" s="2">
@@ -3986,23 +3979,23 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="42" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M12" s="153">
         <v>1</v>
@@ -4077,7 +4070,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C13" s="235">
+      <c r="C13" s="234">
         <v>11</v>
       </c>
       <c r="D13" s="2">
@@ -4092,16 +4085,16 @@
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M13" s="153">
         <v>1</v>
@@ -4176,7 +4169,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C14" s="235">
+      <c r="C14" s="234">
         <v>100</v>
       </c>
       <c r="D14" s="2">
@@ -4191,16 +4184,16 @@
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M14" s="153">
         <v>1</v>
@@ -4275,7 +4268,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C15" s="235">
+      <c r="C15" s="234">
         <v>101</v>
       </c>
       <c r="D15" s="2">
@@ -4290,16 +4283,16 @@
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M15" s="153">
         <v>1</v>
@@ -4374,7 +4367,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C16" s="235">
+      <c r="C16" s="234">
         <v>110</v>
       </c>
       <c r="D16" s="2">
@@ -4389,16 +4382,16 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M16" s="153">
         <v>1</v>
@@ -4473,7 +4466,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C17" s="235">
+      <c r="C17" s="234">
         <v>111</v>
       </c>
       <c r="D17" s="2">
@@ -4488,16 +4481,16 @@
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M17" s="153">
         <v>1</v>
@@ -4572,7 +4565,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C18" s="235">
+      <c r="C18" s="234">
         <v>1000</v>
       </c>
       <c r="D18" s="2">
@@ -4587,16 +4580,16 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M18" s="153">
         <v>1</v>
@@ -4671,7 +4664,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C19" s="235">
+      <c r="C19" s="234">
         <v>1001</v>
       </c>
       <c r="D19" s="2">
@@ -4682,20 +4675,20 @@
         <v>30</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M19" s="153">
         <v>1</v>
@@ -4770,7 +4763,7 @@
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="C20" s="235">
+      <c r="C20" s="234">
         <v>1010</v>
       </c>
       <c r="D20" s="2">
@@ -4785,16 +4778,16 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M20" s="153">
         <v>1</v>
@@ -4869,7 +4862,7 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="C21" s="235">
+      <c r="C21" s="234">
         <v>1011</v>
       </c>
       <c r="D21" s="2">
@@ -4877,23 +4870,23 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="42" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H21" s="40"/>
       <c r="I21" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M21" s="153">
         <v>1</v>
@@ -4968,7 +4961,7 @@
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="C22" s="235">
+      <c r="C22" s="234">
         <v>1100</v>
       </c>
       <c r="D22" s="2">
@@ -4983,16 +4976,16 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M22" s="153">
         <v>1</v>
@@ -5067,7 +5060,7 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="C23" s="235">
+      <c r="C23" s="234">
         <v>1101</v>
       </c>
       <c r="D23" s="2">
@@ -5082,16 +5075,16 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M23" s="153">
         <v>1</v>
@@ -5166,7 +5159,7 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="C24" s="235">
+      <c r="C24" s="234">
         <v>1110</v>
       </c>
       <c r="D24" s="2">
@@ -5174,10 +5167,10 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="42" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H24" s="40"/>
       <c r="M24" s="153">
@@ -5253,7 +5246,7 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="C25" s="235">
+      <c r="C25" s="234">
         <v>1111</v>
       </c>
       <c r="D25" s="2">
@@ -5336,7 +5329,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C26" s="234">
+      <c r="C26" s="233">
         <v>10000</v>
       </c>
       <c r="D26" s="2">
@@ -5351,16 +5344,16 @@
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M26" s="153">
         <v>1</v>
@@ -5435,33 +5428,33 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C27" s="234">
+      <c r="C27" s="233">
         <v>10001</v>
       </c>
       <c r="D27" s="2">
         <v>17</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M27" s="153">
         <v>1</v>
@@ -5536,7 +5529,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C28" s="234">
+      <c r="C28" s="233">
         <v>10010</v>
       </c>
       <c r="D28" s="2">
@@ -5620,7 +5613,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C29" s="234">
+      <c r="C29" s="233">
         <v>10011</v>
       </c>
       <c r="D29" s="2">
@@ -5711,26 +5704,26 @@
         <v>20</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="20">
         <v>0</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M30" s="153">
         <v>1</v>
@@ -5780,7 +5773,7 @@
       <c r="AB30" s="167">
         <v>0</v>
       </c>
-      <c r="AC30" s="220">
+      <c r="AC30" s="219">
         <v>1</v>
       </c>
       <c r="AD30" s="156" t="str">
@@ -5813,7 +5806,7 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="33" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="16"/>
@@ -5906,16 +5899,16 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M32" s="153">
         <v>1</v>
@@ -5997,74 +5990,74 @@
         <v>23</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="218" t="s">
-        <v>190</v>
+      <c r="F33" s="217" t="s">
+        <v>181</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M33" s="153">
         <v>1</v>
       </c>
-      <c r="N33" s="221">
-        <v>0</v>
-      </c>
-      <c r="O33" s="221">
-        <v>0</v>
-      </c>
-      <c r="P33" s="221">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="221">
-        <v>0</v>
-      </c>
-      <c r="R33" s="221">
-        <v>0</v>
-      </c>
-      <c r="S33" s="222">
-        <v>0</v>
-      </c>
-      <c r="T33" s="223">
-        <v>1</v>
-      </c>
-      <c r="U33" s="218">
-        <v>1</v>
-      </c>
-      <c r="V33" s="223">
-        <v>0</v>
-      </c>
-      <c r="W33" s="223">
-        <v>0</v>
-      </c>
-      <c r="X33" s="223">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="218">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="223">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="218">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="223">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="224">
+      <c r="N33" s="220">
+        <v>0</v>
+      </c>
+      <c r="O33" s="220">
+        <v>0</v>
+      </c>
+      <c r="P33" s="220">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="220">
+        <v>0</v>
+      </c>
+      <c r="R33" s="220">
+        <v>0</v>
+      </c>
+      <c r="S33" s="221">
+        <v>0</v>
+      </c>
+      <c r="T33" s="222">
+        <v>1</v>
+      </c>
+      <c r="U33" s="217">
+        <v>1</v>
+      </c>
+      <c r="V33" s="222">
+        <v>0</v>
+      </c>
+      <c r="W33" s="222">
+        <v>0</v>
+      </c>
+      <c r="X33" s="222">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="217">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="222">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="217">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="222">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="223">
         <v>1</v>
       </c>
       <c r="AD33" s="156" t="str">
@@ -6096,74 +6089,74 @@
         <v>24</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="219" t="s">
-        <v>191</v>
+      <c r="F34" s="218" t="s">
+        <v>182</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>43</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M34" s="153">
         <v>1</v>
       </c>
-      <c r="N34" s="221">
-        <v>0</v>
-      </c>
-      <c r="O34" s="221">
-        <v>0</v>
-      </c>
-      <c r="P34" s="221">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="221">
-        <v>0</v>
-      </c>
-      <c r="R34" s="221">
-        <v>0</v>
-      </c>
-      <c r="S34" s="222">
-        <v>0</v>
-      </c>
-      <c r="T34" s="223">
-        <v>1</v>
-      </c>
-      <c r="U34" s="218">
-        <v>0</v>
-      </c>
-      <c r="V34" s="223">
-        <v>0</v>
-      </c>
-      <c r="W34" s="223">
-        <v>1</v>
-      </c>
-      <c r="X34" s="223">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="218">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="223">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="218">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="223">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="224">
+      <c r="N34" s="220">
+        <v>0</v>
+      </c>
+      <c r="O34" s="220">
+        <v>0</v>
+      </c>
+      <c r="P34" s="220">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="220">
+        <v>0</v>
+      </c>
+      <c r="R34" s="220">
+        <v>0</v>
+      </c>
+      <c r="S34" s="221">
+        <v>0</v>
+      </c>
+      <c r="T34" s="222">
+        <v>1</v>
+      </c>
+      <c r="U34" s="217">
+        <v>0</v>
+      </c>
+      <c r="V34" s="222">
+        <v>0</v>
+      </c>
+      <c r="W34" s="222">
+        <v>1</v>
+      </c>
+      <c r="X34" s="222">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="217">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="222">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="217">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="222">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="223">
         <v>0</v>
       </c>
       <c r="AD34" s="156" t="str">
@@ -6195,26 +6188,26 @@
         <v>25</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>44</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M35" s="153">
         <v>1</v>
@@ -6296,26 +6289,26 @@
         <v>26</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M36" s="153">
         <v>1</v>
@@ -6397,76 +6390,76 @@
         <v>27</v>
       </c>
       <c r="E37" s="177" t="s">
-        <v>306</v>
-      </c>
-      <c r="F37" s="201" t="s">
-        <v>288</v>
+        <v>297</v>
+      </c>
+      <c r="F37" s="200" t="s">
+        <v>279</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M37" s="153">
         <v>1</v>
       </c>
-      <c r="N37" s="225">
-        <v>1</v>
-      </c>
-      <c r="O37" s="225">
-        <v>0</v>
-      </c>
-      <c r="P37" s="225">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="225">
-        <v>1</v>
-      </c>
-      <c r="R37" s="225">
+      <c r="N37" s="224">
+        <v>1</v>
+      </c>
+      <c r="O37" s="224">
+        <v>0</v>
+      </c>
+      <c r="P37" s="224">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="224">
+        <v>1</v>
+      </c>
+      <c r="R37" s="224">
         <v>0</v>
       </c>
       <c r="S37" s="197">
         <v>1</v>
       </c>
-      <c r="T37" s="226">
-        <v>1</v>
-      </c>
-      <c r="U37" s="201">
-        <v>1</v>
-      </c>
-      <c r="V37" s="226">
-        <v>0</v>
-      </c>
-      <c r="W37" s="226">
-        <v>1</v>
-      </c>
-      <c r="X37" s="226">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="201">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="226">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="201">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="226">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="227">
+      <c r="T37" s="225">
+        <v>1</v>
+      </c>
+      <c r="U37" s="200">
+        <v>1</v>
+      </c>
+      <c r="V37" s="225">
+        <v>0</v>
+      </c>
+      <c r="W37" s="225">
+        <v>1</v>
+      </c>
+      <c r="X37" s="225">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="200">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="225">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="200">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="225">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="226">
         <v>1</v>
       </c>
       <c r="AD37" s="156" t="str">
@@ -6499,76 +6492,76 @@
         <v>28</v>
       </c>
       <c r="E38" s="177" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F38" s="197" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="179" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M38" s="153">
         <v>1</v>
       </c>
-      <c r="N38" s="225">
-        <v>1</v>
-      </c>
-      <c r="O38" s="225">
-        <v>0</v>
-      </c>
-      <c r="P38" s="225">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="225">
-        <v>1</v>
-      </c>
-      <c r="R38" s="225">
+      <c r="N38" s="224">
+        <v>1</v>
+      </c>
+      <c r="O38" s="224">
+        <v>0</v>
+      </c>
+      <c r="P38" s="224">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="224">
+        <v>1</v>
+      </c>
+      <c r="R38" s="224">
         <v>0</v>
       </c>
       <c r="S38" s="197">
         <v>1</v>
       </c>
-      <c r="T38" s="226">
-        <v>1</v>
-      </c>
-      <c r="U38" s="201">
-        <v>1</v>
-      </c>
-      <c r="V38" s="226">
-        <v>0</v>
-      </c>
-      <c r="W38" s="226">
-        <v>1</v>
-      </c>
-      <c r="X38" s="226">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="201">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="226">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="201">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="226">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="227">
+      <c r="T38" s="225">
+        <v>1</v>
+      </c>
+      <c r="U38" s="200">
+        <v>1</v>
+      </c>
+      <c r="V38" s="225">
+        <v>0</v>
+      </c>
+      <c r="W38" s="225">
+        <v>1</v>
+      </c>
+      <c r="X38" s="225">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="200">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="225">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="200">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="225">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="226">
         <v>1</v>
       </c>
       <c r="AD38" s="156" t="str">
@@ -6601,26 +6594,26 @@
         <v>29</v>
       </c>
       <c r="E39" s="177" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M39" s="153">
         <v>1</v>
@@ -6643,34 +6636,34 @@
       <c r="S39" s="31">
         <v>1</v>
       </c>
-      <c r="T39" s="228">
+      <c r="T39" s="227">
         <v>1</v>
       </c>
       <c r="U39" s="32">
         <v>1</v>
       </c>
-      <c r="V39" s="228">
-        <v>0</v>
-      </c>
-      <c r="W39" s="228">
-        <v>1</v>
-      </c>
-      <c r="X39" s="228">
+      <c r="V39" s="227">
+        <v>0</v>
+      </c>
+      <c r="W39" s="227">
+        <v>1</v>
+      </c>
+      <c r="X39" s="227">
         <v>0</v>
       </c>
       <c r="Y39" s="32">
         <v>1</v>
       </c>
-      <c r="Z39" s="228">
+      <c r="Z39" s="227">
         <v>0</v>
       </c>
       <c r="AA39" s="32">
         <v>0</v>
       </c>
-      <c r="AB39" s="228">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="229">
+      <c r="AB39" s="227">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="228">
         <v>1</v>
       </c>
       <c r="AD39" s="156" t="str">
@@ -6703,26 +6696,26 @@
         <v>30</v>
       </c>
       <c r="E40" s="177" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="179" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M40" s="153">
         <v>1</v>
@@ -6745,34 +6738,34 @@
       <c r="S40" s="31">
         <v>1</v>
       </c>
-      <c r="T40" s="228">
+      <c r="T40" s="227">
         <v>1</v>
       </c>
       <c r="U40" s="32">
         <v>1</v>
       </c>
-      <c r="V40" s="228">
-        <v>0</v>
-      </c>
-      <c r="W40" s="228">
-        <v>1</v>
-      </c>
-      <c r="X40" s="228">
+      <c r="V40" s="227">
+        <v>0</v>
+      </c>
+      <c r="W40" s="227">
+        <v>1</v>
+      </c>
+      <c r="X40" s="227">
         <v>0</v>
       </c>
       <c r="Y40" s="32">
         <v>1</v>
       </c>
-      <c r="Z40" s="228">
+      <c r="Z40" s="227">
         <v>0</v>
       </c>
       <c r="AA40" s="32">
         <v>0</v>
       </c>
-      <c r="AB40" s="228">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="229">
+      <c r="AB40" s="227">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="228">
         <v>1</v>
       </c>
       <c r="AD40" s="156" t="str">
@@ -6806,23 +6799,23 @@
       </c>
       <c r="E41" s="177"/>
       <c r="F41" s="36" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M41" s="153">
         <v>1</v>
@@ -6906,23 +6899,23 @@
       </c>
       <c r="E42" s="177"/>
       <c r="F42" s="34" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>47</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M42" s="153">
         <v>1</v>
@@ -7002,26 +6995,26 @@
         <v>33</v>
       </c>
       <c r="E43" s="177" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F43" s="175" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L43" s="44" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M43" s="153">
         <v>1</v>
@@ -7101,26 +7094,26 @@
         <v>34</v>
       </c>
       <c r="E44" s="177" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F44" s="175" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H44" s="40"/>
       <c r="I44" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L44" s="44" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M44" s="153">
         <v>1</v>
@@ -7200,26 +7193,26 @@
         <v>35</v>
       </c>
       <c r="E45" s="177" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H45" s="40"/>
       <c r="I45" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M45" s="153">
         <v>1</v>
@@ -7299,26 +7292,26 @@
         <v>36</v>
       </c>
       <c r="E46" s="177" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M46" s="153">
         <v>1</v>
@@ -7398,76 +7391,76 @@
         <v>37</v>
       </c>
       <c r="E47" s="177" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F47" s="188" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M47" s="153">
         <v>1</v>
       </c>
-      <c r="N47" s="230">
-        <v>1</v>
-      </c>
-      <c r="O47" s="230">
-        <v>0</v>
-      </c>
-      <c r="P47" s="230">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="230">
-        <v>0</v>
-      </c>
-      <c r="R47" s="230">
+      <c r="N47" s="229">
+        <v>1</v>
+      </c>
+      <c r="O47" s="229">
+        <v>0</v>
+      </c>
+      <c r="P47" s="229">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="229">
+        <v>0</v>
+      </c>
+      <c r="R47" s="229">
         <v>1</v>
       </c>
       <c r="S47" s="188">
         <v>1</v>
       </c>
-      <c r="T47" s="230">
+      <c r="T47" s="229">
         <v>1</v>
       </c>
       <c r="U47" s="188">
         <v>1</v>
       </c>
-      <c r="V47" s="230">
-        <v>0</v>
-      </c>
-      <c r="W47" s="230">
-        <v>1</v>
-      </c>
-      <c r="X47" s="230">
+      <c r="V47" s="229">
+        <v>0</v>
+      </c>
+      <c r="W47" s="229">
+        <v>1</v>
+      </c>
+      <c r="X47" s="229">
         <v>0</v>
       </c>
       <c r="Y47" s="188">
         <v>1</v>
       </c>
-      <c r="Z47" s="230">
+      <c r="Z47" s="229">
         <v>0</v>
       </c>
       <c r="AA47" s="188">
         <v>0</v>
       </c>
-      <c r="AB47" s="230">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="231">
+      <c r="AB47" s="229">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="230">
         <v>1</v>
       </c>
       <c r="AD47" s="156" t="str">
@@ -7497,76 +7490,76 @@
         <v>38</v>
       </c>
       <c r="E48" s="177" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F48" s="188" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H48" s="40"/>
       <c r="I48" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M48" s="153">
         <v>1</v>
       </c>
-      <c r="N48" s="230">
-        <v>1</v>
-      </c>
-      <c r="O48" s="230">
-        <v>1</v>
-      </c>
-      <c r="P48" s="230">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="230">
-        <v>0</v>
-      </c>
-      <c r="R48" s="230">
+      <c r="N48" s="229">
+        <v>1</v>
+      </c>
+      <c r="O48" s="229">
+        <v>1</v>
+      </c>
+      <c r="P48" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="229">
+        <v>0</v>
+      </c>
+      <c r="R48" s="229">
         <v>1</v>
       </c>
       <c r="S48" s="188">
         <v>1</v>
       </c>
-      <c r="T48" s="230">
+      <c r="T48" s="229">
         <v>1</v>
       </c>
       <c r="U48" s="188">
         <v>1</v>
       </c>
-      <c r="V48" s="230">
-        <v>0</v>
-      </c>
-      <c r="W48" s="230">
-        <v>1</v>
-      </c>
-      <c r="X48" s="230">
+      <c r="V48" s="229">
+        <v>0</v>
+      </c>
+      <c r="W48" s="229">
+        <v>1</v>
+      </c>
+      <c r="X48" s="229">
         <v>0</v>
       </c>
       <c r="Y48" s="188">
         <v>1</v>
       </c>
-      <c r="Z48" s="230">
+      <c r="Z48" s="229">
         <v>0</v>
       </c>
       <c r="AA48" s="188">
         <v>0</v>
       </c>
-      <c r="AB48" s="230">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="231">
+      <c r="AB48" s="229">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="230">
         <v>1</v>
       </c>
       <c r="AD48" s="156" t="str">
@@ -7596,26 +7589,26 @@
         <v>39</v>
       </c>
       <c r="E49" s="177" t="s">
-        <v>254</v>
-      </c>
-      <c r="F49" s="232" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" s="231" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M49" s="153">
         <v>1</v>
@@ -7635,13 +7628,13 @@
       <c r="R49" s="68">
         <v>1</v>
       </c>
-      <c r="S49" s="233">
+      <c r="S49" s="232">
         <v>0</v>
       </c>
       <c r="T49" s="68">
         <v>0</v>
       </c>
-      <c r="U49" s="233">
+      <c r="U49" s="232">
         <v>1</v>
       </c>
       <c r="V49" s="68">
@@ -7653,19 +7646,19 @@
       <c r="X49" s="68">
         <v>0</v>
       </c>
-      <c r="Y49" s="233">
+      <c r="Y49" s="232">
         <v>1</v>
       </c>
       <c r="Z49" s="68">
         <v>1</v>
       </c>
-      <c r="AA49" s="233">
+      <c r="AA49" s="232">
         <v>0</v>
       </c>
       <c r="AB49" s="68">
         <v>1</v>
       </c>
-      <c r="AC49" s="214">
+      <c r="AC49" s="213">
         <v>1</v>
       </c>
       <c r="AD49" s="156" t="str">
@@ -7682,7 +7675,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="199"/>
+      <c r="A50" s="182"/>
       <c r="B50" s="43" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7695,26 +7688,26 @@
         <v>40</v>
       </c>
       <c r="E50" s="177" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F50" s="38" t="s">
         <v>53</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>59</v>
+        <v>345</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="20" t="s">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="J50" s="20">
         <v>1</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M50" s="153">
         <v>1</v>
@@ -7781,7 +7774,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="199"/>
+      <c r="A51" s="182"/>
       <c r="B51" s="43" t="str">
         <f t="shared" ref="B51" si="18">DEC2HEX(D51)</f>
         <v>29</v>
@@ -7794,26 +7787,26 @@
         <v>41</v>
       </c>
       <c r="E51" s="177" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>57</v>
+        <v>154</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="H51" s="16"/>
-      <c r="I51" s="20">
-        <v>1</v>
+      <c r="I51" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="J51" s="20">
         <v>1</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M51" s="153">
         <v>1</v>
@@ -7864,15 +7857,15 @@
         <v>0</v>
       </c>
       <c r="AC51" s="173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="156" t="str">
         <f t="shared" si="14"/>
-        <v>9BA8</v>
+        <v>1BA8</v>
       </c>
       <c r="AE51" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>9B</v>
+        <v>1B</v>
       </c>
       <c r="AF51" s="2" t="str">
         <f t="shared" si="16"/>
@@ -7880,7 +7873,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="199"/>
+      <c r="A52" s="182"/>
       <c r="B52" s="43" t="str">
         <f>DEC2HEX(D52)</f>
         <v>2A</v>
@@ -7893,26 +7886,26 @@
         <v>42</v>
       </c>
       <c r="E52" s="177" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>61</v>
+        <v>347</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="20" t="s">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="J52" s="20">
         <v>1</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M52" s="153">
         <v>1</v>
@@ -7960,18 +7953,18 @@
         <v>0</v>
       </c>
       <c r="AB52" s="172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="173">
         <v>0</v>
       </c>
       <c r="AD52" s="156" t="str">
         <f t="shared" si="14"/>
-        <v>1BA8</v>
+        <v>5BA8</v>
       </c>
       <c r="AE52" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>1B</v>
+        <v>5B</v>
       </c>
       <c r="AF52" s="2" t="str">
         <f t="shared" si="16"/>
@@ -7979,7 +7972,7 @@
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="199"/>
+      <c r="A53" s="201"/>
       <c r="B53" s="43" t="str">
         <f>DEC2HEX(D53)</f>
         <v>2B</v>
@@ -7991,94 +7984,46 @@
       <c r="D53" s="2">
         <v>43</v>
       </c>
-      <c r="E53" s="177" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="20">
-        <v>1</v>
-      </c>
-      <c r="J53" s="20">
-        <v>1</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="M53" s="153">
-        <v>1</v>
-      </c>
-      <c r="N53" s="172">
-        <v>0</v>
-      </c>
-      <c r="O53" s="172">
-        <v>0</v>
-      </c>
-      <c r="P53" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="172">
-        <v>1</v>
-      </c>
-      <c r="R53" s="172">
-        <v>0</v>
-      </c>
-      <c r="S53" s="38">
-        <v>1</v>
-      </c>
-      <c r="T53" s="172">
-        <v>0</v>
-      </c>
-      <c r="U53" s="38">
-        <v>1</v>
-      </c>
-      <c r="V53" s="172">
-        <v>1</v>
-      </c>
-      <c r="W53" s="172">
-        <v>1</v>
-      </c>
-      <c r="X53" s="172">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="172">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="172">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="173">
-        <v>0</v>
-      </c>
+      <c r="E53" s="303"/>
+      <c r="F53" s="304"/>
+      <c r="G53" s="305"/>
+      <c r="H53" s="297"/>
+      <c r="I53" s="298"/>
+      <c r="J53" s="298"/>
+      <c r="K53" s="298"/>
+      <c r="L53" s="299"/>
+      <c r="M53" s="306"/>
+      <c r="N53" s="300"/>
+      <c r="O53" s="300"/>
+      <c r="P53" s="300"/>
+      <c r="Q53" s="300"/>
+      <c r="R53" s="300"/>
+      <c r="S53" s="295"/>
+      <c r="T53" s="300"/>
+      <c r="U53" s="295"/>
+      <c r="V53" s="300"/>
+      <c r="W53" s="300"/>
+      <c r="X53" s="300"/>
+      <c r="Y53" s="295"/>
+      <c r="Z53" s="300"/>
+      <c r="AA53" s="295"/>
+      <c r="AB53" s="300"/>
+      <c r="AC53" s="301"/>
       <c r="AD53" s="156" t="str">
         <f t="shared" si="14"/>
-        <v>1BA8</v>
+        <v>0000</v>
       </c>
       <c r="AE53" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>1B</v>
+        <v>00</v>
       </c>
       <c r="AF53" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>A8</v>
+        <v>00</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="199"/>
+      <c r="A54" s="201"/>
       <c r="B54" s="43" t="str">
         <f>DEC2HEX(D54)</f>
         <v>2C</v>
@@ -8090,94 +8035,46 @@
       <c r="D54" s="2">
         <v>44</v>
       </c>
-      <c r="E54" s="177" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J54" s="20">
-        <v>1</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="M54" s="153">
-        <v>1</v>
-      </c>
-      <c r="N54" s="172">
-        <v>0</v>
-      </c>
-      <c r="O54" s="172">
-        <v>0</v>
-      </c>
-      <c r="P54" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="172">
-        <v>1</v>
-      </c>
-      <c r="R54" s="172">
-        <v>0</v>
-      </c>
-      <c r="S54" s="38">
-        <v>1</v>
-      </c>
-      <c r="T54" s="172">
-        <v>0</v>
-      </c>
-      <c r="U54" s="38">
-        <v>1</v>
-      </c>
-      <c r="V54" s="172">
-        <v>1</v>
-      </c>
-      <c r="W54" s="172">
-        <v>1</v>
-      </c>
-      <c r="X54" s="172">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="172">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="172">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="173">
-        <v>0</v>
-      </c>
+      <c r="E54" s="303"/>
+      <c r="F54" s="304"/>
+      <c r="G54" s="305"/>
+      <c r="H54" s="297"/>
+      <c r="I54" s="298"/>
+      <c r="J54" s="298"/>
+      <c r="K54" s="298"/>
+      <c r="L54" s="299"/>
+      <c r="M54" s="306"/>
+      <c r="N54" s="300"/>
+      <c r="O54" s="300"/>
+      <c r="P54" s="300"/>
+      <c r="Q54" s="300"/>
+      <c r="R54" s="300"/>
+      <c r="S54" s="295"/>
+      <c r="T54" s="300"/>
+      <c r="U54" s="295"/>
+      <c r="V54" s="300"/>
+      <c r="W54" s="300"/>
+      <c r="X54" s="300"/>
+      <c r="Y54" s="295"/>
+      <c r="Z54" s="300"/>
+      <c r="AA54" s="295"/>
+      <c r="AB54" s="300"/>
+      <c r="AC54" s="301"/>
       <c r="AD54" s="156" t="str">
         <f t="shared" si="14"/>
-        <v>5BA8</v>
+        <v>0000</v>
       </c>
       <c r="AE54" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>5B</v>
+        <v>00</v>
       </c>
       <c r="AF54" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>A8</v>
+        <v>00</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="199"/>
+      <c r="A55" s="201"/>
       <c r="B55" s="43" t="str">
         <f>DEC2HEX(D55)</f>
         <v>2D</v>
@@ -8189,94 +8086,46 @@
       <c r="D55" s="2">
         <v>45</v>
       </c>
-      <c r="E55" s="177" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="20">
-        <v>1</v>
-      </c>
-      <c r="J55" s="20">
-        <v>1</v>
-      </c>
-      <c r="K55" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="M55" s="153">
-        <v>1</v>
-      </c>
-      <c r="N55" s="172">
-        <v>0</v>
-      </c>
-      <c r="O55" s="172">
-        <v>0</v>
-      </c>
-      <c r="P55" s="172">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="172">
-        <v>1</v>
-      </c>
-      <c r="R55" s="172">
-        <v>0</v>
-      </c>
-      <c r="S55" s="38">
-        <v>1</v>
-      </c>
-      <c r="T55" s="172">
-        <v>0</v>
-      </c>
-      <c r="U55" s="38">
-        <v>1</v>
-      </c>
-      <c r="V55" s="172">
-        <v>1</v>
-      </c>
-      <c r="W55" s="172">
-        <v>1</v>
-      </c>
-      <c r="X55" s="172">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="172">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="172">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="173">
-        <v>0</v>
-      </c>
+      <c r="E55" s="303"/>
+      <c r="F55" s="295"/>
+      <c r="G55" s="305"/>
+      <c r="H55" s="297"/>
+      <c r="I55" s="298"/>
+      <c r="J55" s="298"/>
+      <c r="K55" s="298"/>
+      <c r="L55" s="299"/>
+      <c r="M55" s="306"/>
+      <c r="N55" s="300"/>
+      <c r="O55" s="300"/>
+      <c r="P55" s="300"/>
+      <c r="Q55" s="300"/>
+      <c r="R55" s="300"/>
+      <c r="S55" s="295"/>
+      <c r="T55" s="300"/>
+      <c r="U55" s="295"/>
+      <c r="V55" s="300"/>
+      <c r="W55" s="300"/>
+      <c r="X55" s="300"/>
+      <c r="Y55" s="295"/>
+      <c r="Z55" s="300"/>
+      <c r="AA55" s="295"/>
+      <c r="AB55" s="300"/>
+      <c r="AC55" s="301"/>
       <c r="AD55" s="156" t="str">
         <f t="shared" si="14"/>
-        <v>5BA8</v>
+        <v>0000</v>
       </c>
       <c r="AE55" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>5B</v>
+        <v>00</v>
       </c>
       <c r="AF55" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>A8</v>
+        <v>00</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="202"/>
+      <c r="A56" s="201"/>
       <c r="B56" s="43" t="str">
         <f>DEC2HEX(D56)</f>
         <v>2E</v>
@@ -8353,7 +8202,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="202"/>
+      <c r="A57" s="201"/>
       <c r="B57" s="43" t="str">
         <f t="shared" ref="B57:B58" si="24">DEC2HEX(D57)</f>
         <v>2F</v>
@@ -8430,7 +8279,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="202"/>
+      <c r="A58" s="201"/>
       <c r="B58" s="43" t="str">
         <f t="shared" si="24"/>
         <v>30</v>
@@ -8507,7 +8356,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="202"/>
+      <c r="A59" s="201"/>
       <c r="B59" s="43" t="str">
         <f t="shared" ref="B59:B67" si="25">DEC2HEX(D59)</f>
         <v>31</v>
@@ -8589,7 +8438,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="202"/>
+      <c r="A60" s="201"/>
       <c r="B60" s="43" t="str">
         <f t="shared" si="25"/>
         <v>32</v>
@@ -8671,7 +8520,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="202"/>
+      <c r="A61" s="201"/>
       <c r="B61" s="43" t="str">
         <f t="shared" si="25"/>
         <v>33</v>
@@ -8753,7 +8602,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="202"/>
+      <c r="A62" s="201"/>
       <c r="B62" s="43" t="str">
         <f t="shared" si="25"/>
         <v>34</v>
@@ -8835,7 +8684,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="202"/>
+      <c r="A63" s="201"/>
       <c r="B63" s="43" t="str">
         <f t="shared" si="25"/>
         <v>35</v>
@@ -8912,7 +8761,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="202"/>
+      <c r="A64" s="201"/>
       <c r="B64" s="43" t="str">
         <f t="shared" si="25"/>
         <v>36</v>
@@ -8989,7 +8838,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="202"/>
+      <c r="A65" s="201"/>
       <c r="B65" s="43" t="str">
         <f t="shared" si="25"/>
         <v>37</v>
@@ -9071,7 +8920,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="202"/>
+      <c r="A66" s="201"/>
       <c r="B66" s="43" t="str">
         <f t="shared" si="25"/>
         <v>38</v>
@@ -9174,16 +9023,16 @@
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M67" s="153">
         <v>1</v>
@@ -9255,7 +9104,7 @@
         <f>DEC2HEX(D68)</f>
         <v>3A</v>
       </c>
-      <c r="C68" s="130" t="str">
+      <c r="C68" s="302" t="str">
         <f t="shared" ref="C68:C73" si="39">DEC2BIN(D68)</f>
         <v>111010</v>
       </c>
@@ -9263,26 +9112,26 @@
         <v>58</v>
       </c>
       <c r="E68" s="177" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F68" s="189" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M68" s="153">
         <v>1</v>
@@ -9362,26 +9211,26 @@
         <v>59</v>
       </c>
       <c r="E69" s="177" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F69" s="189" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M69" s="153">
         <v>1</v>
@@ -9462,23 +9311,23 @@
       </c>
       <c r="E70" s="177"/>
       <c r="F70" s="160" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M70" s="153">
         <v>1</v>
@@ -9558,26 +9407,26 @@
         <v>61</v>
       </c>
       <c r="E71" s="177" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F71" s="160" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M71" s="153">
         <v>1</v>
@@ -9658,23 +9507,23 @@
       </c>
       <c r="E72" s="177"/>
       <c r="F72" s="39" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M72" s="153">
         <v>1</v>
@@ -9755,23 +9604,23 @@
       </c>
       <c r="E73" s="178"/>
       <c r="F73" s="180" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G73" s="149" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H73" s="150"/>
       <c r="I73" s="119" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J73" s="119" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K73" s="119" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L73" s="120" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M73" s="154">
         <v>0</v>
@@ -9852,10 +9701,10 @@
       </c>
       <c r="E74" s="177"/>
       <c r="F74" s="123" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H74" s="16"/>
       <c r="L74" s="9"/>
@@ -9863,22 +9712,22 @@
         <v>0</v>
       </c>
       <c r="N74" s="141" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O74" s="141" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P74" s="141" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Q74" s="141" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="R74" s="141" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="S74" s="142" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="T74" s="43">
         <v>0</v>
@@ -9937,10 +9786,10 @@
       </c>
       <c r="E75" s="177"/>
       <c r="F75" s="44" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H75" s="16"/>
       <c r="L75" s="9"/>
@@ -10022,10 +9871,10 @@
       </c>
       <c r="E76" s="177"/>
       <c r="F76" s="44" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H76" s="40"/>
       <c r="L76" s="11"/>
@@ -10107,10 +9956,10 @@
       </c>
       <c r="E77" s="177"/>
       <c r="F77" s="44" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H77" s="16"/>
       <c r="L77" s="9"/>
@@ -10191,13 +10040,13 @@
         <v>68</v>
       </c>
       <c r="E78" s="177" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F78" s="44" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H78" s="16"/>
       <c r="L78" s="9"/>
@@ -10249,7 +10098,7 @@
       <c r="AB78" s="2">
         <v>1</v>
       </c>
-      <c r="AC78" s="200">
+      <c r="AC78" s="199">
         <v>1</v>
       </c>
       <c r="AD78" s="156" t="str">
@@ -10279,10 +10128,10 @@
       </c>
       <c r="E79" s="177"/>
       <c r="F79" s="38" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H79" s="16"/>
       <c r="L79" s="9"/>
@@ -10364,7 +10213,7 @@
       </c>
       <c r="E80" s="177"/>
       <c r="F80" s="44" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="16"/>
@@ -10447,10 +10296,10 @@
       </c>
       <c r="E81" s="177"/>
       <c r="F81" s="175" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H81" s="16"/>
       <c r="L81" s="9"/>
@@ -10532,10 +10381,10 @@
       </c>
       <c r="E82" s="177"/>
       <c r="F82" s="175" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H82" s="16"/>
       <c r="L82" s="9"/>
@@ -10616,10 +10465,10 @@
         <v>73</v>
       </c>
       <c r="F83" s="188" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H83" s="16"/>
       <c r="L83" s="9"/>
@@ -10700,10 +10549,10 @@
         <v>74</v>
       </c>
       <c r="F84" s="188" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H84" s="16"/>
       <c r="L84" s="9"/>
@@ -10784,10 +10633,10 @@
         <v>75</v>
       </c>
       <c r="F85" s="189" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="H85" s="16"/>
       <c r="L85" s="9"/>
@@ -10868,10 +10717,10 @@
         <v>76</v>
       </c>
       <c r="F86" s="189" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H86" s="16"/>
       <c r="L86" s="9"/>
@@ -10952,10 +10801,10 @@
         <v>77</v>
       </c>
       <c r="F87" s="189" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H87" s="16"/>
       <c r="L87" s="9"/>
@@ -11036,10 +10885,10 @@
         <v>78</v>
       </c>
       <c r="F88" s="190" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H88" s="16"/>
       <c r="L88" s="9"/>
@@ -11120,10 +10969,10 @@
         <v>79</v>
       </c>
       <c r="F89" s="190" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H89" s="16"/>
       <c r="L89" s="9"/>
@@ -11204,10 +11053,10 @@
         <v>80</v>
       </c>
       <c r="F90" s="160" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H90" s="16"/>
       <c r="L90" s="9"/>
@@ -11288,10 +11137,10 @@
         <v>81</v>
       </c>
       <c r="F91" s="190" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H91" s="16"/>
       <c r="L91" s="9"/>
@@ -11372,10 +11221,10 @@
         <v>82</v>
       </c>
       <c r="F92" s="190" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H92" s="16"/>
       <c r="L92" s="9"/>
@@ -11456,10 +11305,10 @@
         <v>83</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H93" s="16"/>
       <c r="L93" s="9"/>
@@ -11540,10 +11389,10 @@
         <v>84</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H94" s="16"/>
       <c r="L94" s="9"/>
@@ -11624,10 +11473,10 @@
         <v>85</v>
       </c>
       <c r="F95" s="197" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H95" s="16"/>
       <c r="L95" s="9"/>
@@ -11708,10 +11557,10 @@
         <v>86</v>
       </c>
       <c r="F96" s="197" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H96" s="16"/>
       <c r="L96" s="9"/>
@@ -11792,10 +11641,10 @@
         <v>87</v>
       </c>
       <c r="F97" s="197" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H97" s="16"/>
       <c r="L97" s="9"/>
@@ -11875,66 +11724,66 @@
       <c r="D98" s="2">
         <v>88</v>
       </c>
-      <c r="F98" s="296" t="s">
-        <v>352</v>
-      </c>
-      <c r="G98" s="297" t="s">
-        <v>353</v>
-      </c>
-      <c r="H98" s="298"/>
-      <c r="I98" s="299"/>
-      <c r="J98" s="299"/>
-      <c r="K98" s="299"/>
-      <c r="L98" s="300"/>
-      <c r="M98" s="296">
-        <v>1</v>
-      </c>
-      <c r="N98" s="301">
-        <v>0</v>
-      </c>
-      <c r="O98" s="301">
-        <v>0</v>
-      </c>
-      <c r="P98" s="301">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="301">
-        <v>0</v>
-      </c>
-      <c r="R98" s="301">
-        <v>0</v>
-      </c>
-      <c r="S98" s="296">
-        <v>0</v>
-      </c>
-      <c r="T98" s="301">
-        <v>1</v>
-      </c>
-      <c r="U98" s="296">
-        <v>1</v>
-      </c>
-      <c r="V98" s="301">
-        <v>1</v>
-      </c>
-      <c r="W98" s="301">
-        <v>1</v>
-      </c>
-      <c r="X98" s="301">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="296">
-        <v>1</v>
-      </c>
-      <c r="Z98" s="301">
-        <v>1</v>
-      </c>
-      <c r="AA98" s="296">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="301">
-        <v>1</v>
-      </c>
-      <c r="AC98" s="302">
+      <c r="F98" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G98" s="296" t="s">
+        <v>344</v>
+      </c>
+      <c r="H98" s="297"/>
+      <c r="I98" s="298"/>
+      <c r="J98" s="298"/>
+      <c r="K98" s="298"/>
+      <c r="L98" s="299"/>
+      <c r="M98" s="295">
+        <v>1</v>
+      </c>
+      <c r="N98" s="300">
+        <v>0</v>
+      </c>
+      <c r="O98" s="300">
+        <v>0</v>
+      </c>
+      <c r="P98" s="300">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="300">
+        <v>0</v>
+      </c>
+      <c r="R98" s="300">
+        <v>0</v>
+      </c>
+      <c r="S98" s="295">
+        <v>0</v>
+      </c>
+      <c r="T98" s="43">
+        <v>1</v>
+      </c>
+      <c r="U98" s="44">
+        <v>1</v>
+      </c>
+      <c r="V98" s="43">
+        <v>1</v>
+      </c>
+      <c r="W98" s="43">
+        <v>1</v>
+      </c>
+      <c r="X98" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="44">
+        <v>1</v>
+      </c>
+      <c r="Z98" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA98" s="44">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="140">
         <v>1</v>
       </c>
       <c r="AD98" s="156" t="str">
@@ -12063,10 +11912,10 @@
         <v>93</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H103" s="16"/>
       <c r="L103" s="9"/>
@@ -12147,7 +11996,7 @@
         <v>94</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>22</v>
@@ -12231,10 +12080,10 @@
         <v>95</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H105" s="16"/>
       <c r="L105" s="9"/>
@@ -12315,10 +12164,10 @@
         <v>96</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H106" s="16"/>
       <c r="L106" s="9"/>
@@ -12399,10 +12248,10 @@
         <v>97</v>
       </c>
       <c r="F107" s="36" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H107" s="16"/>
       <c r="L107" s="9"/>
@@ -12483,10 +12332,10 @@
         <v>98</v>
       </c>
       <c r="F108" s="36" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H108" s="16"/>
       <c r="L108" s="9"/>
@@ -12567,10 +12416,10 @@
         <v>99</v>
       </c>
       <c r="F109" s="175" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H109" s="16"/>
       <c r="L109" s="9"/>
@@ -12651,10 +12500,10 @@
         <v>100</v>
       </c>
       <c r="F110" s="175" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H110" s="16"/>
       <c r="L110" s="9"/>
@@ -12735,10 +12584,10 @@
         <v>101</v>
       </c>
       <c r="F111" s="197" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H111" s="16"/>
       <c r="L111" s="9"/>
@@ -12790,7 +12639,7 @@
       <c r="AB111" s="20">
         <v>0</v>
       </c>
-      <c r="AC111" s="216">
+      <c r="AC111" s="215">
         <v>0</v>
       </c>
       <c r="AD111" s="156" t="str">
@@ -12819,10 +12668,10 @@
         <v>102</v>
       </c>
       <c r="F112" s="197" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H112" s="16"/>
       <c r="L112" s="9"/>
@@ -12874,7 +12723,7 @@
       <c r="AB112" s="20">
         <v>1</v>
       </c>
-      <c r="AC112" s="216">
+      <c r="AC112" s="215">
         <v>1</v>
       </c>
       <c r="AD112" s="156" t="str">
@@ -12903,10 +12752,10 @@
         <v>103</v>
       </c>
       <c r="F113" s="175" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H113" s="16"/>
       <c r="L113" s="9"/>
@@ -12958,7 +12807,7 @@
       <c r="AB113" s="20">
         <v>1</v>
       </c>
-      <c r="AC113" s="216">
+      <c r="AC113" s="215">
         <v>1</v>
       </c>
       <c r="AD113" s="156" t="str">
@@ -12987,10 +12836,10 @@
         <v>104</v>
       </c>
       <c r="F114" s="175" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H114" s="16"/>
       <c r="L114" s="9"/>
@@ -13042,7 +12891,7 @@
       <c r="AB114" s="20">
         <v>1</v>
       </c>
-      <c r="AC114" s="216">
+      <c r="AC114" s="215">
         <v>1</v>
       </c>
       <c r="AD114" s="156" t="str">
@@ -13071,10 +12920,10 @@
         <v>105</v>
       </c>
       <c r="F115" s="36" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H115" s="16"/>
       <c r="L115" s="9"/>
@@ -13126,7 +12975,7 @@
       <c r="AB115" s="20">
         <v>0</v>
       </c>
-      <c r="AC115" s="216">
+      <c r="AC115" s="215">
         <v>0</v>
       </c>
       <c r="AD115" s="156" t="str">
@@ -13155,10 +13004,10 @@
         <v>106</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H116" s="16"/>
       <c r="L116" s="9"/>
@@ -13210,7 +13059,7 @@
       <c r="AB116" s="20">
         <v>1</v>
       </c>
-      <c r="AC116" s="216">
+      <c r="AC116" s="215">
         <v>1</v>
       </c>
       <c r="AD116" s="156" t="str">
@@ -13239,10 +13088,10 @@
         <v>107</v>
       </c>
       <c r="F117" s="188" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H117" s="16"/>
       <c r="L117" s="9"/>
@@ -13294,7 +13143,7 @@
       <c r="AB117" s="20">
         <v>1</v>
       </c>
-      <c r="AC117" s="216">
+      <c r="AC117" s="215">
         <v>1</v>
       </c>
       <c r="AD117" s="156" t="str">
@@ -13323,10 +13172,10 @@
         <v>108</v>
       </c>
       <c r="F118" s="188" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H118" s="16"/>
       <c r="L118" s="9"/>
@@ -13378,7 +13227,7 @@
       <c r="AB118" s="20">
         <v>1</v>
       </c>
-      <c r="AC118" s="216">
+      <c r="AC118" s="215">
         <v>1</v>
       </c>
       <c r="AD118" s="156" t="str">
@@ -13407,10 +13256,10 @@
         <v>109</v>
       </c>
       <c r="F119" s="36" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H119" s="16"/>
       <c r="L119" s="9"/>
@@ -13462,7 +13311,7 @@
       <c r="AB119" s="20">
         <v>0</v>
       </c>
-      <c r="AC119" s="216">
+      <c r="AC119" s="215">
         <v>0</v>
       </c>
       <c r="AD119" s="156" t="str">
@@ -13491,10 +13340,10 @@
         <v>110</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H120" s="16"/>
       <c r="L120" s="9"/>
@@ -13546,7 +13395,7 @@
       <c r="AB120" s="20">
         <v>1</v>
       </c>
-      <c r="AC120" s="216">
+      <c r="AC120" s="215">
         <v>0</v>
       </c>
       <c r="AD120" s="156" t="str">
@@ -13575,10 +13424,10 @@
         <v>111</v>
       </c>
       <c r="F121" s="197" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H121" s="16"/>
       <c r="L121" s="9"/>
@@ -13630,7 +13479,7 @@
       <c r="AB121" s="20">
         <v>1</v>
       </c>
-      <c r="AC121" s="216">
+      <c r="AC121" s="215">
         <v>1</v>
       </c>
       <c r="AD121" s="156" t="str">
@@ -13659,10 +13508,10 @@
         <v>112</v>
       </c>
       <c r="F122" s="197" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H122" s="16"/>
       <c r="L122" s="9"/>
@@ -13714,7 +13563,7 @@
       <c r="AB122" s="20">
         <v>1</v>
       </c>
-      <c r="AC122" s="216">
+      <c r="AC122" s="215">
         <v>0</v>
       </c>
       <c r="AD122" s="156" t="str">
@@ -13743,10 +13592,10 @@
         <v>113</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H123" s="16"/>
       <c r="L123" s="9"/>
@@ -13798,7 +13647,7 @@
       <c r="AB123" s="20">
         <v>0</v>
       </c>
-      <c r="AC123" s="216">
+      <c r="AC123" s="215">
         <v>0</v>
       </c>
       <c r="AD123" s="156" t="str">
@@ -13827,10 +13676,10 @@
         <v>114</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H124" s="16"/>
       <c r="L124" s="9"/>
@@ -13882,7 +13731,7 @@
       <c r="AB124" s="20">
         <v>0</v>
       </c>
-      <c r="AC124" s="216">
+      <c r="AC124" s="215">
         <v>1</v>
       </c>
       <c r="AD124" s="156" t="str">
@@ -13911,10 +13760,10 @@
         <v>115</v>
       </c>
       <c r="F125" s="36" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H125" s="16"/>
       <c r="L125" s="9"/>
@@ -13966,7 +13815,7 @@
       <c r="AB125" s="20">
         <v>1</v>
       </c>
-      <c r="AC125" s="216">
+      <c r="AC125" s="215">
         <v>1</v>
       </c>
       <c r="AD125" s="156" t="str">
@@ -13995,10 +13844,10 @@
         <v>116</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H126" s="16"/>
       <c r="L126" s="9"/>
@@ -14050,7 +13899,7 @@
       <c r="AB126" s="20">
         <v>0</v>
       </c>
-      <c r="AC126" s="216">
+      <c r="AC126" s="215">
         <v>1</v>
       </c>
       <c r="AD126" s="156" t="str">
@@ -14371,7 +14220,7 @@
         <f t="shared" si="40"/>
         <v>7A</v>
       </c>
-      <c r="C132" s="130" t="str">
+      <c r="C132" s="302" t="str">
         <f t="shared" si="51"/>
         <v>1111010</v>
       </c>
@@ -14379,10 +14228,10 @@
         <v>122</v>
       </c>
       <c r="F132" s="189" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H132" s="16"/>
       <c r="L132" s="9"/>
@@ -14515,7 +14364,7 @@
         <f t="shared" si="40"/>
         <v>7C</v>
       </c>
-      <c r="C134" s="235" t="str">
+      <c r="C134" s="234" t="str">
         <f t="shared" si="51"/>
         <v>1111100</v>
       </c>
@@ -14523,10 +14372,10 @@
         <v>124</v>
       </c>
       <c r="F134" s="44" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H134" s="16"/>
       <c r="L134" s="9"/>
@@ -14599,7 +14448,7 @@
         <f t="shared" si="40"/>
         <v>7D</v>
       </c>
-      <c r="C135" s="235" t="str">
+      <c r="C135" s="234" t="str">
         <f t="shared" si="51"/>
         <v>1111101</v>
       </c>
@@ -14607,10 +14456,10 @@
         <v>125</v>
       </c>
       <c r="F135" s="44" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H135" s="16"/>
       <c r="L135" s="9"/>
@@ -14683,7 +14532,7 @@
         <f t="shared" si="40"/>
         <v>7E</v>
       </c>
-      <c r="C136" s="235" t="str">
+      <c r="C136" s="234" t="str">
         <f t="shared" si="51"/>
         <v>1111110</v>
       </c>
@@ -14743,7 +14592,7 @@
         <f t="shared" si="40"/>
         <v>7F</v>
       </c>
-      <c r="C137" s="236" t="str">
+      <c r="C137" s="235" t="str">
         <f t="shared" si="51"/>
         <v>1111111</v>
       </c>
@@ -14788,7 +14637,7 @@
       <c r="Z137" s="133"/>
       <c r="AA137" s="133"/>
       <c r="AB137" s="133"/>
-      <c r="AC137" s="239"/>
+      <c r="AC137" s="238"/>
       <c r="AD137" s="157" t="str">
         <f t="shared" si="41"/>
         <v>0000</v>
@@ -14824,14 +14673,14 @@
       <c r="AC141" s="11"/>
     </row>
     <row r="142" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C142" s="237" t="s">
-        <v>340</v>
+      <c r="C142" s="236" t="s">
+        <v>331</v>
       </c>
       <c r="AC142" s="11"/>
     </row>
     <row r="143" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C143" s="238" t="s">
-        <v>341</v>
+      <c r="C143" s="237" t="s">
+        <v>332</v>
       </c>
       <c r="AC143" s="11"/>
     </row>
@@ -14915,159 +14764,159 @@
   <sheetData>
     <row r="4" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" s="43" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F5" s="185" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="267" t="s">
-        <v>220</v>
+        <v>209</v>
+      </c>
+      <c r="G5" s="266" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="184"/>
-      <c r="G6" s="268"/>
+      <c r="G6" s="267"/>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="184"/>
-      <c r="G7" s="268"/>
+      <c r="G7" s="267"/>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="184"/>
-      <c r="G8" s="268"/>
+      <c r="G8" s="267"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="184"/>
-      <c r="G9" s="268"/>
+      <c r="G9" s="267"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="184"/>
-      <c r="G10" s="268"/>
+      <c r="G10" s="267"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F11" s="184"/>
-      <c r="G11" s="268"/>
+      <c r="G11" s="267"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="184"/>
-      <c r="G12" s="268"/>
+      <c r="G12" s="267"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="184"/>
-      <c r="G13" s="268"/>
+      <c r="G13" s="267"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" s="184"/>
-      <c r="G14" s="268"/>
+      <c r="G14" s="267"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F15" s="184"/>
-      <c r="G15" s="268"/>
+      <c r="G15" s="267"/>
     </row>
     <row r="16" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="186" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="269"/>
+        <v>213</v>
+      </c>
+      <c r="G16" s="268"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="184" t="s">
-        <v>219</v>
-      </c>
-      <c r="G17" s="270" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="G17" s="269" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="186" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="271"/>
+        <v>214</v>
+      </c>
+      <c r="G18" s="270"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="184" t="s">
-        <v>224</v>
-      </c>
-      <c r="G19" s="272" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="G19" s="271" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="184"/>
-      <c r="G20" s="273"/>
+      <c r="G20" s="272"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="184"/>
-      <c r="G21" s="273"/>
+      <c r="G21" s="272"/>
     </row>
     <row r="22" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="186" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="274"/>
+        <v>216</v>
+      </c>
+      <c r="G22" s="273"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="184" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="275" t="s">
-        <v>230</v>
+        <v>218</v>
+      </c>
+      <c r="G23" s="274" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="184"/>
-      <c r="G24" s="276"/>
+      <c r="G24" s="275"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="184"/>
-      <c r="G25" s="276"/>
+      <c r="G25" s="275"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="184"/>
-      <c r="G26" s="276"/>
+      <c r="G26" s="275"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="184"/>
-      <c r="G27" s="276"/>
+      <c r="G27" s="275"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="184"/>
-      <c r="G28" s="276"/>
+      <c r="G28" s="275"/>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="184"/>
-      <c r="G29" s="276"/>
+      <c r="G29" s="275"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="184"/>
-      <c r="G30" s="276"/>
+      <c r="G30" s="275"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="184"/>
-      <c r="G31" s="276"/>
+      <c r="G31" s="275"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="184"/>
-      <c r="G32" s="276"/>
+      <c r="G32" s="275"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="184"/>
-      <c r="G33" s="276"/>
+      <c r="G33" s="275"/>
     </row>
     <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="186" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="277"/>
+        <v>219</v>
+      </c>
+      <c r="G34" s="276"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="184" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G35" s="81"/>
     </row>
@@ -15141,7 +14990,7 @@
     </row>
     <row r="53" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F53" s="186" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G53" s="82"/>
     </row>
@@ -15176,112 +15025,112 @@
   <sheetData>
     <row r="3" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="209" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="205" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="203" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="203" t="s">
+      <c r="E4" s="208" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="204" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="202" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="203" t="s">
+      <c r="I4" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="204" t="s">
+      <c r="J4" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="205" t="s">
+      <c r="K4" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="205" t="s">
+      <c r="L4" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="206" t="s">
+      <c r="M4" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="206" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="206" t="s">
+      <c r="N4" s="205" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="206" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q4" s="206" t="s">
-        <v>236</v>
-      </c>
-      <c r="R4" s="206" t="s">
-        <v>124</v>
-      </c>
-      <c r="S4" s="206" t="s">
+      <c r="P4" s="205" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="205" t="s">
+        <v>227</v>
+      </c>
+      <c r="R4" s="205" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="206" t="s">
-        <v>177</v>
-      </c>
-      <c r="U4" s="207" t="s">
-        <v>125</v>
-      </c>
-      <c r="V4" s="208" t="s">
+      <c r="T4" s="205" t="s">
+        <v>168</v>
+      </c>
+      <c r="U4" s="206" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" s="207" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="5:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E5" s="61" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="O5" s="217">
+        <v>292</v>
+      </c>
+      <c r="O5" s="216">
         <v>0</v>
       </c>
       <c r="P5" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q5" s="217">
+        <v>292</v>
+      </c>
+      <c r="Q5" s="216">
         <v>0</v>
       </c>
       <c r="R5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S5" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="U5" s="217">
-        <v>0</v>
-      </c>
-      <c r="V5" s="212">
+        <v>292</v>
+      </c>
+      <c r="U5" s="216">
+        <v>0</v>
+      </c>
+      <c r="V5" s="211">
         <v>0</v>
       </c>
       <c r="W5" s="43"/>
@@ -15289,55 +15138,55 @@
     </row>
     <row r="6" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E6" s="61" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="O6" s="217">
+        <v>292</v>
+      </c>
+      <c r="O6" s="216">
         <v>0</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q6" s="217">
+        <v>292</v>
+      </c>
+      <c r="Q6" s="216">
         <v>0</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S6" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T6" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="U6" s="217">
-        <v>0</v>
-      </c>
-      <c r="V6" s="214">
+        <v>292</v>
+      </c>
+      <c r="U6" s="216">
+        <v>0</v>
+      </c>
+      <c r="V6" s="213">
         <v>1</v>
       </c>
       <c r="W6" s="43"/>
@@ -15345,55 +15194,55 @@
     </row>
     <row r="7" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E7" s="61" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="O7" s="217">
+        <v>292</v>
+      </c>
+      <c r="O7" s="216">
         <v>0</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q7" s="217">
+        <v>292</v>
+      </c>
+      <c r="Q7" s="216">
         <v>0</v>
       </c>
       <c r="R7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T7" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="U7" s="68">
         <v>1</v>
       </c>
-      <c r="V7" s="212">
+      <c r="V7" s="211">
         <v>0</v>
       </c>
       <c r="W7" s="43"/>
@@ -15401,55 +15250,55 @@
     </row>
     <row r="8" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E8" s="61" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="O8" s="217">
+        <v>292</v>
+      </c>
+      <c r="O8" s="216">
         <v>0</v>
       </c>
       <c r="P8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="68">
         <v>1</v>
       </c>
       <c r="R8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T8" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="U8" s="68">
         <v>1</v>
       </c>
-      <c r="V8" s="214">
+      <c r="V8" s="213">
         <v>1</v>
       </c>
       <c r="W8" s="43"/>
@@ -15457,55 +15306,55 @@
     </row>
     <row r="9" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E9" s="61" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="O9" s="217">
+        <v>292</v>
+      </c>
+      <c r="O9" s="216">
         <v>0</v>
       </c>
       <c r="P9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q9" s="68">
         <v>1</v>
       </c>
       <c r="R9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T9" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="U9" s="68">
         <v>1</v>
       </c>
-      <c r="V9" s="212">
+      <c r="V9" s="211">
         <v>0</v>
       </c>
       <c r="W9" s="43"/>
@@ -15517,51 +15366,51 @@
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="O10" s="217">
+        <v>292</v>
+      </c>
+      <c r="O10" s="216">
         <v>0</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="68">
         <v>1</v>
       </c>
       <c r="R10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S10" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="U10" s="217">
-        <v>0</v>
-      </c>
-      <c r="V10" s="212">
+        <v>292</v>
+      </c>
+      <c r="U10" s="216">
+        <v>0</v>
+      </c>
+      <c r="V10" s="211">
         <v>0</v>
       </c>
       <c r="W10" s="43"/>
@@ -15569,55 +15418,55 @@
     </row>
     <row r="11" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E11" s="61" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O11" s="68">
         <v>1</v>
       </c>
       <c r="P11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="68">
         <v>1</v>
       </c>
       <c r="R11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T11" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="U11" s="68">
         <v>1</v>
       </c>
-      <c r="V11" s="214">
+      <c r="V11" s="213">
         <v>1</v>
       </c>
       <c r="W11" s="43"/>
@@ -15625,55 +15474,55 @@
     </row>
     <row r="12" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E12" s="61" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O12" s="68">
         <v>1</v>
       </c>
       <c r="P12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="68">
         <v>1</v>
       </c>
       <c r="R12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S12" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="U12" s="217">
-        <v>0</v>
-      </c>
-      <c r="V12" s="214">
+        <v>292</v>
+      </c>
+      <c r="U12" s="216">
+        <v>0</v>
+      </c>
+      <c r="V12" s="213">
         <v>1</v>
       </c>
       <c r="W12" s="43"/>
@@ -15681,111 +15530,111 @@
     </row>
     <row r="13" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E13" s="61" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O13" s="68">
         <v>1</v>
       </c>
       <c r="P13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="68">
         <v>1</v>
       </c>
       <c r="R13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T13" s="43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="U13" s="68">
         <v>1</v>
       </c>
-      <c r="V13" s="212">
+      <c r="V13" s="211">
         <v>0</v>
       </c>
       <c r="W13" s="43"/>
       <c r="X13" s="43"/>
     </row>
     <row r="14" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="210" t="s">
-        <v>305</v>
+      <c r="E14" s="209" t="s">
+        <v>296</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N14" s="133" t="s">
-        <v>301</v>
-      </c>
-      <c r="O14" s="215">
+        <v>292</v>
+      </c>
+      <c r="O14" s="214">
         <v>1</v>
       </c>
       <c r="P14" s="133" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="215">
+        <v>292</v>
+      </c>
+      <c r="Q14" s="214">
         <v>1</v>
       </c>
       <c r="R14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="S14" s="133" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T14" s="133" t="s">
-        <v>301</v>
-      </c>
-      <c r="U14" s="211">
-        <v>0</v>
-      </c>
-      <c r="V14" s="213">
+        <v>292</v>
+      </c>
+      <c r="U14" s="210">
+        <v>0</v>
+      </c>
+      <c r="V14" s="212">
         <v>0</v>
       </c>
       <c r="W14" s="43"/>
@@ -16038,31 +15887,31 @@
   <sheetData>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="282"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="288" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
-      <c r="M3" s="289"/>
-      <c r="N3" s="289"/>
-      <c r="O3" s="289"/>
-      <c r="P3" s="289"/>
-      <c r="Q3" s="289"/>
-      <c r="R3" s="289"/>
-      <c r="S3" s="289"/>
-      <c r="T3" s="289"/>
-      <c r="U3" s="289"/>
-      <c r="V3" s="289"/>
-      <c r="W3" s="289"/>
-      <c r="X3" s="290"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="287" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="288"/>
+      <c r="K3" s="288"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="288"/>
+      <c r="N3" s="288"/>
+      <c r="O3" s="288"/>
+      <c r="P3" s="288"/>
+      <c r="Q3" s="288"/>
+      <c r="R3" s="288"/>
+      <c r="S3" s="288"/>
+      <c r="T3" s="288"/>
+      <c r="U3" s="288"/>
+      <c r="V3" s="288"/>
+      <c r="W3" s="288"/>
+      <c r="X3" s="289"/>
       <c r="Y3" s="79"/>
       <c r="Z3" s="54"/>
       <c r="AA3" s="54"/>
@@ -16070,20 +15919,20 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="278"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="278"/>
-      <c r="AI3" s="278"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="277"/>
+      <c r="AH3" s="277"/>
+      <c r="AI3" s="277"/>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="285"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="287"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285"/>
+      <c r="H4" s="286"/>
       <c r="I4" s="55">
         <v>0</v>
       </c>
@@ -16132,8 +15981,8 @@
       <c r="X4" s="56">
         <v>15</v>
       </c>
-      <c r="Y4" s="294" t="s">
-        <v>101</v>
+      <c r="Y4" s="293" t="s">
+        <v>93</v>
       </c>
       <c r="Z4" s="48"/>
       <c r="AA4" s="48"/>
@@ -16149,49 +15998,49 @@
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="291" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="279" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="279" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="281"/>
+        <v>75</v>
+      </c>
+      <c r="C5" s="290" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="278" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="279"/>
+      <c r="N5" s="280"/>
+      <c r="O5" s="278" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="279"/>
+      <c r="Q5" s="279"/>
+      <c r="R5" s="280"/>
       <c r="S5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="V5" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="U5" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="X5" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y5" s="295"/>
+      <c r="Y5" s="294"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -16378,7 +16227,7 @@
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="60" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C8" s="43">
         <v>0</v>
@@ -16500,7 +16349,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O9" s="84">
         <v>0</v>
@@ -17152,7 +17001,7 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B17" s="61" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C17" s="43">
         <v>0</v>
@@ -17238,7 +17087,7 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="115" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B18" s="75" t="s">
         <v>33</v>
@@ -17327,7 +17176,7 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="115" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>34</v>
@@ -17416,7 +17265,7 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B20" s="62" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C20" s="43">
         <v>0</v>
@@ -17502,7 +17351,7 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B21" s="67" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C21" s="68">
         <v>0</v>
@@ -19308,7 +19157,7 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AG42" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI42" s="46">
         <v>0</v>
@@ -19430,7 +19279,7 @@
       </c>
       <c r="Z43" s="3"/>
       <c r="AG43" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AI43" s="46">
         <v>0</v>
@@ -21415,34 +21264,34 @@
   <sheetData>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D5" s="117" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E5" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="117" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="117" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="118" t="s">
-        <v>118</v>
-      </c>
       <c r="J5" s="117" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K5" s="117"/>
       <c r="L5" s="117" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M5" s="118" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.25">
@@ -21453,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H6" s="43">
         <v>0</v>
@@ -21472,32 +21321,32 @@
         <v>0</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="S6" s="43" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U6" s="43" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="V6" s="117" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="W6" s="118" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="X6" s="117" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="Y6" s="117"/>
       <c r="Z6" s="117" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AA6" s="118" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.25">
@@ -21508,7 +21357,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H7" s="43">
         <v>0</v>
@@ -21527,7 +21376,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="43">
         <v>0</v>
@@ -21536,7 +21385,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="43" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="U7" s="43">
         <v>0</v>
@@ -21566,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H8" s="43">
         <v>0</v>
@@ -21585,7 +21434,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="116" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="43">
         <v>0</v>
@@ -21594,7 +21443,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="43" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="U8" s="43">
         <v>0</v>
@@ -21624,7 +21473,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H9" s="43">
         <v>0</v>
@@ -21649,7 +21498,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="43" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="U9" s="43">
         <v>0</v>
@@ -21695,7 +21544,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="43" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="U10" s="43">
         <v>0</v>
@@ -21766,10 +21615,10 @@
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="43" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U12" s="43">
         <v>0</v>
@@ -21803,10 +21652,10 @@
       </c>
       <c r="K13" s="43"/>
       <c r="L13" s="43" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U13" s="43">
         <v>0</v>
@@ -21851,7 +21700,7 @@
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="Q15" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="U15" s="43"/>
     </row>
@@ -21860,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="U16" s="43">
         <v>1</v>
@@ -21883,13 +21732,13 @@
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="U17" s="43">
         <v>1</v>
@@ -21911,19 +21760,19 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="286" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="286"/>
-      <c r="G18" s="286" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="286"/>
+      <c r="D18" s="285" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="285"/>
+      <c r="G18" s="285" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="285"/>
       <c r="Q18">
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="U18" s="43">
         <v>1</v>
@@ -21961,7 +21810,7 @@
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="U19" s="43">
         <v>1</v>
@@ -21984,16 +21833,16 @@
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="U20" s="43">
         <v>1</v>
@@ -22056,16 +21905,16 @@
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="43" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D23" s="117" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="118" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="U23" s="43">
         <v>1</v>
@@ -22097,16 +21946,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s">
         <v>15</v>
       </c>
       <c r="M24" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.25">
@@ -22120,7 +21969,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.25">
@@ -22134,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.25">
@@ -22148,10 +21997,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="3:27" x14ac:dyDescent="0.25">
@@ -22168,7 +22017,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="3:27" x14ac:dyDescent="0.25">
@@ -22182,7 +22031,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="3:27" x14ac:dyDescent="0.25">
@@ -22213,45 +22062,45 @@
         <v>15</v>
       </c>
       <c r="O32" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
       <c r="O33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="U33" s="183" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="V33" s="183" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="W33" s="183" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="X33" s="183" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="3:24" x14ac:dyDescent="0.25">
       <c r="O34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="O35" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.25">
       <c r="O36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="O37" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A361D-3CD4-482C-8E5D-B612E03C0301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7EFAE-20D7-4A64-88A8-3659D8C99AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Unit" sheetId="1" r:id="rId1"/>
@@ -1175,7 +1175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1323,6 +1323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,7 +2202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3051,6 +3057,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3423,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4153,7 +4165,7 @@
         <v>CB</v>
       </c>
       <c r="AF13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(U13,T13,S13,R13)),BIN2HEX(_xlfn.CONCAT(Q13,P13,O13,N13)))</f>
         <v>F0</v>
       </c>
       <c r="AG13" s="3"/>
@@ -8141,7 +8153,7 @@
         <v>44</v>
       </c>
       <c r="E54" s="156"/>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="298" t="s">
         <v>353</v>
       </c>
       <c r="G54" s="130" t="s">
@@ -8239,7 +8251,7 @@
       <c r="D55" s="130">
         <v>45</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="299" t="s">
         <v>354</v>
       </c>
       <c r="G55" s="13" t="s">
@@ -15073,6 +15085,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F7EFAE-20D7-4A64-88A8-3659D8C99AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE89ABB3-40FB-4F42-8BAE-BAE94EB4264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
@@ -2202,7 +2202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2896,6 +2896,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3059,10 +3065,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3435,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,50 +3470,50 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="245" t="s">
+      <c r="C5" s="247" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246"/>
-      <c r="J5" s="246"/>
-      <c r="K5" s="246"/>
-      <c r="L5" s="247"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="249"/>
       <c r="M5" s="123"/>
-      <c r="N5" s="259" t="s">
+      <c r="N5" s="261" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="259"/>
-      <c r="P5" s="259"/>
-      <c r="Q5" s="259"/>
-      <c r="R5" s="259"/>
-      <c r="S5" s="259"/>
-      <c r="T5" s="259"/>
-      <c r="U5" s="259"/>
-      <c r="V5" s="259"/>
-      <c r="W5" s="259"/>
-      <c r="X5" s="259"/>
-      <c r="Y5" s="259"/>
-      <c r="Z5" s="259"/>
-      <c r="AA5" s="259"/>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="260"/>
-      <c r="AD5" s="243"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="261"/>
+      <c r="Q5" s="261"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="261"/>
+      <c r="T5" s="261"/>
+      <c r="U5" s="261"/>
+      <c r="V5" s="261"/>
+      <c r="W5" s="261"/>
+      <c r="X5" s="261"/>
+      <c r="Y5" s="261"/>
+      <c r="Z5" s="261"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="261"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="245"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="248"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="250"/>
+      <c r="C6" s="250"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="252"/>
       <c r="M6" s="13"/>
       <c r="N6" s="4">
         <v>0</v>
@@ -3557,7 +3563,7 @@
       <c r="AC6" s="124">
         <v>15</v>
       </c>
-      <c r="AD6" s="244"/>
+      <c r="AD6" s="246"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -3565,11 +3571,11 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="251"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
       <c r="H7" s="240"/>
       <c r="I7" s="24" t="s">
         <v>70</v>
@@ -3580,12 +3586,12 @@
       <c r="K7" s="18"/>
       <c r="L7" s="25"/>
       <c r="M7" s="121"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="263"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="263"/>
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
       <c r="T7" s="5" t="s">
         <v>113</v>
       </c>
@@ -3608,61 +3614,61 @@
       <c r="AA7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AB7" s="262" t="s">
+      <c r="AB7" s="264" t="s">
         <v>119</v>
       </c>
-      <c r="AC7" s="263"/>
-      <c r="AD7" s="244"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="246"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C8" s="253" t="s">
+      <c r="C8" s="255" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
       <c r="H8" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="I8" s="255" t="s">
+      <c r="I8" s="257" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="256"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="258"/>
-      <c r="O8" s="258"/>
-      <c r="P8" s="258"/>
-      <c r="Q8" s="258"/>
-      <c r="R8" s="258"/>
-      <c r="S8" s="258"/>
-      <c r="T8" s="267" t="s">
+      <c r="J8" s="258"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="260" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="260"/>
+      <c r="O8" s="260"/>
+      <c r="P8" s="260"/>
+      <c r="Q8" s="260"/>
+      <c r="R8" s="260"/>
+      <c r="S8" s="260"/>
+      <c r="T8" s="269" t="s">
         <v>122</v>
       </c>
-      <c r="U8" s="267"/>
-      <c r="V8" s="268" t="s">
+      <c r="U8" s="269"/>
+      <c r="V8" s="270" t="s">
         <v>123</v>
       </c>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="266" t="s">
+      <c r="W8" s="270"/>
+      <c r="X8" s="270"/>
+      <c r="Y8" s="270"/>
+      <c r="Z8" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="AA8" s="266"/>
-      <c r="AB8" s="264" t="s">
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" s="265"/>
-      <c r="AD8" s="244"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="246"/>
       <c r="AE8" s="118"/>
       <c r="AF8" s="118"/>
       <c r="AG8" s="118"/>
@@ -8153,7 +8159,7 @@
         <v>44</v>
       </c>
       <c r="E54" s="156"/>
-      <c r="F54" s="298" t="s">
+      <c r="F54" s="243" t="s">
         <v>353</v>
       </c>
       <c r="G54" s="130" t="s">
@@ -8177,52 +8183,52 @@
       <c r="M54" s="13">
         <v>1</v>
       </c>
-      <c r="N54" s="40">
-        <v>0</v>
-      </c>
-      <c r="O54" s="40">
-        <v>0</v>
-      </c>
-      <c r="P54" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="40">
-        <v>0</v>
-      </c>
-      <c r="R54" s="40">
-        <v>0</v>
-      </c>
-      <c r="S54" s="41">
-        <v>0</v>
-      </c>
-      <c r="T54" s="40">
-        <v>1</v>
-      </c>
-      <c r="U54" s="41">
-        <v>0</v>
-      </c>
-      <c r="V54" s="40">
-        <v>1</v>
-      </c>
-      <c r="W54" s="40">
-        <v>1</v>
-      </c>
-      <c r="X54" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="41">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="134">
+      <c r="N54" s="300">
+        <v>0</v>
+      </c>
+      <c r="O54" s="300">
+        <v>0</v>
+      </c>
+      <c r="P54" s="300">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="300">
+        <v>0</v>
+      </c>
+      <c r="R54" s="300">
+        <v>0</v>
+      </c>
+      <c r="S54" s="244">
+        <v>0</v>
+      </c>
+      <c r="T54" s="300">
+        <v>1</v>
+      </c>
+      <c r="U54" s="244">
+        <v>0</v>
+      </c>
+      <c r="V54" s="300">
+        <v>1</v>
+      </c>
+      <c r="W54" s="300">
+        <v>1</v>
+      </c>
+      <c r="X54" s="300">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="244">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="300">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="244">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="300">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="301">
         <v>1</v>
       </c>
       <c r="AD54" s="173" t="str">
@@ -8251,7 +8257,7 @@
       <c r="D55" s="130">
         <v>45</v>
       </c>
-      <c r="F55" s="299" t="s">
+      <c r="F55" s="244" t="s">
         <v>354</v>
       </c>
       <c r="G55" s="13" t="s">
@@ -8275,52 +8281,52 @@
       <c r="M55" s="13">
         <v>1</v>
       </c>
-      <c r="N55" s="40">
-        <v>0</v>
-      </c>
-      <c r="O55" s="40">
-        <v>0</v>
-      </c>
-      <c r="P55" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="40">
-        <v>0</v>
-      </c>
-      <c r="R55" s="40">
-        <v>0</v>
-      </c>
-      <c r="S55" s="41">
-        <v>0</v>
-      </c>
-      <c r="T55" s="40">
-        <v>1</v>
-      </c>
-      <c r="U55" s="41">
-        <v>1</v>
-      </c>
-      <c r="V55" s="40">
-        <v>1</v>
-      </c>
-      <c r="W55" s="40">
-        <v>0</v>
-      </c>
-      <c r="X55" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="41">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="134">
+      <c r="N55" s="300">
+        <v>0</v>
+      </c>
+      <c r="O55" s="300">
+        <v>0</v>
+      </c>
+      <c r="P55" s="300">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="300">
+        <v>0</v>
+      </c>
+      <c r="R55" s="300">
+        <v>0</v>
+      </c>
+      <c r="S55" s="244">
+        <v>0</v>
+      </c>
+      <c r="T55" s="300">
+        <v>1</v>
+      </c>
+      <c r="U55" s="244">
+        <v>1</v>
+      </c>
+      <c r="V55" s="300">
+        <v>1</v>
+      </c>
+      <c r="W55" s="300">
+        <v>0</v>
+      </c>
+      <c r="X55" s="300">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="244">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="300">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="244">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="300">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="301">
         <v>1</v>
       </c>
       <c r="AD55" s="173" t="str">
@@ -15116,61 +15122,61 @@
       <c r="F5" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="269" t="s">
+      <c r="G5" s="271" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="162"/>
-      <c r="G6" s="270"/>
+      <c r="G6" s="272"/>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="162"/>
-      <c r="G7" s="270"/>
+      <c r="G7" s="272"/>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="162"/>
-      <c r="G8" s="270"/>
+      <c r="G8" s="272"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="162"/>
-      <c r="G9" s="270"/>
+      <c r="G9" s="272"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="162"/>
-      <c r="G10" s="270"/>
+      <c r="G10" s="272"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F11" s="162"/>
-      <c r="G11" s="270"/>
+      <c r="G11" s="272"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="162"/>
-      <c r="G12" s="270"/>
+      <c r="G12" s="272"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="162"/>
-      <c r="G13" s="270"/>
+      <c r="G13" s="272"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" s="162"/>
-      <c r="G14" s="270"/>
+      <c r="G14" s="272"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F15" s="162"/>
-      <c r="G15" s="270"/>
+      <c r="G15" s="272"/>
     </row>
     <row r="16" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="271"/>
+      <c r="G16" s="273"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="162" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="272" t="s">
+      <c r="G17" s="274" t="s">
         <v>212</v>
       </c>
     </row>
@@ -15178,83 +15184,83 @@
       <c r="F18" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="273"/>
+      <c r="G18" s="275"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="162" t="s">
         <v>215</v>
       </c>
-      <c r="G19" s="274" t="s">
+      <c r="G19" s="276" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="162"/>
-      <c r="G20" s="275"/>
+      <c r="G20" s="277"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="162"/>
-      <c r="G21" s="275"/>
+      <c r="G21" s="277"/>
     </row>
     <row r="22" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="276"/>
+      <c r="G22" s="278"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="G23" s="277" t="s">
+      <c r="G23" s="279" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="162"/>
-      <c r="G24" s="278"/>
+      <c r="G24" s="280"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="162"/>
-      <c r="G25" s="278"/>
+      <c r="G25" s="280"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="162"/>
-      <c r="G26" s="278"/>
+      <c r="G26" s="280"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="162"/>
-      <c r="G27" s="278"/>
+      <c r="G27" s="280"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="162"/>
-      <c r="G28" s="278"/>
+      <c r="G28" s="280"/>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="162"/>
-      <c r="G29" s="278"/>
+      <c r="G29" s="280"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="162"/>
-      <c r="G30" s="278"/>
+      <c r="G30" s="280"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="162"/>
-      <c r="G31" s="278"/>
+      <c r="G31" s="280"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="162"/>
-      <c r="G32" s="278"/>
+      <c r="G32" s="280"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="162"/>
-      <c r="G33" s="278"/>
+      <c r="G33" s="280"/>
     </row>
     <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="G34" s="279"/>
+      <c r="G34" s="281"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="162" t="s">
@@ -16229,31 +16235,31 @@
   <sheetData>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="284"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="290" t="s">
+      <c r="B3" s="286"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287"/>
+      <c r="F3" s="287"/>
+      <c r="G3" s="287"/>
+      <c r="H3" s="288"/>
+      <c r="I3" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="291"/>
-      <c r="N3" s="291"/>
-      <c r="O3" s="291"/>
-      <c r="P3" s="291"/>
-      <c r="Q3" s="291"/>
-      <c r="R3" s="291"/>
-      <c r="S3" s="291"/>
-      <c r="T3" s="291"/>
-      <c r="U3" s="291"/>
-      <c r="V3" s="291"/>
-      <c r="W3" s="291"/>
-      <c r="X3" s="292"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
+      <c r="M3" s="293"/>
+      <c r="N3" s="293"/>
+      <c r="O3" s="293"/>
+      <c r="P3" s="293"/>
+      <c r="Q3" s="293"/>
+      <c r="R3" s="293"/>
+      <c r="S3" s="293"/>
+      <c r="T3" s="293"/>
+      <c r="U3" s="293"/>
+      <c r="V3" s="293"/>
+      <c r="W3" s="293"/>
+      <c r="X3" s="294"/>
       <c r="Y3" s="76"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51"/>
@@ -16261,20 +16267,20 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="280"/>
-      <c r="AG3" s="280"/>
-      <c r="AH3" s="280"/>
-      <c r="AI3" s="280"/>
+      <c r="AF3" s="282"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="282"/>
+      <c r="AI3" s="282"/>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="287"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288"/>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288"/>
-      <c r="H4" s="289"/>
+      <c r="B4" s="289"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="291"/>
       <c r="I4" s="52">
         <v>0</v>
       </c>
@@ -16323,7 +16329,7 @@
       <c r="X4" s="53">
         <v>15</v>
       </c>
-      <c r="Y4" s="296" t="s">
+      <c r="Y4" s="298" t="s">
         <v>93</v>
       </c>
       <c r="Z4" s="45"/>
@@ -16342,28 +16348,28 @@
       <c r="B5" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="293" t="s">
+      <c r="C5" s="295" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="281" t="s">
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="283" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="282"/>
-      <c r="K5" s="282"/>
-      <c r="L5" s="282"/>
-      <c r="M5" s="282"/>
-      <c r="N5" s="283"/>
-      <c r="O5" s="281" t="s">
+      <c r="J5" s="284"/>
+      <c r="K5" s="284"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="284"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="283" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="282"/>
-      <c r="Q5" s="282"/>
-      <c r="R5" s="283"/>
+      <c r="P5" s="284"/>
+      <c r="Q5" s="284"/>
+      <c r="R5" s="285"/>
       <c r="S5" s="20" t="s">
         <v>79</v>
       </c>
@@ -16382,7 +16388,7 @@
       <c r="X5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" s="297"/>
+      <c r="Y5" s="299"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -22102,14 +22108,14 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="288" t="s">
+      <c r="D18" s="290" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="288"/>
-      <c r="G18" s="288" t="s">
+      <c r="E18" s="290"/>
+      <c r="G18" s="290" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="288"/>
+      <c r="H18" s="290"/>
       <c r="Q18">
         <v>2</v>
       </c>

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE89ABB3-40FB-4F42-8BAE-BAE94EB4264D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D57FE8-E9B1-497C-BBA2-D56538434990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Unit" sheetId="1" r:id="rId1"/>
@@ -2902,6 +2902,12 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3063,12 +3069,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3441,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA51" sqref="AA51"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,50 +3470,50 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="247" t="s">
+      <c r="C5" s="249" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="249"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="251"/>
       <c r="M5" s="123"/>
-      <c r="N5" s="261" t="s">
+      <c r="N5" s="263" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="261"/>
-      <c r="P5" s="261"/>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
-      <c r="U5" s="261"/>
-      <c r="V5" s="261"/>
-      <c r="W5" s="261"/>
-      <c r="X5" s="261"/>
-      <c r="Y5" s="261"/>
-      <c r="Z5" s="261"/>
-      <c r="AA5" s="261"/>
-      <c r="AB5" s="261"/>
-      <c r="AC5" s="262"/>
-      <c r="AD5" s="245"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="263"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="247"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="250"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="251"/>
-      <c r="L6" s="252"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="254"/>
       <c r="M6" s="13"/>
       <c r="N6" s="4">
         <v>0</v>
@@ -3563,7 +3563,7 @@
       <c r="AC6" s="124">
         <v>15</v>
       </c>
-      <c r="AD6" s="246"/>
+      <c r="AD6" s="248"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -3571,11 +3571,11 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="253"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
       <c r="H7" s="240"/>
       <c r="I7" s="24" t="s">
         <v>70</v>
@@ -3586,12 +3586,12 @@
       <c r="K7" s="18"/>
       <c r="L7" s="25"/>
       <c r="M7" s="121"/>
-      <c r="N7" s="263"/>
-      <c r="O7" s="263"/>
-      <c r="P7" s="263"/>
-      <c r="Q7" s="263"/>
-      <c r="R7" s="263"/>
-      <c r="S7" s="263"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="265"/>
+      <c r="Q7" s="265"/>
+      <c r="R7" s="265"/>
+      <c r="S7" s="265"/>
       <c r="T7" s="5" t="s">
         <v>113</v>
       </c>
@@ -3614,61 +3614,61 @@
       <c r="AA7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AB7" s="264" t="s">
+      <c r="AB7" s="266" t="s">
         <v>119</v>
       </c>
-      <c r="AC7" s="265"/>
-      <c r="AD7" s="246"/>
+      <c r="AC7" s="267"/>
+      <c r="AD7" s="248"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C8" s="255" t="s">
+      <c r="C8" s="257" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="258"/>
       <c r="H8" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="I8" s="257" t="s">
+      <c r="I8" s="259" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="258"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="260" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="260"/>
-      <c r="O8" s="260"/>
-      <c r="P8" s="260"/>
-      <c r="Q8" s="260"/>
-      <c r="R8" s="260"/>
-      <c r="S8" s="260"/>
-      <c r="T8" s="269" t="s">
+      <c r="J8" s="260"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="261"/>
+      <c r="M8" s="262" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="262"/>
+      <c r="O8" s="262"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="271" t="s">
         <v>122</v>
       </c>
-      <c r="U8" s="269"/>
-      <c r="V8" s="270" t="s">
+      <c r="U8" s="271"/>
+      <c r="V8" s="272" t="s">
         <v>123</v>
       </c>
-      <c r="W8" s="270"/>
-      <c r="X8" s="270"/>
-      <c r="Y8" s="270"/>
-      <c r="Z8" s="268" t="s">
+      <c r="W8" s="272"/>
+      <c r="X8" s="272"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="270" t="s">
         <v>120</v>
       </c>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="266" t="s">
+      <c r="AA8" s="270"/>
+      <c r="AB8" s="268" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" s="267"/>
-      <c r="AD8" s="246"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="248"/>
       <c r="AE8" s="118"/>
       <c r="AF8" s="118"/>
       <c r="AG8" s="118"/>
@@ -8183,52 +8183,52 @@
       <c r="M54" s="13">
         <v>1</v>
       </c>
-      <c r="N54" s="300">
-        <v>0</v>
-      </c>
-      <c r="O54" s="300">
-        <v>0</v>
-      </c>
-      <c r="P54" s="300">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="300">
-        <v>0</v>
-      </c>
-      <c r="R54" s="300">
+      <c r="N54" s="245">
+        <v>0</v>
+      </c>
+      <c r="O54" s="245">
+        <v>0</v>
+      </c>
+      <c r="P54" s="245">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="245">
+        <v>0</v>
+      </c>
+      <c r="R54" s="245">
         <v>0</v>
       </c>
       <c r="S54" s="244">
         <v>0</v>
       </c>
-      <c r="T54" s="300">
+      <c r="T54" s="245">
         <v>1</v>
       </c>
       <c r="U54" s="244">
         <v>0</v>
       </c>
-      <c r="V54" s="300">
-        <v>1</v>
-      </c>
-      <c r="W54" s="300">
-        <v>1</v>
-      </c>
-      <c r="X54" s="300">
+      <c r="V54" s="245">
+        <v>1</v>
+      </c>
+      <c r="W54" s="245">
+        <v>1</v>
+      </c>
+      <c r="X54" s="245">
         <v>0</v>
       </c>
       <c r="Y54" s="244">
         <v>1</v>
       </c>
-      <c r="Z54" s="300">
+      <c r="Z54" s="245">
         <v>0</v>
       </c>
       <c r="AA54" s="244">
         <v>0</v>
       </c>
-      <c r="AB54" s="300">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="301">
+      <c r="AB54" s="245">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="246">
         <v>1</v>
       </c>
       <c r="AD54" s="173" t="str">
@@ -8281,52 +8281,52 @@
       <c r="M55" s="13">
         <v>1</v>
       </c>
-      <c r="N55" s="300">
-        <v>0</v>
-      </c>
-      <c r="O55" s="300">
-        <v>0</v>
-      </c>
-      <c r="P55" s="300">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="300">
-        <v>0</v>
-      </c>
-      <c r="R55" s="300">
+      <c r="N55" s="245">
+        <v>0</v>
+      </c>
+      <c r="O55" s="245">
+        <v>0</v>
+      </c>
+      <c r="P55" s="245">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="245">
+        <v>0</v>
+      </c>
+      <c r="R55" s="245">
         <v>0</v>
       </c>
       <c r="S55" s="244">
         <v>0</v>
       </c>
-      <c r="T55" s="300">
+      <c r="T55" s="245">
         <v>1</v>
       </c>
       <c r="U55" s="244">
         <v>1</v>
       </c>
-      <c r="V55" s="300">
-        <v>1</v>
-      </c>
-      <c r="W55" s="300">
-        <v>0</v>
-      </c>
-      <c r="X55" s="300">
+      <c r="V55" s="245">
+        <v>1</v>
+      </c>
+      <c r="W55" s="245">
+        <v>0</v>
+      </c>
+      <c r="X55" s="245">
         <v>0</v>
       </c>
       <c r="Y55" s="244">
         <v>1</v>
       </c>
-      <c r="Z55" s="300">
+      <c r="Z55" s="245">
         <v>0</v>
       </c>
       <c r="AA55" s="244">
         <v>0</v>
       </c>
-      <c r="AB55" s="300">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="301">
+      <c r="AB55" s="245">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="246">
         <v>1</v>
       </c>
       <c r="AD55" s="173" t="str">
@@ -15122,61 +15122,61 @@
       <c r="F5" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="271" t="s">
+      <c r="G5" s="273" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="162"/>
-      <c r="G6" s="272"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="162"/>
-      <c r="G7" s="272"/>
+      <c r="G7" s="274"/>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="162"/>
-      <c r="G8" s="272"/>
+      <c r="G8" s="274"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="162"/>
-      <c r="G9" s="272"/>
+      <c r="G9" s="274"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="162"/>
-      <c r="G10" s="272"/>
+      <c r="G10" s="274"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F11" s="162"/>
-      <c r="G11" s="272"/>
+      <c r="G11" s="274"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="162"/>
-      <c r="G12" s="272"/>
+      <c r="G12" s="274"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="162"/>
-      <c r="G13" s="272"/>
+      <c r="G13" s="274"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" s="162"/>
-      <c r="G14" s="272"/>
+      <c r="G14" s="274"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F15" s="162"/>
-      <c r="G15" s="272"/>
+      <c r="G15" s="274"/>
     </row>
     <row r="16" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="273"/>
+      <c r="G16" s="275"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="162" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="274" t="s">
+      <c r="G17" s="276" t="s">
         <v>212</v>
       </c>
     </row>
@@ -15184,83 +15184,83 @@
       <c r="F18" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="275"/>
+      <c r="G18" s="277"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="162" t="s">
         <v>215</v>
       </c>
-      <c r="G19" s="276" t="s">
+      <c r="G19" s="278" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="162"/>
-      <c r="G20" s="277"/>
+      <c r="G20" s="279"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="162"/>
-      <c r="G21" s="277"/>
+      <c r="G21" s="279"/>
     </row>
     <row r="22" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="278"/>
+      <c r="G22" s="280"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="G23" s="279" t="s">
+      <c r="G23" s="281" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="162"/>
-      <c r="G24" s="280"/>
+      <c r="G24" s="282"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="162"/>
-      <c r="G25" s="280"/>
+      <c r="G25" s="282"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="162"/>
-      <c r="G26" s="280"/>
+      <c r="G26" s="282"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="162"/>
-      <c r="G27" s="280"/>
+      <c r="G27" s="282"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="162"/>
-      <c r="G28" s="280"/>
+      <c r="G28" s="282"/>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="162"/>
-      <c r="G29" s="280"/>
+      <c r="G29" s="282"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="162"/>
-      <c r="G30" s="280"/>
+      <c r="G30" s="282"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="162"/>
-      <c r="G31" s="280"/>
+      <c r="G31" s="282"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="162"/>
-      <c r="G32" s="280"/>
+      <c r="G32" s="282"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="162"/>
-      <c r="G33" s="280"/>
+      <c r="G33" s="282"/>
     </row>
     <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="G34" s="281"/>
+      <c r="G34" s="283"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="162" t="s">
@@ -16235,31 +16235,31 @@
   <sheetData>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="286"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="292" t="s">
+      <c r="B3" s="288"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="294" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="293"/>
-      <c r="N3" s="293"/>
-      <c r="O3" s="293"/>
-      <c r="P3" s="293"/>
-      <c r="Q3" s="293"/>
-      <c r="R3" s="293"/>
-      <c r="S3" s="293"/>
-      <c r="T3" s="293"/>
-      <c r="U3" s="293"/>
-      <c r="V3" s="293"/>
-      <c r="W3" s="293"/>
-      <c r="X3" s="294"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="295"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="295"/>
+      <c r="Q3" s="295"/>
+      <c r="R3" s="295"/>
+      <c r="S3" s="295"/>
+      <c r="T3" s="295"/>
+      <c r="U3" s="295"/>
+      <c r="V3" s="295"/>
+      <c r="W3" s="295"/>
+      <c r="X3" s="296"/>
       <c r="Y3" s="76"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51"/>
@@ -16267,20 +16267,20 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="282"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="282"/>
-      <c r="AI3" s="282"/>
+      <c r="AF3" s="284"/>
+      <c r="AG3" s="284"/>
+      <c r="AH3" s="284"/>
+      <c r="AI3" s="284"/>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="289"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="291"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="293"/>
       <c r="I4" s="52">
         <v>0</v>
       </c>
@@ -16329,7 +16329,7 @@
       <c r="X4" s="53">
         <v>15</v>
       </c>
-      <c r="Y4" s="298" t="s">
+      <c r="Y4" s="300" t="s">
         <v>93</v>
       </c>
       <c r="Z4" s="45"/>
@@ -16348,28 +16348,28 @@
       <c r="B5" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="283" t="s">
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="285" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="284"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="283" t="s">
+      <c r="J5" s="286"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
+      <c r="M5" s="286"/>
+      <c r="N5" s="287"/>
+      <c r="O5" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="284"/>
-      <c r="Q5" s="284"/>
-      <c r="R5" s="285"/>
+      <c r="P5" s="286"/>
+      <c r="Q5" s="286"/>
+      <c r="R5" s="287"/>
       <c r="S5" s="20" t="s">
         <v>79</v>
       </c>
@@ -16388,7 +16388,7 @@
       <c r="X5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" s="299"/>
+      <c r="Y5" s="301"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -22108,14 +22108,14 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="290" t="s">
+      <c r="D18" s="292" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="290"/>
-      <c r="G18" s="290" t="s">
+      <c r="E18" s="292"/>
+      <c r="G18" s="292" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="290"/>
+      <c r="H18" s="292"/>
       <c r="Q18">
         <v>2</v>
       </c>

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D57FE8-E9B1-497C-BBA2-D56538434990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150A1B5-A360-49A7-812C-48D970D06818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Unit" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="369">
   <si>
     <t>1=Read</t>
   </si>
@@ -1112,6 +1112,45 @@
   </si>
   <si>
     <t>ACC &lt;- PORT</t>
+  </si>
+  <si>
+    <t>PTRREG = #data</t>
+  </si>
+  <si>
+    <t>PTRREG_LOW /HIGH = ACC</t>
+  </si>
+  <si>
+    <t>NIB</t>
+  </si>
+  <si>
+    <t>dat0</t>
+  </si>
+  <si>
+    <t>dat1</t>
+  </si>
+  <si>
+    <t>PSHVB</t>
+  </si>
+  <si>
+    <t>LDPTRV</t>
+  </si>
+  <si>
+    <t>MOVPTRAC</t>
+  </si>
+  <si>
+    <t>GMEM[PTRREG++] = ACC</t>
+  </si>
+  <si>
+    <t>ACC = PTR_LOW/HIGH</t>
+  </si>
+  <si>
+    <t>MOVACPTR</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>Write data1 to PTRREG</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2906,6 +2945,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3441,8 +3486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,50 +3515,50 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="249" t="s">
+      <c r="C5" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="251"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="253"/>
       <c r="M5" s="123"/>
-      <c r="N5" s="263" t="s">
+      <c r="N5" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="263"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="263"/>
-      <c r="S5" s="263"/>
-      <c r="T5" s="263"/>
-      <c r="U5" s="263"/>
-      <c r="V5" s="263"/>
-      <c r="W5" s="263"/>
-      <c r="X5" s="263"/>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263"/>
-      <c r="AA5" s="263"/>
-      <c r="AB5" s="263"/>
-      <c r="AC5" s="264"/>
-      <c r="AD5" s="247"/>
+      <c r="O5" s="265"/>
+      <c r="P5" s="265"/>
+      <c r="Q5" s="265"/>
+      <c r="R5" s="265"/>
+      <c r="S5" s="265"/>
+      <c r="T5" s="265"/>
+      <c r="U5" s="265"/>
+      <c r="V5" s="265"/>
+      <c r="W5" s="265"/>
+      <c r="X5" s="265"/>
+      <c r="Y5" s="265"/>
+      <c r="Z5" s="265"/>
+      <c r="AA5" s="265"/>
+      <c r="AB5" s="265"/>
+      <c r="AC5" s="266"/>
+      <c r="AD5" s="249"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="252"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="254"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="255"/>
+      <c r="L6" s="256"/>
       <c r="M6" s="13"/>
       <c r="N6" s="4">
         <v>0</v>
@@ -3563,7 +3608,7 @@
       <c r="AC6" s="124">
         <v>15</v>
       </c>
-      <c r="AD6" s="248"/>
+      <c r="AD6" s="250"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -3571,11 +3616,11 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="255"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="258"/>
       <c r="H7" s="240"/>
       <c r="I7" s="24" t="s">
         <v>70</v>
@@ -3586,12 +3631,12 @@
       <c r="K7" s="18"/>
       <c r="L7" s="25"/>
       <c r="M7" s="121"/>
-      <c r="N7" s="265"/>
-      <c r="O7" s="265"/>
-      <c r="P7" s="265"/>
-      <c r="Q7" s="265"/>
-      <c r="R7" s="265"/>
-      <c r="S7" s="265"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
       <c r="T7" s="5" t="s">
         <v>113</v>
       </c>
@@ -3614,61 +3659,61 @@
       <c r="AA7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AB7" s="266" t="s">
+      <c r="AB7" s="268" t="s">
         <v>119</v>
       </c>
-      <c r="AC7" s="267"/>
-      <c r="AD7" s="248"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="250"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C8" s="257" t="s">
+      <c r="C8" s="259" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="258"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="258"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
       <c r="H8" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="I8" s="259" t="s">
+      <c r="I8" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="260"/>
-      <c r="K8" s="260"/>
-      <c r="L8" s="261"/>
-      <c r="M8" s="262" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="262"/>
-      <c r="O8" s="262"/>
-      <c r="P8" s="262"/>
-      <c r="Q8" s="262"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="262"/>
-      <c r="T8" s="271" t="s">
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="263"/>
+      <c r="M8" s="264" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="264"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="273" t="s">
         <v>122</v>
       </c>
-      <c r="U8" s="271"/>
-      <c r="V8" s="272" t="s">
+      <c r="U8" s="273"/>
+      <c r="V8" s="274" t="s">
         <v>123</v>
       </c>
-      <c r="W8" s="272"/>
-      <c r="X8" s="272"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="270" t="s">
+      <c r="W8" s="274"/>
+      <c r="X8" s="274"/>
+      <c r="Y8" s="274"/>
+      <c r="Z8" s="272" t="s">
         <v>120</v>
       </c>
-      <c r="AA8" s="270"/>
-      <c r="AB8" s="268" t="s">
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="270" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="248"/>
+      <c r="AC8" s="271"/>
+      <c r="AD8" s="250"/>
       <c r="AE8" s="118"/>
       <c r="AF8" s="118"/>
       <c r="AG8" s="118"/>
@@ -8358,6 +8403,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="10"/>
       <c r="H56" s="37"/>
+      <c r="L56" s="17"/>
       <c r="M56" s="13">
         <v>1</v>
       </c>
@@ -8438,6 +8484,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="10"/>
       <c r="H57" s="37"/>
+      <c r="L57" s="17"/>
       <c r="M57" s="13">
         <v>1</v>
       </c>
@@ -8515,9 +8562,25 @@
       <c r="D58" s="130">
         <v>48</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="10"/>
+      <c r="F58" s="248" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="H58" s="37"/>
+      <c r="I58" s="17">
+        <v>0</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="M58" s="13">
         <v>1</v>
       </c>
@@ -8543,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="U58" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="40">
         <v>1</v>
@@ -8571,7 +8634,7 @@
       </c>
       <c r="AD58" s="173" t="str">
         <f t="shared" si="21"/>
-        <v>CBC0</v>
+        <v>CB40</v>
       </c>
       <c r="AE58" s="3" t="str">
         <f t="shared" si="22"/>
@@ -8579,7 +8642,7 @@
       </c>
       <c r="AF58" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>C0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
@@ -8595,33 +8658,51 @@
       <c r="D59" s="130">
         <v>49</v>
       </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="10"/>
+      <c r="E59" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="F59" s="248" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="H59" s="37"/>
-      <c r="L59" s="11"/>
+      <c r="I59" s="17">
+        <v>0</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>360</v>
+      </c>
       <c r="M59" s="13">
         <v>1</v>
       </c>
       <c r="N59" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="40">
         <v>0</v>
       </c>
       <c r="Q59" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="40">
         <v>0</v>
       </c>
       <c r="S59" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="41">
         <v>1</v>
@@ -8639,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="Z59" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59" s="41">
         <v>0</v>
@@ -8652,15 +8733,15 @@
       </c>
       <c r="AD59" s="173" t="str">
         <f t="shared" ref="AD59" si="27">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC59,AB59,AA59,Z59)), BIN2HEX(_xlfn.CONCAT(Y59,X59,W59,V59)), BIN2HEX(_xlfn.CONCAT(U59,T59,S59,R59)), BIN2HEX(_xlfn.CONCAT(Q59,P59,O59,N59)))</f>
-        <v>CBC0</v>
+        <v>DBAB</v>
       </c>
       <c r="AE59" s="3" t="str">
         <f t="shared" ref="AE59" si="28">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(AC59,AB59,AA59,Z59)), BIN2HEX(_xlfn.CONCAT(Y59,X59,W59,V59)))</f>
-        <v>CB</v>
+        <v>DB</v>
       </c>
       <c r="AF59" s="2" t="str">
         <f t="shared" ref="AF59" si="29">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(U59,T59,S59,R59)),BIN2HEX(_xlfn.CONCAT(Q59,P59,O59,N59)))</f>
-        <v>C0</v>
+        <v>AB</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
@@ -8676,10 +8757,25 @@
       <c r="D60" s="130">
         <v>50</v>
       </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="10"/>
+      <c r="F60" s="247" t="s">
+        <v>363</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="H60" s="37"/>
-      <c r="L60" s="11"/>
+      <c r="I60" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="M60" s="13">
         <v>1</v>
       </c>
@@ -8705,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="U60" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" s="40">
         <v>1</v>
@@ -8733,7 +8829,7 @@
       </c>
       <c r="AD60" s="173" t="str">
         <f t="shared" si="1"/>
-        <v>CBC0</v>
+        <v>CB40</v>
       </c>
       <c r="AE60" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8741,7 +8837,7 @@
       </c>
       <c r="AF60" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>C0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
@@ -8757,10 +8853,25 @@
       <c r="D61" s="130">
         <v>51</v>
       </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="10"/>
+      <c r="F61" s="247" t="s">
+        <v>366</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="H61" s="37"/>
-      <c r="L61" s="11"/>
+      <c r="I61" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="M61" s="13">
         <v>1</v>
       </c>
@@ -8786,13 +8897,13 @@
         <v>1</v>
       </c>
       <c r="U61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="40">
         <v>1</v>
       </c>
       <c r="W61" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="40">
         <v>0</v>
@@ -8814,15 +8925,15 @@
       </c>
       <c r="AD61" s="173" t="str">
         <f t="shared" si="1"/>
-        <v>CBC0</v>
+        <v>C940</v>
       </c>
       <c r="AE61" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>CB</v>
+        <v>C9</v>
       </c>
       <c r="AF61" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>C0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
@@ -14274,8 +14385,12 @@
       <c r="D127" s="130">
         <v>117</v>
       </c>
-      <c r="F127" s="41"/>
-      <c r="G127" s="10"/>
+      <c r="F127" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="H127" s="10"/>
       <c r="L127" s="9"/>
       <c r="M127" s="41">
@@ -14299,27 +14414,47 @@
       <c r="S127" s="40">
         <v>0</v>
       </c>
-      <c r="T127" s="40"/>
-      <c r="U127" s="41"/>
-      <c r="V127" s="40"/>
-      <c r="W127" s="40"/>
-      <c r="X127" s="40"/>
-      <c r="Y127" s="41"/>
-      <c r="Z127" s="40"/>
-      <c r="AA127" s="41"/>
-      <c r="AB127" s="40"/>
-      <c r="AC127" s="134"/>
+      <c r="T127" s="40">
+        <v>0</v>
+      </c>
+      <c r="U127" s="41">
+        <v>1</v>
+      </c>
+      <c r="V127" s="40">
+        <v>1</v>
+      </c>
+      <c r="W127" s="40">
+        <v>1</v>
+      </c>
+      <c r="X127" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="40">
+        <v>1</v>
+      </c>
+      <c r="AA127" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="134">
+        <v>1</v>
+      </c>
       <c r="AD127" s="173" t="str">
         <f t="shared" si="41"/>
-        <v>0000</v>
+        <v>DB80</v>
       </c>
       <c r="AE127" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>00</v>
+        <v>DB</v>
       </c>
       <c r="AF127" s="2" t="str">
         <f t="shared" si="43"/>
-        <v>00</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="2:32" x14ac:dyDescent="0.25">
@@ -15122,61 +15257,61 @@
       <c r="F5" s="163" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="273" t="s">
+      <c r="G5" s="275" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="162"/>
-      <c r="G6" s="274"/>
+      <c r="G6" s="276"/>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="162"/>
-      <c r="G7" s="274"/>
+      <c r="G7" s="276"/>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="162"/>
-      <c r="G8" s="274"/>
+      <c r="G8" s="276"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="162"/>
-      <c r="G9" s="274"/>
+      <c r="G9" s="276"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="162"/>
-      <c r="G10" s="274"/>
+      <c r="G10" s="276"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F11" s="162"/>
-      <c r="G11" s="274"/>
+      <c r="G11" s="276"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="162"/>
-      <c r="G12" s="274"/>
+      <c r="G12" s="276"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="162"/>
-      <c r="G13" s="274"/>
+      <c r="G13" s="276"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" s="162"/>
-      <c r="G14" s="274"/>
+      <c r="G14" s="276"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F15" s="162"/>
-      <c r="G15" s="274"/>
+      <c r="G15" s="276"/>
     </row>
     <row r="16" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="275"/>
+      <c r="G16" s="277"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="162" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="276" t="s">
+      <c r="G17" s="278" t="s">
         <v>212</v>
       </c>
     </row>
@@ -15184,83 +15319,83 @@
       <c r="F18" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="G18" s="277"/>
+      <c r="G18" s="279"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="162" t="s">
         <v>215</v>
       </c>
-      <c r="G19" s="278" t="s">
+      <c r="G19" s="280" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="162"/>
-      <c r="G20" s="279"/>
+      <c r="G20" s="281"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="162"/>
-      <c r="G21" s="279"/>
+      <c r="G21" s="281"/>
     </row>
     <row r="22" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="280"/>
+      <c r="G22" s="282"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="G23" s="281" t="s">
+      <c r="G23" s="283" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="162"/>
-      <c r="G24" s="282"/>
+      <c r="G24" s="284"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="162"/>
-      <c r="G25" s="282"/>
+      <c r="G25" s="284"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="162"/>
-      <c r="G26" s="282"/>
+      <c r="G26" s="284"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="162"/>
-      <c r="G27" s="282"/>
+      <c r="G27" s="284"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="162"/>
-      <c r="G28" s="282"/>
+      <c r="G28" s="284"/>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="162"/>
-      <c r="G29" s="282"/>
+      <c r="G29" s="284"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="162"/>
-      <c r="G30" s="282"/>
+      <c r="G30" s="284"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="162"/>
-      <c r="G31" s="282"/>
+      <c r="G31" s="284"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="162"/>
-      <c r="G32" s="282"/>
+      <c r="G32" s="284"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="162"/>
-      <c r="G33" s="282"/>
+      <c r="G33" s="284"/>
     </row>
     <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="G34" s="283"/>
+      <c r="G34" s="285"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="162" t="s">
@@ -16235,31 +16370,31 @@
   <sheetData>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="288"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="294" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="296" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="295"/>
-      <c r="N3" s="295"/>
-      <c r="O3" s="295"/>
-      <c r="P3" s="295"/>
-      <c r="Q3" s="295"/>
-      <c r="R3" s="295"/>
-      <c r="S3" s="295"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="296"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="297"/>
+      <c r="U3" s="297"/>
+      <c r="V3" s="297"/>
+      <c r="W3" s="297"/>
+      <c r="X3" s="298"/>
       <c r="Y3" s="76"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51"/>
@@ -16267,20 +16402,20 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="284"/>
-      <c r="AG3" s="284"/>
-      <c r="AH3" s="284"/>
-      <c r="AI3" s="284"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="286"/>
+      <c r="AH3" s="286"/>
+      <c r="AI3" s="286"/>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="291"/>
-      <c r="C4" s="292"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="293"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="294"/>
+      <c r="D4" s="294"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="294"/>
+      <c r="G4" s="294"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="52">
         <v>0</v>
       </c>
@@ -16329,7 +16464,7 @@
       <c r="X4" s="53">
         <v>15</v>
       </c>
-      <c r="Y4" s="300" t="s">
+      <c r="Y4" s="302" t="s">
         <v>93</v>
       </c>
       <c r="Z4" s="45"/>
@@ -16348,28 +16483,28 @@
       <c r="B5" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="297" t="s">
+      <c r="C5" s="299" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="285" t="s">
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="287" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="286"/>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="287"/>
-      <c r="O5" s="285" t="s">
+      <c r="J5" s="288"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="287"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="289"/>
       <c r="S5" s="20" t="s">
         <v>79</v>
       </c>
@@ -16388,7 +16523,7 @@
       <c r="X5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" s="301"/>
+      <c r="Y5" s="303"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -21597,8 +21732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F461F9F-87D6-4C96-820F-6111A3E2F850}">
   <dimension ref="C4:AA37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22108,14 +22243,14 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="292" t="s">
+      <c r="D18" s="294" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="292"/>
-      <c r="G18" s="292" t="s">
+      <c r="E18" s="294"/>
+      <c r="G18" s="294" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="292"/>
+      <c r="H18" s="294"/>
       <c r="Q18">
         <v>2</v>
       </c>

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150A1B5-A360-49A7-812C-48D970D06818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA3E176-2C40-400A-9CAE-2917DA7F748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Control-Unit" sheetId="1" r:id="rId1"/>
@@ -3486,8 +3486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8550,7 +8550,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="178"/>
+      <c r="A58" s="160"/>
       <c r="B58" s="40" t="str">
         <f t="shared" si="24"/>
         <v>30</v>
@@ -8646,7 +8646,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="178"/>
+      <c r="A59" s="160"/>
       <c r="B59" s="40" t="str">
         <f t="shared" ref="B59:B67" si="25">DEC2HEX(D59)</f>
         <v>31</v>
@@ -8745,7 +8745,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="178"/>
+      <c r="A60" s="160"/>
       <c r="B60" s="40" t="str">
         <f t="shared" si="25"/>
         <v>32</v>
@@ -8841,7 +8841,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="178"/>
+      <c r="A61" s="160"/>
       <c r="B61" s="40" t="str">
         <f t="shared" si="25"/>
         <v>33</v>
@@ -21732,7 +21732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F461F9F-87D6-4C96-820F-6111A3E2F850}">
   <dimension ref="C4:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA3E176-2C40-400A-9CAE-2917DA7F748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA66043-FD99-4A48-8304-2BCF512BA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
@@ -3486,8 +3486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0373F33-972A-4E8D-B1CE-9C5EF0708B27}">
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50:N50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8568,7 +8568,9 @@
       <c r="G58" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="H58" s="37"/>
+      <c r="H58" s="37">
+        <v>2</v>
+      </c>
       <c r="I58" s="17">
         <v>0</v>
       </c>
@@ -8667,7 +8669,9 @@
       <c r="G59" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="H59" s="37"/>
+      <c r="H59" s="37">
+        <v>3</v>
+      </c>
       <c r="I59" s="17">
         <v>0</v>
       </c>
@@ -8763,7 +8767,9 @@
       <c r="G60" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="H60" s="37"/>
+      <c r="H60" s="37">
+        <v>2</v>
+      </c>
       <c r="I60" s="17" t="s">
         <v>358</v>
       </c>
@@ -8859,7 +8865,9 @@
       <c r="G61" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="H61" s="37"/>
+      <c r="H61" s="37">
+        <v>2</v>
+      </c>
       <c r="I61" s="17" t="s">
         <v>358</v>
       </c>
